--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9809684575143803</v>
+        <v>0.9809684575143792</v>
       </c>
       <c r="D2">
-        <v>1.000428929166383</v>
+        <v>1.000428929166382</v>
       </c>
       <c r="E2">
-        <v>0.98754099048118</v>
+        <v>0.9875409904811793</v>
       </c>
       <c r="F2">
-        <v>0.9566900742214445</v>
+        <v>0.956690074221443</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035332666780429</v>
+        <v>1.035332666780428</v>
       </c>
       <c r="J2">
         <v>1.003733691261426</v>
       </c>
       <c r="K2">
-        <v>1.011882291557173</v>
+        <v>1.011882291557172</v>
       </c>
       <c r="L2">
-        <v>0.9991766720259063</v>
+        <v>0.9991766720259055</v>
       </c>
       <c r="M2">
-        <v>0.9687876822797359</v>
+        <v>0.9687876822797349</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907497729859212</v>
+        <v>0.9907497729859229</v>
       </c>
       <c r="D3">
-        <v>1.008484955816111</v>
+        <v>1.008484955816113</v>
       </c>
       <c r="E3">
-        <v>0.9960196485226305</v>
+        <v>0.9960196485226321</v>
       </c>
       <c r="F3">
-        <v>0.9702293930655497</v>
+        <v>0.9702293930655521</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0392237784031</v>
+        <v>1.039223778403101</v>
       </c>
       <c r="J3">
-        <v>1.01149582479653</v>
+        <v>1.011495824796531</v>
       </c>
       <c r="K3">
-        <v>1.019010409110071</v>
+        <v>1.019010409110073</v>
       </c>
       <c r="L3">
-        <v>1.006703713312777</v>
+        <v>1.006703713312779</v>
       </c>
       <c r="M3">
-        <v>0.9812579196135602</v>
+        <v>0.9812579196135626</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968028678432338</v>
+        <v>0.9968028678432342</v>
       </c>
       <c r="D4">
         <v>1.013469094848224</v>
       </c>
       <c r="E4">
-        <v>1.001267003029379</v>
+        <v>1.00126700302938</v>
       </c>
       <c r="F4">
         <v>0.978577688684825</v>
@@ -524,7 +524,7 @@
         <v>1.0113501604564</v>
       </c>
       <c r="M4">
-        <v>0.9889417283178774</v>
+        <v>0.9889417283178775</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9992868949896867</v>
+        <v>0.999286894989686</v>
       </c>
       <c r="D5">
-        <v>1.015514089845743</v>
+        <v>1.015514089845742</v>
       </c>
       <c r="E5">
-        <v>1.003420360900663</v>
+        <v>1.003420360900662</v>
       </c>
       <c r="F5">
-        <v>0.9819976375565028</v>
+        <v>0.9819976375565016</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042587389174394</v>
       </c>
       <c r="J5">
-        <v>1.018253019254886</v>
+        <v>1.018253019254885</v>
       </c>
       <c r="K5">
-        <v>1.02520881296949</v>
+        <v>1.025208812969489</v>
       </c>
       <c r="L5">
         <v>1.013254111007369</v>
       </c>
       <c r="M5">
-        <v>0.9920881097756026</v>
+        <v>0.9920881097756011</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.999700558453941</v>
+        <v>0.9997005584539436</v>
       </c>
       <c r="D6">
-        <v>1.015854618672825</v>
+        <v>1.015854618672828</v>
       </c>
       <c r="E6">
-        <v>1.003778954333517</v>
+        <v>1.00377895433352</v>
       </c>
       <c r="F6">
-        <v>0.9825668431059287</v>
+        <v>0.9825668431059315</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042749532367409</v>
+        <v>1.042749532367411</v>
       </c>
       <c r="J6">
-        <v>1.018579982940044</v>
+        <v>1.018579982940046</v>
       </c>
       <c r="K6">
-        <v>1.025508567415836</v>
+        <v>1.025508567415838</v>
       </c>
       <c r="L6">
-        <v>1.013571007197055</v>
+        <v>1.013571007197058</v>
       </c>
       <c r="M6">
-        <v>0.9926117016846397</v>
+        <v>0.9926117016846424</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.99683629142741</v>
+        <v>0.9968362914274079</v>
       </c>
       <c r="D7">
-        <v>1.013496612586777</v>
+        <v>1.013496612586776</v>
       </c>
       <c r="E7">
-        <v>1.001295977523458</v>
+        <v>1.001295977523456</v>
       </c>
       <c r="F7">
-        <v>0.9786237275470043</v>
+        <v>0.9786237275470034</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041625191759228</v>
+        <v>1.041625191759227</v>
       </c>
       <c r="J7">
-        <v>1.01631515241739</v>
+        <v>1.016315152417388</v>
       </c>
       <c r="K7">
-        <v>1.023431881665201</v>
+        <v>1.0234318816652</v>
       </c>
       <c r="L7">
-        <v>1.011375790147689</v>
+        <v>1.011375790147687</v>
       </c>
       <c r="M7">
-        <v>0.9889840899372058</v>
+        <v>0.9889840899372051</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843347561020169</v>
+        <v>0.984334756102016</v>
       </c>
       <c r="D8">
-        <v>1.003201695867526</v>
+        <v>1.003201695867525</v>
       </c>
       <c r="E8">
-        <v>0.9904588130490817</v>
+        <v>0.9904588130490805</v>
       </c>
       <c r="F8">
-        <v>0.9613570967182417</v>
+        <v>0.9613570967182407</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036676012732437</v>
+        <v>1.036676012732436</v>
       </c>
       <c r="J8">
-        <v>1.006407342703796</v>
+        <v>1.006407342703795</v>
       </c>
       <c r="K8">
-        <v>1.014338472107755</v>
+        <v>1.014338472107754</v>
       </c>
       <c r="L8">
-        <v>1.001769595898199</v>
+        <v>1.001769595898198</v>
       </c>
       <c r="M8">
-        <v>0.9730872646975363</v>
+        <v>0.9730872646975351</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9599001114165642</v>
+        <v>0.9599001114165643</v>
       </c>
       <c r="D9">
         <v>0.9830719558416837</v>
       </c>
       <c r="E9">
-        <v>0.9692869320602703</v>
+        <v>0.9692869320602699</v>
       </c>
       <c r="F9">
-        <v>0.9272723059677687</v>
+        <v>0.9272723059677678</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1.026837405152868</v>
       </c>
       <c r="J9">
-        <v>0.9869529448055243</v>
+        <v>0.9869529448055241</v>
       </c>
       <c r="K9">
         <v>0.9964457823325817</v>
@@ -714,7 +714,7 @@
         <v>0.9828987701509144</v>
       </c>
       <c r="M9">
-        <v>0.9416669149638952</v>
+        <v>0.9416669149638948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414821871067821</v>
+        <v>0.9414821871067836</v>
       </c>
       <c r="D10">
-        <v>0.9678969202207564</v>
+        <v>0.9678969202207577</v>
       </c>
       <c r="E10">
-        <v>0.9533462329125048</v>
+        <v>0.9533462329125062</v>
       </c>
       <c r="F10">
-        <v>0.9011908725138599</v>
+        <v>0.901190872513862</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01930625012342</v>
+        <v>1.019306250123421</v>
       </c>
       <c r="J10">
-        <v>0.9722265879991943</v>
+        <v>0.9722265879991956</v>
       </c>
       <c r="K10">
-        <v>0.9828710497263659</v>
+        <v>0.9828710497263672</v>
       </c>
       <c r="L10">
-        <v>0.9686122202499221</v>
+        <v>0.9686122202499234</v>
       </c>
       <c r="M10">
-        <v>0.9176069936331688</v>
+        <v>0.9176069936331711</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9328445507335029</v>
+        <v>0.9328445507335035</v>
       </c>
       <c r="D11">
-        <v>0.960780209951453</v>
+        <v>0.9607802099514537</v>
       </c>
       <c r="E11">
-        <v>0.9458779328129416</v>
+        <v>0.9458779328129422</v>
       </c>
       <c r="F11">
-        <v>0.8888139334070564</v>
+        <v>0.8888139334070571</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015746257810706</v>
       </c>
       <c r="J11">
-        <v>0.9653049046857531</v>
+        <v>0.965304904685754</v>
       </c>
       <c r="K11">
-        <v>0.9764816960491737</v>
+        <v>0.9764816960491745</v>
       </c>
       <c r="L11">
-        <v>0.9618981604028627</v>
+        <v>0.9618981604028632</v>
       </c>
       <c r="M11">
-        <v>0.9061887317638169</v>
+        <v>0.9061887317638176</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9295184074016661</v>
+        <v>0.9295184074016665</v>
       </c>
       <c r="D12">
-        <v>0.9580397575926741</v>
+        <v>0.9580397575926746</v>
       </c>
       <c r="E12">
-        <v>0.9430035697449189</v>
+        <v>0.9430035697449192</v>
       </c>
       <c r="F12">
-        <v>0.8840196771988775</v>
+        <v>0.8840196771988781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014371089591982</v>
+        <v>1.014371089591983</v>
       </c>
       <c r="J12">
-        <v>0.9626371556502993</v>
+        <v>0.9626371556502999</v>
       </c>
       <c r="K12">
-        <v>0.974017558228602</v>
+        <v>0.9740175582286026</v>
       </c>
       <c r="L12">
-        <v>0.9593107362707114</v>
+        <v>0.9593107362707118</v>
       </c>
       <c r="M12">
-        <v>0.901766160064984</v>
+        <v>0.9017661600649846</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9302375548417825</v>
       </c>
       <c r="D13">
-        <v>0.9586322720110915</v>
+        <v>0.958632272011091</v>
       </c>
       <c r="E13">
-        <v>0.9436249634656163</v>
+        <v>0.9436249634656164</v>
       </c>
       <c r="F13">
-        <v>0.8850576406645554</v>
+        <v>0.8850576406645553</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>0.9632140599820377</v>
       </c>
       <c r="K13">
-        <v>0.9745505057853509</v>
+        <v>0.9745505057853506</v>
       </c>
       <c r="L13">
-        <v>0.9598702533287521</v>
+        <v>0.959870253328752</v>
       </c>
       <c r="M13">
-        <v>0.9027236296121647</v>
+        <v>0.9027236296121646</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9325721367280962</v>
+        <v>0.9325721367280979</v>
       </c>
       <c r="D14">
-        <v>0.9605557642902738</v>
+        <v>0.9605557642902756</v>
       </c>
       <c r="E14">
-        <v>0.9456424874667831</v>
+        <v>0.9456424874667844</v>
       </c>
       <c r="F14">
-        <v>0.8884218921850968</v>
+        <v>0.8884218921850981</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015633717760153</v>
+        <v>1.015633717760154</v>
       </c>
       <c r="J14">
-        <v>0.9650864622630609</v>
+        <v>0.9650864622630628</v>
       </c>
       <c r="K14">
-        <v>0.9762799587722575</v>
+        <v>0.9762799587722591</v>
       </c>
       <c r="L14">
-        <v>0.9616862879431384</v>
+        <v>0.9616862879431396</v>
       </c>
       <c r="M14">
-        <v>0.9058270745656728</v>
+        <v>0.9058270745656741</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9339943144435349</v>
+        <v>0.9339943144435391</v>
       </c>
       <c r="D15">
-        <v>0.9617275168510371</v>
+        <v>0.9617275168510407</v>
       </c>
       <c r="E15">
-        <v>0.9468717275592791</v>
+        <v>0.9468717275592827</v>
       </c>
       <c r="F15">
-        <v>0.8904674208426862</v>
+        <v>0.8904674208426908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016221075571637</v>
+        <v>1.016221075571639</v>
       </c>
       <c r="J15">
-        <v>0.9662267768493221</v>
+        <v>0.966226776849326</v>
       </c>
       <c r="K15">
-        <v>0.9773330047209909</v>
+        <v>0.9773330047209946</v>
       </c>
       <c r="L15">
-        <v>0.9627923193048822</v>
+        <v>0.9627923193048858</v>
       </c>
       <c r="M15">
-        <v>0.9077140869122259</v>
+        <v>0.9077140869122305</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9420400390526195</v>
+        <v>0.9420400390526189</v>
       </c>
       <c r="D16">
-        <v>0.968356548117937</v>
+        <v>0.9683565481179368</v>
       </c>
       <c r="E16">
-        <v>0.9538287468161345</v>
+        <v>0.9538287468161339</v>
       </c>
       <c r="F16">
-        <v>0.9019867815941887</v>
+        <v>0.9019867815941888</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019535590727069</v>
+        <v>1.019535590727068</v>
       </c>
       <c r="J16">
-        <v>0.9726732996860578</v>
+        <v>0.9726732996860574</v>
       </c>
       <c r="K16">
-        <v>0.9832832076664882</v>
+        <v>0.9832832076664879</v>
       </c>
       <c r="L16">
-        <v>0.9690455633795728</v>
+        <v>0.9690455633795723</v>
       </c>
       <c r="M16">
         <v>0.9183412738663892</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9468981763311356</v>
+        <v>0.9468981763311366</v>
       </c>
       <c r="D17">
-        <v>0.9723593012770153</v>
+        <v>0.9723593012770161</v>
       </c>
       <c r="E17">
-        <v>0.9580316623523268</v>
+        <v>0.9580316623523274</v>
       </c>
       <c r="F17">
-        <v>0.9089014799362002</v>
+        <v>0.908901479936201</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021529732338214</v>
+        <v>1.021529732338215</v>
       </c>
       <c r="J17">
-        <v>0.9765618571794087</v>
+        <v>0.9765618571794095</v>
       </c>
       <c r="K17">
-        <v>0.9868699737942344</v>
+        <v>0.9868699737942352</v>
       </c>
       <c r="L17">
-        <v>0.9728178635023289</v>
+        <v>0.9728178635023296</v>
       </c>
       <c r="M17">
-        <v>0.9247205192522525</v>
+        <v>0.9247205192522535</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9496693716426715</v>
+        <v>0.9496693716426726</v>
       </c>
       <c r="D18">
-        <v>0.9746425737034221</v>
+        <v>0.9746425737034234</v>
       </c>
       <c r="E18">
-        <v>0.9604297730524138</v>
+        <v>0.9604297730524151</v>
       </c>
       <c r="F18">
-        <v>0.9128329223269467</v>
+        <v>0.9128329223269489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022664669466598</v>
+        <v>1.0226646694666</v>
       </c>
       <c r="J18">
-        <v>0.9787785805425101</v>
+        <v>0.9787785805425111</v>
       </c>
       <c r="K18">
-        <v>0.9889138515908085</v>
+        <v>0.9889138515908098</v>
       </c>
       <c r="L18">
-        <v>0.974968383251987</v>
+        <v>0.9749683832519883</v>
       </c>
       <c r="M18">
-        <v>0.9283474327361557</v>
+        <v>0.9283474327361576</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9506041551200464</v>
+        <v>0.9506041551200444</v>
       </c>
       <c r="D19">
-        <v>0.9754127708438444</v>
+        <v>0.9754127708438423</v>
       </c>
       <c r="E19">
-        <v>0.9612388114485992</v>
+        <v>0.9612388114485971</v>
       </c>
       <c r="F19">
-        <v>0.9141570529927637</v>
+        <v>0.9141570529927615</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023047074287378</v>
+        <v>1.023047074287377</v>
       </c>
       <c r="J19">
-        <v>0.9795260926525018</v>
+        <v>0.9795260926524997</v>
       </c>
       <c r="K19">
-        <v>0.9896029459721422</v>
+        <v>0.9896029459721399</v>
       </c>
       <c r="L19">
-        <v>0.9756935784537248</v>
+        <v>0.9756935784537227</v>
       </c>
       <c r="M19">
-        <v>0.9295689708961985</v>
+        <v>0.9295689708961963</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9463835217738821</v>
+        <v>0.9463835217738833</v>
       </c>
       <c r="D20">
-        <v>0.971935262149514</v>
+        <v>0.9719352621495151</v>
       </c>
       <c r="E20">
-        <v>0.9575863476964227</v>
+        <v>0.9575863476964237</v>
       </c>
       <c r="F20">
-        <v>0.9081703400818677</v>
+        <v>0.9081703400818693</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021318748110219</v>
+        <v>1.02131874811022</v>
       </c>
       <c r="J20">
-        <v>0.9761500631436872</v>
+        <v>0.9761500631436882</v>
       </c>
       <c r="K20">
-        <v>0.9864902244213853</v>
+        <v>0.9864902244213866</v>
       </c>
       <c r="L20">
-        <v>0.9724183726547374</v>
+        <v>0.9724183726547382</v>
       </c>
       <c r="M20">
-        <v>0.9240460034838173</v>
+        <v>0.9240460034838192</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9318880834221576</v>
+        <v>0.9318880834221601</v>
       </c>
       <c r="D21">
-        <v>0.9599921635691793</v>
+        <v>0.9599921635691818</v>
       </c>
       <c r="E21">
-        <v>0.9450512907477295</v>
+        <v>0.9450512907477318</v>
       </c>
       <c r="F21">
-        <v>0.8874369686252567</v>
+        <v>0.8874369686252598</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01535105146171</v>
+        <v>1.015351051461712</v>
       </c>
       <c r="J21">
-        <v>0.9645378975158884</v>
+        <v>0.9645378975158909</v>
       </c>
       <c r="K21">
-        <v>0.9757733191061903</v>
+        <v>0.9757733191061928</v>
       </c>
       <c r="L21">
-        <v>0.9611542275630762</v>
+        <v>0.9611542275630786</v>
       </c>
       <c r="M21">
-        <v>0.9049184917782882</v>
+        <v>0.9049184917782909</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9220796603583757</v>
+        <v>0.9220796603583759</v>
       </c>
       <c r="D22">
-        <v>0.9519108681272099</v>
+        <v>0.95191086812721</v>
       </c>
       <c r="E22">
-        <v>0.9365784737260541</v>
+        <v>0.9365784737260544</v>
       </c>
       <c r="F22">
-        <v>0.873235834688422</v>
+        <v>0.8732358346884224</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011287440787622</v>
       </c>
       <c r="J22">
-        <v>0.9566663173956081</v>
+        <v>0.9566663173956085</v>
       </c>
       <c r="K22">
         <v>0.9684992136329769</v>
       </c>
       <c r="L22">
-        <v>0.9535204834651367</v>
+        <v>0.9535204834651371</v>
       </c>
       <c r="M22">
-        <v>0.891819618787064</v>
+        <v>0.8918196187870641</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9273527127558862</v>
+        <v>0.927352712755887</v>
       </c>
       <c r="D23">
-        <v>0.956255415280269</v>
+        <v>0.9562554152802702</v>
       </c>
       <c r="E23">
-        <v>0.9411325103042023</v>
+        <v>0.9411325103042038</v>
       </c>
       <c r="F23">
-        <v>0.8808891167803322</v>
+        <v>0.8808891167803335</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013474469748342</v>
+        <v>1.013474469748343</v>
       </c>
       <c r="J23">
-        <v>0.9608994651076622</v>
+        <v>0.9608994651076633</v>
       </c>
       <c r="K23">
-        <v>0.9724120196552177</v>
+        <v>0.9724120196552188</v>
       </c>
       <c r="L23">
-        <v>0.9576254785402197</v>
+        <v>0.9576254785402212</v>
       </c>
       <c r="M23">
-        <v>0.8988784660160007</v>
+        <v>0.898878466016002</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9466162637608163</v>
+        <v>0.946616263760818</v>
       </c>
       <c r="D24">
-        <v>0.9721270251392026</v>
+        <v>0.9721270251392041</v>
       </c>
       <c r="E24">
-        <v>0.9577877300705449</v>
+        <v>0.9577877300705464</v>
       </c>
       <c r="F24">
-        <v>0.9085010227985949</v>
+        <v>0.9085010227985969</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021414169411732</v>
+        <v>1.021414169411733</v>
       </c>
       <c r="J24">
-        <v>0.9763362929304145</v>
+        <v>0.9763362929304161</v>
       </c>
       <c r="K24">
-        <v>0.9866619648241726</v>
+        <v>0.9866619648241742</v>
       </c>
       <c r="L24">
-        <v>0.9725990382377964</v>
+        <v>0.9725990382377978</v>
       </c>
       <c r="M24">
-        <v>0.9243510763541722</v>
+        <v>0.9243510763541741</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9665481789703663</v>
+        <v>0.9665481789703645</v>
       </c>
       <c r="D25">
-        <v>0.9885493162679932</v>
+        <v>0.9885493162679918</v>
       </c>
       <c r="E25">
-        <v>0.9750451985624919</v>
+        <v>0.9750451985624903</v>
       </c>
       <c r="F25">
-        <v>0.9365975067217036</v>
+        <v>0.9365975067217015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029533233723696</v>
+        <v>1.029533233723694</v>
       </c>
       <c r="J25">
-        <v>0.9922562656195488</v>
+        <v>0.9922562656195469</v>
       </c>
       <c r="K25">
-        <v>1.001328028823467</v>
+        <v>1.001328028823466</v>
       </c>
       <c r="L25">
-        <v>0.988043666021412</v>
+        <v>0.9880436660214104</v>
       </c>
       <c r="M25">
-        <v>0.9502668498128206</v>
+        <v>0.9502668498128186</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9809684575143792</v>
+        <v>0.9809684575143803</v>
       </c>
       <c r="D2">
-        <v>1.000428929166382</v>
+        <v>1.000428929166383</v>
       </c>
       <c r="E2">
-        <v>0.9875409904811793</v>
+        <v>0.98754099048118</v>
       </c>
       <c r="F2">
-        <v>0.956690074221443</v>
+        <v>0.9566900742214445</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035332666780428</v>
+        <v>1.035332666780429</v>
       </c>
       <c r="J2">
         <v>1.003733691261426</v>
       </c>
       <c r="K2">
-        <v>1.011882291557172</v>
+        <v>1.011882291557173</v>
       </c>
       <c r="L2">
-        <v>0.9991766720259055</v>
+        <v>0.9991766720259063</v>
       </c>
       <c r="M2">
-        <v>0.9687876822797349</v>
+        <v>0.9687876822797359</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907497729859229</v>
+        <v>0.9907497729859212</v>
       </c>
       <c r="D3">
-        <v>1.008484955816113</v>
+        <v>1.008484955816111</v>
       </c>
       <c r="E3">
-        <v>0.9960196485226321</v>
+        <v>0.9960196485226305</v>
       </c>
       <c r="F3">
-        <v>0.9702293930655521</v>
+        <v>0.9702293930655497</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039223778403101</v>
+        <v>1.0392237784031</v>
       </c>
       <c r="J3">
-        <v>1.011495824796531</v>
+        <v>1.01149582479653</v>
       </c>
       <c r="K3">
-        <v>1.019010409110073</v>
+        <v>1.019010409110071</v>
       </c>
       <c r="L3">
-        <v>1.006703713312779</v>
+        <v>1.006703713312777</v>
       </c>
       <c r="M3">
-        <v>0.9812579196135626</v>
+        <v>0.9812579196135602</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968028678432342</v>
+        <v>0.9968028678432338</v>
       </c>
       <c r="D4">
         <v>1.013469094848224</v>
       </c>
       <c r="E4">
-        <v>1.00126700302938</v>
+        <v>1.001267003029379</v>
       </c>
       <c r="F4">
         <v>0.978577688684825</v>
@@ -524,7 +524,7 @@
         <v>1.0113501604564</v>
       </c>
       <c r="M4">
-        <v>0.9889417283178775</v>
+        <v>0.9889417283178774</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999286894989686</v>
+        <v>0.9992868949896867</v>
       </c>
       <c r="D5">
-        <v>1.015514089845742</v>
+        <v>1.015514089845743</v>
       </c>
       <c r="E5">
-        <v>1.003420360900662</v>
+        <v>1.003420360900663</v>
       </c>
       <c r="F5">
-        <v>0.9819976375565016</v>
+        <v>0.9819976375565028</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -553,16 +553,16 @@
         <v>1.042587389174394</v>
       </c>
       <c r="J5">
-        <v>1.018253019254885</v>
+        <v>1.018253019254886</v>
       </c>
       <c r="K5">
-        <v>1.025208812969489</v>
+        <v>1.02520881296949</v>
       </c>
       <c r="L5">
         <v>1.013254111007369</v>
       </c>
       <c r="M5">
-        <v>0.9920881097756011</v>
+        <v>0.9920881097756026</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9997005584539436</v>
+        <v>0.999700558453941</v>
       </c>
       <c r="D6">
-        <v>1.015854618672828</v>
+        <v>1.015854618672825</v>
       </c>
       <c r="E6">
-        <v>1.00377895433352</v>
+        <v>1.003778954333517</v>
       </c>
       <c r="F6">
-        <v>0.9825668431059315</v>
+        <v>0.9825668431059287</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042749532367411</v>
+        <v>1.042749532367409</v>
       </c>
       <c r="J6">
-        <v>1.018579982940046</v>
+        <v>1.018579982940044</v>
       </c>
       <c r="K6">
-        <v>1.025508567415838</v>
+        <v>1.025508567415836</v>
       </c>
       <c r="L6">
-        <v>1.013571007197058</v>
+        <v>1.013571007197055</v>
       </c>
       <c r="M6">
-        <v>0.9926117016846424</v>
+        <v>0.9926117016846397</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9968362914274079</v>
+        <v>0.99683629142741</v>
       </c>
       <c r="D7">
-        <v>1.013496612586776</v>
+        <v>1.013496612586777</v>
       </c>
       <c r="E7">
-        <v>1.001295977523456</v>
+        <v>1.001295977523458</v>
       </c>
       <c r="F7">
-        <v>0.9786237275470034</v>
+        <v>0.9786237275470043</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041625191759227</v>
+        <v>1.041625191759228</v>
       </c>
       <c r="J7">
-        <v>1.016315152417388</v>
+        <v>1.01631515241739</v>
       </c>
       <c r="K7">
-        <v>1.0234318816652</v>
+        <v>1.023431881665201</v>
       </c>
       <c r="L7">
-        <v>1.011375790147687</v>
+        <v>1.011375790147689</v>
       </c>
       <c r="M7">
-        <v>0.9889840899372051</v>
+        <v>0.9889840899372058</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.984334756102016</v>
+        <v>0.9843347561020169</v>
       </c>
       <c r="D8">
-        <v>1.003201695867525</v>
+        <v>1.003201695867526</v>
       </c>
       <c r="E8">
-        <v>0.9904588130490805</v>
+        <v>0.9904588130490817</v>
       </c>
       <c r="F8">
-        <v>0.9613570967182407</v>
+        <v>0.9613570967182417</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036676012732436</v>
+        <v>1.036676012732437</v>
       </c>
       <c r="J8">
-        <v>1.006407342703795</v>
+        <v>1.006407342703796</v>
       </c>
       <c r="K8">
-        <v>1.014338472107754</v>
+        <v>1.014338472107755</v>
       </c>
       <c r="L8">
-        <v>1.001769595898198</v>
+        <v>1.001769595898199</v>
       </c>
       <c r="M8">
-        <v>0.9730872646975351</v>
+        <v>0.9730872646975363</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9599001114165643</v>
+        <v>0.9599001114165642</v>
       </c>
       <c r="D9">
         <v>0.9830719558416837</v>
       </c>
       <c r="E9">
-        <v>0.9692869320602699</v>
+        <v>0.9692869320602703</v>
       </c>
       <c r="F9">
-        <v>0.9272723059677678</v>
+        <v>0.9272723059677687</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>1.026837405152868</v>
       </c>
       <c r="J9">
-        <v>0.9869529448055241</v>
+        <v>0.9869529448055243</v>
       </c>
       <c r="K9">
         <v>0.9964457823325817</v>
@@ -714,7 +714,7 @@
         <v>0.9828987701509144</v>
       </c>
       <c r="M9">
-        <v>0.9416669149638948</v>
+        <v>0.9416669149638952</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414821871067836</v>
+        <v>0.9414821871067821</v>
       </c>
       <c r="D10">
-        <v>0.9678969202207577</v>
+        <v>0.9678969202207564</v>
       </c>
       <c r="E10">
-        <v>0.9533462329125062</v>
+        <v>0.9533462329125048</v>
       </c>
       <c r="F10">
-        <v>0.901190872513862</v>
+        <v>0.9011908725138599</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019306250123421</v>
+        <v>1.01930625012342</v>
       </c>
       <c r="J10">
-        <v>0.9722265879991956</v>
+        <v>0.9722265879991943</v>
       </c>
       <c r="K10">
-        <v>0.9828710497263672</v>
+        <v>0.9828710497263659</v>
       </c>
       <c r="L10">
-        <v>0.9686122202499234</v>
+        <v>0.9686122202499221</v>
       </c>
       <c r="M10">
-        <v>0.9176069936331711</v>
+        <v>0.9176069936331688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9328445507335035</v>
+        <v>0.9328445507335029</v>
       </c>
       <c r="D11">
-        <v>0.9607802099514537</v>
+        <v>0.960780209951453</v>
       </c>
       <c r="E11">
-        <v>0.9458779328129422</v>
+        <v>0.9458779328129416</v>
       </c>
       <c r="F11">
-        <v>0.8888139334070571</v>
+        <v>0.8888139334070564</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.015746257810706</v>
       </c>
       <c r="J11">
-        <v>0.965304904685754</v>
+        <v>0.9653049046857531</v>
       </c>
       <c r="K11">
-        <v>0.9764816960491745</v>
+        <v>0.9764816960491737</v>
       </c>
       <c r="L11">
-        <v>0.9618981604028632</v>
+        <v>0.9618981604028627</v>
       </c>
       <c r="M11">
-        <v>0.9061887317638176</v>
+        <v>0.9061887317638169</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9295184074016665</v>
+        <v>0.9295184074016661</v>
       </c>
       <c r="D12">
-        <v>0.9580397575926746</v>
+        <v>0.9580397575926741</v>
       </c>
       <c r="E12">
-        <v>0.9430035697449192</v>
+        <v>0.9430035697449189</v>
       </c>
       <c r="F12">
-        <v>0.8840196771988781</v>
+        <v>0.8840196771988775</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014371089591983</v>
+        <v>1.014371089591982</v>
       </c>
       <c r="J12">
-        <v>0.9626371556502999</v>
+        <v>0.9626371556502993</v>
       </c>
       <c r="K12">
-        <v>0.9740175582286026</v>
+        <v>0.974017558228602</v>
       </c>
       <c r="L12">
-        <v>0.9593107362707118</v>
+        <v>0.9593107362707114</v>
       </c>
       <c r="M12">
-        <v>0.9017661600649846</v>
+        <v>0.901766160064984</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -842,13 +842,13 @@
         <v>0.9302375548417825</v>
       </c>
       <c r="D13">
-        <v>0.958632272011091</v>
+        <v>0.9586322720110915</v>
       </c>
       <c r="E13">
-        <v>0.9436249634656164</v>
+        <v>0.9436249634656163</v>
       </c>
       <c r="F13">
-        <v>0.8850576406645553</v>
+        <v>0.8850576406645554</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -860,13 +860,13 @@
         <v>0.9632140599820377</v>
       </c>
       <c r="K13">
-        <v>0.9745505057853506</v>
+        <v>0.9745505057853509</v>
       </c>
       <c r="L13">
-        <v>0.959870253328752</v>
+        <v>0.9598702533287521</v>
       </c>
       <c r="M13">
-        <v>0.9027236296121646</v>
+        <v>0.9027236296121647</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9325721367280979</v>
+        <v>0.9325721367280962</v>
       </c>
       <c r="D14">
-        <v>0.9605557642902756</v>
+        <v>0.9605557642902738</v>
       </c>
       <c r="E14">
-        <v>0.9456424874667844</v>
+        <v>0.9456424874667831</v>
       </c>
       <c r="F14">
-        <v>0.8884218921850981</v>
+        <v>0.8884218921850968</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015633717760154</v>
+        <v>1.015633717760153</v>
       </c>
       <c r="J14">
-        <v>0.9650864622630628</v>
+        <v>0.9650864622630609</v>
       </c>
       <c r="K14">
-        <v>0.9762799587722591</v>
+        <v>0.9762799587722575</v>
       </c>
       <c r="L14">
-        <v>0.9616862879431396</v>
+        <v>0.9616862879431384</v>
       </c>
       <c r="M14">
-        <v>0.9058270745656741</v>
+        <v>0.9058270745656728</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9339943144435391</v>
+        <v>0.9339943144435349</v>
       </c>
       <c r="D15">
-        <v>0.9617275168510407</v>
+        <v>0.9617275168510371</v>
       </c>
       <c r="E15">
-        <v>0.9468717275592827</v>
+        <v>0.9468717275592791</v>
       </c>
       <c r="F15">
-        <v>0.8904674208426908</v>
+        <v>0.8904674208426862</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016221075571639</v>
+        <v>1.016221075571637</v>
       </c>
       <c r="J15">
-        <v>0.966226776849326</v>
+        <v>0.9662267768493221</v>
       </c>
       <c r="K15">
-        <v>0.9773330047209946</v>
+        <v>0.9773330047209909</v>
       </c>
       <c r="L15">
-        <v>0.9627923193048858</v>
+        <v>0.9627923193048822</v>
       </c>
       <c r="M15">
-        <v>0.9077140869122305</v>
+        <v>0.9077140869122259</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,31 +953,31 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9420400390526189</v>
+        <v>0.9420400390526195</v>
       </c>
       <c r="D16">
-        <v>0.9683565481179368</v>
+        <v>0.968356548117937</v>
       </c>
       <c r="E16">
-        <v>0.9538287468161339</v>
+        <v>0.9538287468161345</v>
       </c>
       <c r="F16">
-        <v>0.9019867815941888</v>
+        <v>0.9019867815941887</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019535590727068</v>
+        <v>1.019535590727069</v>
       </c>
       <c r="J16">
-        <v>0.9726732996860574</v>
+        <v>0.9726732996860578</v>
       </c>
       <c r="K16">
-        <v>0.9832832076664879</v>
+        <v>0.9832832076664882</v>
       </c>
       <c r="L16">
-        <v>0.9690455633795723</v>
+        <v>0.9690455633795728</v>
       </c>
       <c r="M16">
         <v>0.9183412738663892</v>
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9468981763311366</v>
+        <v>0.9468981763311356</v>
       </c>
       <c r="D17">
-        <v>0.9723593012770161</v>
+        <v>0.9723593012770153</v>
       </c>
       <c r="E17">
-        <v>0.9580316623523274</v>
+        <v>0.9580316623523268</v>
       </c>
       <c r="F17">
-        <v>0.908901479936201</v>
+        <v>0.9089014799362002</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021529732338215</v>
+        <v>1.021529732338214</v>
       </c>
       <c r="J17">
-        <v>0.9765618571794095</v>
+        <v>0.9765618571794087</v>
       </c>
       <c r="K17">
-        <v>0.9868699737942352</v>
+        <v>0.9868699737942344</v>
       </c>
       <c r="L17">
-        <v>0.9728178635023296</v>
+        <v>0.9728178635023289</v>
       </c>
       <c r="M17">
-        <v>0.9247205192522535</v>
+        <v>0.9247205192522525</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9496693716426726</v>
+        <v>0.9496693716426715</v>
       </c>
       <c r="D18">
-        <v>0.9746425737034234</v>
+        <v>0.9746425737034221</v>
       </c>
       <c r="E18">
-        <v>0.9604297730524151</v>
+        <v>0.9604297730524138</v>
       </c>
       <c r="F18">
-        <v>0.9128329223269489</v>
+        <v>0.9128329223269467</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.0226646694666</v>
+        <v>1.022664669466598</v>
       </c>
       <c r="J18">
-        <v>0.9787785805425111</v>
+        <v>0.9787785805425101</v>
       </c>
       <c r="K18">
-        <v>0.9889138515908098</v>
+        <v>0.9889138515908085</v>
       </c>
       <c r="L18">
-        <v>0.9749683832519883</v>
+        <v>0.974968383251987</v>
       </c>
       <c r="M18">
-        <v>0.9283474327361576</v>
+        <v>0.9283474327361557</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9506041551200444</v>
+        <v>0.9506041551200464</v>
       </c>
       <c r="D19">
-        <v>0.9754127708438423</v>
+        <v>0.9754127708438444</v>
       </c>
       <c r="E19">
-        <v>0.9612388114485971</v>
+        <v>0.9612388114485992</v>
       </c>
       <c r="F19">
-        <v>0.9141570529927615</v>
+        <v>0.9141570529927637</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023047074287377</v>
+        <v>1.023047074287378</v>
       </c>
       <c r="J19">
-        <v>0.9795260926524997</v>
+        <v>0.9795260926525018</v>
       </c>
       <c r="K19">
-        <v>0.9896029459721399</v>
+        <v>0.9896029459721422</v>
       </c>
       <c r="L19">
-        <v>0.9756935784537227</v>
+        <v>0.9756935784537248</v>
       </c>
       <c r="M19">
-        <v>0.9295689708961963</v>
+        <v>0.9295689708961985</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9463835217738833</v>
+        <v>0.9463835217738821</v>
       </c>
       <c r="D20">
-        <v>0.9719352621495151</v>
+        <v>0.971935262149514</v>
       </c>
       <c r="E20">
-        <v>0.9575863476964237</v>
+        <v>0.9575863476964227</v>
       </c>
       <c r="F20">
-        <v>0.9081703400818693</v>
+        <v>0.9081703400818677</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02131874811022</v>
+        <v>1.021318748110219</v>
       </c>
       <c r="J20">
-        <v>0.9761500631436882</v>
+        <v>0.9761500631436872</v>
       </c>
       <c r="K20">
-        <v>0.9864902244213866</v>
+        <v>0.9864902244213853</v>
       </c>
       <c r="L20">
-        <v>0.9724183726547382</v>
+        <v>0.9724183726547374</v>
       </c>
       <c r="M20">
-        <v>0.9240460034838192</v>
+        <v>0.9240460034838173</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9318880834221601</v>
+        <v>0.9318880834221576</v>
       </c>
       <c r="D21">
-        <v>0.9599921635691818</v>
+        <v>0.9599921635691793</v>
       </c>
       <c r="E21">
-        <v>0.9450512907477318</v>
+        <v>0.9450512907477295</v>
       </c>
       <c r="F21">
-        <v>0.8874369686252598</v>
+        <v>0.8874369686252567</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.015351051461712</v>
+        <v>1.01535105146171</v>
       </c>
       <c r="J21">
-        <v>0.9645378975158909</v>
+        <v>0.9645378975158884</v>
       </c>
       <c r="K21">
-        <v>0.9757733191061928</v>
+        <v>0.9757733191061903</v>
       </c>
       <c r="L21">
-        <v>0.9611542275630786</v>
+        <v>0.9611542275630762</v>
       </c>
       <c r="M21">
-        <v>0.9049184917782909</v>
+        <v>0.9049184917782882</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9220796603583759</v>
+        <v>0.9220796603583757</v>
       </c>
       <c r="D22">
-        <v>0.95191086812721</v>
+        <v>0.9519108681272099</v>
       </c>
       <c r="E22">
-        <v>0.9365784737260544</v>
+        <v>0.9365784737260541</v>
       </c>
       <c r="F22">
-        <v>0.8732358346884224</v>
+        <v>0.873235834688422</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.011287440787622</v>
       </c>
       <c r="J22">
-        <v>0.9566663173956085</v>
+        <v>0.9566663173956081</v>
       </c>
       <c r="K22">
         <v>0.9684992136329769</v>
       </c>
       <c r="L22">
-        <v>0.9535204834651371</v>
+        <v>0.9535204834651367</v>
       </c>
       <c r="M22">
-        <v>0.8918196187870641</v>
+        <v>0.891819618787064</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.927352712755887</v>
+        <v>0.9273527127558862</v>
       </c>
       <c r="D23">
-        <v>0.9562554152802702</v>
+        <v>0.956255415280269</v>
       </c>
       <c r="E23">
-        <v>0.9411325103042038</v>
+        <v>0.9411325103042023</v>
       </c>
       <c r="F23">
-        <v>0.8808891167803335</v>
+        <v>0.8808891167803322</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013474469748343</v>
+        <v>1.013474469748342</v>
       </c>
       <c r="J23">
-        <v>0.9608994651076633</v>
+        <v>0.9608994651076622</v>
       </c>
       <c r="K23">
-        <v>0.9724120196552188</v>
+        <v>0.9724120196552177</v>
       </c>
       <c r="L23">
-        <v>0.9576254785402212</v>
+        <v>0.9576254785402197</v>
       </c>
       <c r="M23">
-        <v>0.898878466016002</v>
+        <v>0.8988784660160007</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.946616263760818</v>
+        <v>0.9466162637608163</v>
       </c>
       <c r="D24">
-        <v>0.9721270251392041</v>
+        <v>0.9721270251392026</v>
       </c>
       <c r="E24">
-        <v>0.9577877300705464</v>
+        <v>0.9577877300705449</v>
       </c>
       <c r="F24">
-        <v>0.9085010227985969</v>
+        <v>0.9085010227985949</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021414169411733</v>
+        <v>1.021414169411732</v>
       </c>
       <c r="J24">
-        <v>0.9763362929304161</v>
+        <v>0.9763362929304145</v>
       </c>
       <c r="K24">
-        <v>0.9866619648241742</v>
+        <v>0.9866619648241726</v>
       </c>
       <c r="L24">
-        <v>0.9725990382377978</v>
+        <v>0.9725990382377964</v>
       </c>
       <c r="M24">
-        <v>0.9243510763541741</v>
+        <v>0.9243510763541722</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9665481789703645</v>
+        <v>0.9665481789703663</v>
       </c>
       <c r="D25">
-        <v>0.9885493162679918</v>
+        <v>0.9885493162679932</v>
       </c>
       <c r="E25">
-        <v>0.9750451985624903</v>
+        <v>0.9750451985624919</v>
       </c>
       <c r="F25">
-        <v>0.9365975067217015</v>
+        <v>0.9365975067217036</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029533233723694</v>
+        <v>1.029533233723696</v>
       </c>
       <c r="J25">
-        <v>0.9922562656195469</v>
+        <v>0.9922562656195488</v>
       </c>
       <c r="K25">
-        <v>1.001328028823466</v>
+        <v>1.001328028823467</v>
       </c>
       <c r="L25">
-        <v>0.9880436660214104</v>
+        <v>0.988043666021412</v>
       </c>
       <c r="M25">
-        <v>0.9502668498128186</v>
+        <v>0.9502668498128206</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9809684575143803</v>
+        <v>0.983573797400034</v>
       </c>
       <c r="D2">
-        <v>1.000428929166383</v>
+        <v>1.002567846341654</v>
       </c>
       <c r="E2">
-        <v>0.98754099048118</v>
+        <v>0.9897885324145108</v>
       </c>
       <c r="F2">
-        <v>0.9566900742214445</v>
+        <v>0.9590505328481009</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035332666780429</v>
+        <v>1.03652847148696</v>
       </c>
       <c r="J2">
-        <v>1.003733691261426</v>
+        <v>1.006257164648639</v>
       </c>
       <c r="K2">
-        <v>1.011882291557173</v>
+        <v>1.013991522535312</v>
       </c>
       <c r="L2">
-        <v>0.9991766720259063</v>
+        <v>1.001391986533024</v>
       </c>
       <c r="M2">
-        <v>0.9687876822797359</v>
+        <v>0.9711114571139805</v>
+      </c>
+      <c r="N2">
+        <v>1.00768616524175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9907497729859212</v>
+        <v>0.9933262320155438</v>
       </c>
       <c r="D3">
-        <v>1.008484955816111</v>
+        <v>1.010601699684999</v>
       </c>
       <c r="E3">
-        <v>0.9960196485226305</v>
+        <v>0.9982442517686587</v>
       </c>
       <c r="F3">
-        <v>0.9702293930655497</v>
+        <v>0.9725384817982864</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.0392237784031</v>
+        <v>1.040409061065012</v>
       </c>
       <c r="J3">
-        <v>1.01149582479653</v>
+        <v>1.014000498984788</v>
       </c>
       <c r="K3">
-        <v>1.019010409110071</v>
+        <v>1.021100703373957</v>
       </c>
       <c r="L3">
-        <v>1.006703713312777</v>
+        <v>1.008899647124568</v>
       </c>
       <c r="M3">
-        <v>0.9812579196135602</v>
+        <v>0.983535229673225</v>
+      </c>
+      <c r="N3">
+        <v>1.015440496000829</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9968028678432338</v>
+        <v>0.999363054529767</v>
       </c>
       <c r="D4">
-        <v>1.013469094848224</v>
+        <v>1.015573412252399</v>
       </c>
       <c r="E4">
-        <v>1.001267003029379</v>
+        <v>1.003478759662468</v>
       </c>
       <c r="F4">
-        <v>0.978577688684825</v>
+        <v>0.9808577301268554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04161204932684</v>
+        <v>1.042791538378493</v>
       </c>
       <c r="J4">
-        <v>1.016288711677915</v>
+        <v>1.018783067482866</v>
       </c>
       <c r="K4">
-        <v>1.023407632904777</v>
+        <v>1.025487444310414</v>
       </c>
       <c r="L4">
-        <v>1.0113501604564</v>
+        <v>1.013535379663602</v>
       </c>
       <c r="M4">
-        <v>0.9889417283178774</v>
+        <v>0.9911928110312729</v>
+      </c>
+      <c r="N4">
+        <v>1.020229856294742</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9992868949896867</v>
+        <v>1.00184074261909</v>
       </c>
       <c r="D5">
-        <v>1.015514089845743</v>
+        <v>1.017613581876901</v>
       </c>
       <c r="E5">
-        <v>1.003420360900663</v>
+        <v>1.005627131882491</v>
       </c>
       <c r="F5">
-        <v>0.9819976375565028</v>
+        <v>0.9842663278395472</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042587389174394</v>
+        <v>1.04376465363841</v>
       </c>
       <c r="J5">
-        <v>1.018253019254886</v>
+        <v>1.020743419678985</v>
       </c>
       <c r="K5">
-        <v>1.02520881296949</v>
+        <v>1.02728458448777</v>
       </c>
       <c r="L5">
-        <v>1.013254111007369</v>
+        <v>1.015435205165047</v>
       </c>
       <c r="M5">
-        <v>0.9920881097756026</v>
+        <v>0.9943289551711098</v>
+      </c>
+      <c r="N5">
+        <v>1.022192992415835</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.999700558453941</v>
+        <v>1.00225336921039</v>
       </c>
       <c r="D6">
-        <v>1.015854618672825</v>
+        <v>1.017953322328719</v>
       </c>
       <c r="E6">
-        <v>1.003778954333517</v>
+        <v>1.005984910943265</v>
       </c>
       <c r="F6">
-        <v>0.9825668431059287</v>
+        <v>0.9848336743147412</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042749532367409</v>
+        <v>1.043926434879423</v>
       </c>
       <c r="J6">
-        <v>1.018579982940044</v>
+        <v>1.021069740157219</v>
       </c>
       <c r="K6">
-        <v>1.025508567415836</v>
+        <v>1.027583680706863</v>
       </c>
       <c r="L6">
-        <v>1.013571007197055</v>
+        <v>1.015751429518685</v>
       </c>
       <c r="M6">
-        <v>0.9926117016846397</v>
+        <v>0.9948508711502193</v>
+      </c>
+      <c r="N6">
+        <v>1.022519776306578</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.99683629142741</v>
+        <v>0.9993963915291321</v>
       </c>
       <c r="D7">
-        <v>1.013496612586777</v>
+        <v>1.015600864019241</v>
       </c>
       <c r="E7">
-        <v>1.001295977523458</v>
+        <v>1.003507665980965</v>
       </c>
       <c r="F7">
-        <v>0.9786237275470043</v>
+        <v>0.9809036141009752</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041625191759228</v>
+        <v>1.042804650293984</v>
       </c>
       <c r="J7">
-        <v>1.01631515241739</v>
+        <v>1.018809453937245</v>
       </c>
       <c r="K7">
-        <v>1.023431881665201</v>
+        <v>1.025511637713716</v>
       </c>
       <c r="L7">
-        <v>1.011375790147689</v>
+        <v>1.013560952812954</v>
       </c>
       <c r="M7">
-        <v>0.9889840899372058</v>
+        <v>0.9912350329121544</v>
+      </c>
+      <c r="N7">
+        <v>1.020256280220913</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9843347561020169</v>
+        <v>0.9869297842134913</v>
       </c>
       <c r="D8">
-        <v>1.003201695867526</v>
+        <v>1.005332680611189</v>
       </c>
       <c r="E8">
-        <v>0.9904588130490817</v>
+        <v>0.9926981473034268</v>
       </c>
       <c r="F8">
-        <v>0.9613570967182417</v>
+        <v>0.9636992298307617</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036676012732437</v>
+        <v>1.037868029906846</v>
       </c>
       <c r="J8">
-        <v>1.006407342703796</v>
+        <v>1.008924040685765</v>
       </c>
       <c r="K8">
-        <v>1.014338472107755</v>
+        <v>1.016440898644756</v>
       </c>
       <c r="L8">
-        <v>1.001769595898199</v>
+        <v>1.00397794378031</v>
       </c>
       <c r="M8">
-        <v>0.9730872646975363</v>
+        <v>0.9753944538932973</v>
+      </c>
+      <c r="N8">
+        <v>1.010356828548744</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9599001114165642</v>
+        <v>0.9625797135868913</v>
       </c>
       <c r="D9">
-        <v>0.9830719558416837</v>
+        <v>0.9852684030990184</v>
       </c>
       <c r="E9">
-        <v>0.9692869320602703</v>
+        <v>0.971593993790689</v>
       </c>
       <c r="F9">
-        <v>0.9272723059677687</v>
+        <v>0.9297649025263391</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026837405152868</v>
+        <v>1.028061226088575</v>
       </c>
       <c r="J9">
-        <v>0.9869529448055243</v>
+        <v>0.9895267862699675</v>
       </c>
       <c r="K9">
-        <v>0.9964457823325817</v>
+        <v>0.9986050992987443</v>
       </c>
       <c r="L9">
-        <v>0.9828987701509144</v>
+        <v>0.9851653887632572</v>
       </c>
       <c r="M9">
-        <v>0.9416669149638952</v>
+        <v>0.9441104812474925</v>
+      </c>
+      <c r="N9">
+        <v>0.9909320278067795</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9414821871067821</v>
+        <v>0.9442426272106275</v>
       </c>
       <c r="D10">
-        <v>0.9678969202207564</v>
+        <v>0.9701566123341414</v>
       </c>
       <c r="E10">
-        <v>0.9533462329125048</v>
+        <v>0.9557186153620578</v>
       </c>
       <c r="F10">
-        <v>0.9011908725138599</v>
+        <v>0.903828858501079</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01930625012342</v>
+        <v>1.020561575847118</v>
       </c>
       <c r="J10">
-        <v>0.9722265879991943</v>
+        <v>0.9748574768002886</v>
       </c>
       <c r="K10">
-        <v>0.9828710497263659</v>
+        <v>0.9850864471431274</v>
       </c>
       <c r="L10">
-        <v>0.9686122202499221</v>
+        <v>0.9709362183170605</v>
       </c>
       <c r="M10">
-        <v>0.9176069936331688</v>
+        <v>0.9201825331636405</v>
+      </c>
+      <c r="N10">
+        <v>0.9762418862350601</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9328445507335029</v>
+        <v>0.9356490464395947</v>
       </c>
       <c r="D11">
-        <v>0.960780209951453</v>
+        <v>0.9630745898987676</v>
       </c>
       <c r="E11">
-        <v>0.9458779328129416</v>
+        <v>0.9482860631594522</v>
       </c>
       <c r="F11">
-        <v>0.8888139334070564</v>
+        <v>0.8915322006242133</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015746257810706</v>
+        <v>1.017019058741268</v>
       </c>
       <c r="J11">
-        <v>0.9653049046857531</v>
+        <v>0.9679675725126675</v>
       </c>
       <c r="K11">
-        <v>0.9764816960491737</v>
+        <v>0.9787281597179757</v>
       </c>
       <c r="L11">
-        <v>0.9618981604028627</v>
+        <v>0.9642538827943661</v>
       </c>
       <c r="M11">
-        <v>0.9061887317638169</v>
+        <v>0.9088371496792543</v>
+      </c>
+      <c r="N11">
+        <v>0.9693421974930679</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9295184074016661</v>
+        <v>0.9323410579925477</v>
       </c>
       <c r="D12">
-        <v>0.9580397575926741</v>
+        <v>0.9603484730388636</v>
       </c>
       <c r="E12">
-        <v>0.9430035697449189</v>
+        <v>0.9454264550972148</v>
       </c>
       <c r="F12">
-        <v>0.8840196771988775</v>
+        <v>0.8867712732562445</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.014371089591982</v>
+        <v>1.015651143118544</v>
       </c>
       <c r="J12">
-        <v>0.9626371556502993</v>
+        <v>0.9653130352045268</v>
       </c>
       <c r="K12">
-        <v>0.974017558228602</v>
+        <v>0.9762769114721137</v>
       </c>
       <c r="L12">
-        <v>0.9593107362707114</v>
+        <v>0.9616796059656496</v>
       </c>
       <c r="M12">
-        <v>0.901766160064984</v>
+        <v>0.9044448288424067</v>
+      </c>
+      <c r="N12">
+        <v>0.9666838904374699</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9302375548417825</v>
+        <v>0.933056221147511</v>
       </c>
       <c r="D13">
-        <v>0.9586322720110915</v>
+        <v>0.9609378393906696</v>
       </c>
       <c r="E13">
-        <v>0.9436249634656163</v>
+        <v>0.946044609592571</v>
       </c>
       <c r="F13">
-        <v>0.8850576406645554</v>
+        <v>0.8878019096037209</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014668611132957</v>
+        <v>1.015947070609228</v>
       </c>
       <c r="J13">
-        <v>0.9632140599820377</v>
+        <v>0.9658870346821514</v>
       </c>
       <c r="K13">
-        <v>0.9745505057853509</v>
+        <v>0.9768070261413784</v>
       </c>
       <c r="L13">
-        <v>0.9598702533287521</v>
+        <v>0.962236234295074</v>
       </c>
       <c r="M13">
-        <v>0.9027236296121647</v>
+        <v>0.9053956482621471</v>
+      </c>
+      <c r="N13">
+        <v>0.9672587050601914</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9325721367280962</v>
+        <v>0.9353780934367175</v>
       </c>
       <c r="D14">
-        <v>0.9605557642902738</v>
+        <v>0.9628512970139452</v>
       </c>
       <c r="E14">
-        <v>0.9456424874667831</v>
+        <v>0.9480518047374066</v>
       </c>
       <c r="F14">
-        <v>0.8884218921850968</v>
+        <v>0.8911428360528384</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015633717760153</v>
+        <v>1.016907101291507</v>
       </c>
       <c r="J14">
-        <v>0.9650864622630609</v>
+        <v>0.9677501909287657</v>
       </c>
       <c r="K14">
-        <v>0.9762799587722575</v>
+        <v>0.9785274579155613</v>
       </c>
       <c r="L14">
-        <v>0.9616862879431384</v>
+        <v>0.9640430668567542</v>
       </c>
       <c r="M14">
-        <v>0.9058270745656728</v>
+        <v>0.9084779220682777</v>
+      </c>
+      <c r="N14">
+        <v>0.9691245072023832</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9339943144435349</v>
+        <v>0.9367926936309529</v>
       </c>
       <c r="D15">
-        <v>0.9617275168510371</v>
+        <v>0.9640170723362504</v>
       </c>
       <c r="E15">
-        <v>0.9468717275592791</v>
+        <v>0.9492748897585834</v>
       </c>
       <c r="F15">
-        <v>0.8904674208426862</v>
+        <v>0.8931744924423294</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.016221075571637</v>
+        <v>1.017491439476857</v>
       </c>
       <c r="J15">
-        <v>0.9662267768493221</v>
+        <v>0.9688850080777986</v>
       </c>
       <c r="K15">
-        <v>0.9773330047209909</v>
+        <v>0.9795751368633611</v>
       </c>
       <c r="L15">
-        <v>0.9627923193048822</v>
+        <v>0.9651436214855342</v>
       </c>
       <c r="M15">
-        <v>0.9077140869122259</v>
+        <v>0.9103523423817474</v>
+      </c>
+      <c r="N15">
+        <v>0.9702609359219329</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9420400390526195</v>
+        <v>0.9447977789179269</v>
       </c>
       <c r="D16">
-        <v>0.968356548117937</v>
+        <v>0.9706141189144916</v>
       </c>
       <c r="E16">
-        <v>0.9538287468161345</v>
+        <v>0.9561989411516922</v>
       </c>
       <c r="F16">
-        <v>0.9019867815941887</v>
+        <v>0.9046198731803823</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019535590727069</v>
+        <v>1.020789851576773</v>
       </c>
       <c r="J16">
-        <v>0.9726732996860578</v>
+        <v>0.9753022547539597</v>
       </c>
       <c r="K16">
-        <v>0.9832832076664882</v>
+        <v>0.9854967114350608</v>
       </c>
       <c r="L16">
-        <v>0.9690455633795728</v>
+        <v>0.971367626094814</v>
       </c>
       <c r="M16">
-        <v>0.9183412738663892</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9209123700348841</v>
+      </c>
+      <c r="N16">
+        <v>0.9766872958244427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9468981763311356</v>
+        <v>0.9496331008560301</v>
       </c>
       <c r="D17">
-        <v>0.9723593012770153</v>
+        <v>0.9745989712441772</v>
       </c>
       <c r="E17">
-        <v>0.9580316623523268</v>
+        <v>0.9603833837295495</v>
       </c>
       <c r="F17">
-        <v>0.9089014799362002</v>
+        <v>0.9114933297630585</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021529732338214</v>
+        <v>1.022775027156142</v>
       </c>
       <c r="J17">
-        <v>0.9765618571794087</v>
+        <v>0.9791745445831912</v>
       </c>
       <c r="K17">
-        <v>0.9868699737942344</v>
+        <v>0.9890675295502414</v>
       </c>
       <c r="L17">
-        <v>0.9728178635023289</v>
+        <v>0.9751236203246407</v>
       </c>
       <c r="M17">
-        <v>0.9247205192522525</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9272541743936082</v>
+      </c>
+      <c r="N17">
+        <v>0.9805650847493892</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9496693716426715</v>
+        <v>0.9523918255597409</v>
       </c>
       <c r="D18">
-        <v>0.9746425737034221</v>
+        <v>0.976872477175455</v>
       </c>
       <c r="E18">
-        <v>0.9604297730524138</v>
+        <v>0.9627714097033629</v>
       </c>
       <c r="F18">
-        <v>0.9128329223269467</v>
+        <v>0.9154023113847342</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022664669466598</v>
+        <v>1.023905088770092</v>
       </c>
       <c r="J18">
-        <v>0.9787785805425101</v>
+        <v>0.981382433115088</v>
       </c>
       <c r="K18">
-        <v>0.9889138515908085</v>
+        <v>0.9911027316784625</v>
       </c>
       <c r="L18">
-        <v>0.974968383251987</v>
+        <v>0.9772652650255551</v>
       </c>
       <c r="M18">
-        <v>0.9283474327361557</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9308606978438309</v>
+      </c>
+      <c r="N18">
+        <v>0.9827761087362497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9506041551200464</v>
+        <v>0.9533224884754012</v>
       </c>
       <c r="D19">
-        <v>0.9754127708438444</v>
+        <v>0.9776394501264687</v>
       </c>
       <c r="E19">
-        <v>0.9612388114485992</v>
+        <v>0.9635771179626197</v>
       </c>
       <c r="F19">
-        <v>0.9141570529927637</v>
+        <v>0.916719032506167</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023047074287378</v>
+        <v>1.024285886783186</v>
       </c>
       <c r="J19">
-        <v>0.9795260926525018</v>
+        <v>0.9821270353847522</v>
       </c>
       <c r="K19">
-        <v>0.9896029459721422</v>
+        <v>0.9917889661909188</v>
       </c>
       <c r="L19">
-        <v>0.9756935784537248</v>
+        <v>0.9779875339642206</v>
       </c>
       <c r="M19">
-        <v>0.9295689708961985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.932075509822605</v>
+      </c>
+      <c r="N19">
+        <v>0.9835217684265443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9463835217738821</v>
+        <v>0.9491208050073187</v>
       </c>
       <c r="D20">
-        <v>0.971935262149514</v>
+        <v>0.9741767808118061</v>
       </c>
       <c r="E20">
-        <v>0.9575863476964227</v>
+        <v>0.9599399775364093</v>
       </c>
       <c r="F20">
-        <v>0.9081703400818677</v>
+        <v>0.9107664444775175</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021318748110219</v>
+        <v>1.022564967158134</v>
       </c>
       <c r="J20">
-        <v>0.9761500631436872</v>
+        <v>0.9787644262406043</v>
       </c>
       <c r="K20">
-        <v>0.9864902244213853</v>
+        <v>0.9886894244778811</v>
       </c>
       <c r="L20">
-        <v>0.9724183726547374</v>
+        <v>0.9747258112071424</v>
       </c>
       <c r="M20">
-        <v>0.9240460034838173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9265835210471518</v>
+      </c>
+      <c r="N20">
+        <v>0.9801543839917147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9318880834221576</v>
+        <v>0.9346977289692198</v>
       </c>
       <c r="D21">
-        <v>0.9599921635691793</v>
+        <v>0.962290607577825</v>
       </c>
       <c r="E21">
-        <v>0.9450512907477295</v>
+        <v>0.947463605222308</v>
       </c>
       <c r="F21">
-        <v>0.8874369686252567</v>
+        <v>0.8901646749076526</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01535105146171</v>
+        <v>1.016625906810677</v>
       </c>
       <c r="J21">
-        <v>0.9645378975158884</v>
+        <v>0.9672043065304246</v>
       </c>
       <c r="K21">
-        <v>0.9757733191061903</v>
+        <v>0.978023434109185</v>
       </c>
       <c r="L21">
-        <v>0.9611542275630762</v>
+        <v>0.9635136752429553</v>
       </c>
       <c r="M21">
-        <v>0.9049184917782882</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.907575477407517</v>
+      </c>
+      <c r="N21">
+        <v>0.9685778475855822</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9220796603583757</v>
+        <v>0.9249455351190139</v>
       </c>
       <c r="D22">
-        <v>0.9519108681272099</v>
+        <v>0.9542538057911178</v>
       </c>
       <c r="E22">
-        <v>0.9365784737260541</v>
+        <v>0.9390365362553924</v>
       </c>
       <c r="F22">
-        <v>0.873235834688422</v>
+        <v>0.8760673950410628</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.011287440787622</v>
+        <v>1.012584868657639</v>
       </c>
       <c r="J22">
-        <v>0.9566663173956081</v>
+        <v>0.9593738931727285</v>
       </c>
       <c r="K22">
-        <v>0.9684992136329769</v>
+        <v>0.9707894415726664</v>
       </c>
       <c r="L22">
-        <v>0.9535204834651367</v>
+        <v>0.9559208061699862</v>
       </c>
       <c r="M22">
-        <v>0.891819618787064</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.8945708493734726</v>
+      </c>
+      <c r="N22">
+        <v>0.9607363141427574</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,75 +1282,81 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9273527127558862</v>
+        <v>0.9301875637227455</v>
       </c>
       <c r="D23">
-        <v>0.956255415280269</v>
+        <v>0.9585737773496075</v>
       </c>
       <c r="E23">
-        <v>0.9411325103042023</v>
+        <v>0.9435653181860363</v>
       </c>
       <c r="F23">
-        <v>0.8808891167803322</v>
+        <v>0.8836631946790692</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.013474469748342</v>
+        <v>1.014759412543174</v>
       </c>
       <c r="J23">
-        <v>0.9608994651076622</v>
+        <v>0.963584257929791</v>
       </c>
       <c r="K23">
-        <v>0.9724120196552177</v>
+        <v>0.9746800616155793</v>
       </c>
       <c r="L23">
-        <v>0.9576254785402197</v>
+        <v>0.9600032053515573</v>
       </c>
       <c r="M23">
-        <v>0.8988784660160007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9015775381731624</v>
+      </c>
+      <c r="N23">
+        <v>0.9649526581007104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9466162637608163</v>
+        <v>0.9493524786384352</v>
       </c>
       <c r="D24">
-        <v>0.9721270251392026</v>
+        <v>0.974367706395325</v>
       </c>
       <c r="E24">
-        <v>0.9577877300705449</v>
+        <v>0.960140495450243</v>
       </c>
       <c r="F24">
-        <v>0.9085010227985949</v>
+        <v>0.911095199872219</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021414169411732</v>
+        <v>1.022659969758248</v>
       </c>
       <c r="J24">
-        <v>0.9763362929304145</v>
+        <v>0.9789498968573493</v>
       </c>
       <c r="K24">
-        <v>0.9866619648241726</v>
+        <v>0.9888604199790472</v>
       </c>
       <c r="L24">
-        <v>0.9725990382377964</v>
+        <v>0.9749057149467718</v>
       </c>
       <c r="M24">
-        <v>0.9243510763541722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9268868442352944</v>
+      </c>
+      <c r="N24">
+        <v>0.9803401179980095</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9665481789703663</v>
+        <v>0.9692024330519067</v>
       </c>
       <c r="D25">
-        <v>0.9885493162679932</v>
+        <v>0.9907260559458879</v>
       </c>
       <c r="E25">
-        <v>0.9750451985624919</v>
+        <v>0.9773318769866612</v>
       </c>
       <c r="F25">
-        <v>0.9365975067217036</v>
+        <v>0.9390449104430929</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029533233723696</v>
+        <v>1.030747368119014</v>
       </c>
       <c r="J25">
-        <v>0.9922562656195488</v>
+        <v>0.9948126470550609</v>
       </c>
       <c r="K25">
-        <v>1.001328028823467</v>
+        <v>1.003470064401284</v>
       </c>
       <c r="L25">
-        <v>0.988043666021412</v>
+        <v>0.9902925835301382</v>
       </c>
       <c r="M25">
-        <v>0.9502668498128206</v>
+        <v>0.9526694174809206</v>
+      </c>
+      <c r="N25">
+        <v>0.9962253951204847</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.983573797400034</v>
+        <v>0.978894996224442</v>
       </c>
       <c r="D2">
-        <v>1.002567846341654</v>
+        <v>0.9998892270264177</v>
       </c>
       <c r="E2">
-        <v>0.9897885324145108</v>
+        <v>0.9875579656077185</v>
       </c>
       <c r="F2">
-        <v>0.9590505328481009</v>
+        <v>0.9561352234203038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03652847148696</v>
+        <v>1.032129258276804</v>
       </c>
       <c r="J2">
-        <v>1.006257164648639</v>
+        <v>1.001725814570478</v>
       </c>
       <c r="K2">
-        <v>1.013991522535312</v>
+        <v>1.011350105308076</v>
       </c>
       <c r="L2">
-        <v>1.001391986533024</v>
+        <v>0.9991934030503991</v>
       </c>
       <c r="M2">
-        <v>0.9711114571139805</v>
+        <v>0.9682414880072842</v>
       </c>
       <c r="N2">
-        <v>1.00768616524175</v>
+        <v>1.003148380126725</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9933262320155438</v>
+        <v>0.9871601509256946</v>
       </c>
       <c r="D3">
-        <v>1.010601699684999</v>
+        <v>1.00621412522968</v>
       </c>
       <c r="E3">
-        <v>0.9982442517686587</v>
+        <v>0.9944635793691019</v>
       </c>
       <c r="F3">
-        <v>0.9725384817982864</v>
+        <v>0.9692345284173013</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040409061065012</v>
+        <v>1.034841616676904</v>
       </c>
       <c r="J3">
-        <v>1.014000498984788</v>
+        <v>1.008007070297174</v>
       </c>
       <c r="K3">
-        <v>1.021100703373957</v>
+        <v>1.016768107853259</v>
       </c>
       <c r="L3">
-        <v>1.008899647124568</v>
+        <v>1.005167793327078</v>
       </c>
       <c r="M3">
-        <v>0.983535229673225</v>
+        <v>0.9802768055723867</v>
       </c>
       <c r="N3">
-        <v>1.015440496000829</v>
+        <v>1.009438555957023</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.999363054529767</v>
+        <v>0.9923201193666169</v>
       </c>
       <c r="D4">
-        <v>1.015573412252399</v>
+        <v>1.01016266087159</v>
       </c>
       <c r="E4">
-        <v>1.003478759662468</v>
+        <v>0.9987811705779089</v>
       </c>
       <c r="F4">
-        <v>0.9808577301268554</v>
+        <v>0.9772955813881904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042791538378493</v>
+        <v>1.036513752678307</v>
       </c>
       <c r="J4">
-        <v>1.018783067482866</v>
+        <v>1.011922338579863</v>
       </c>
       <c r="K4">
-        <v>1.025487444310414</v>
+        <v>1.020139959574211</v>
       </c>
       <c r="L4">
-        <v>1.013535379663602</v>
+        <v>1.008894328089931</v>
       </c>
       <c r="M4">
-        <v>0.9911928110312729</v>
+        <v>0.9876759791852703</v>
       </c>
       <c r="N4">
-        <v>1.020229856294742</v>
+        <v>1.013359384369761</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.00184074261909</v>
+        <v>0.994447402796883</v>
       </c>
       <c r="D5">
-        <v>1.017613581876901</v>
+        <v>1.011790404992233</v>
       </c>
       <c r="E5">
-        <v>1.005627131882491</v>
+        <v>1.000562587837141</v>
       </c>
       <c r="F5">
-        <v>0.9842663278395472</v>
+        <v>0.9805944045958435</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04376465363841</v>
+        <v>1.037198148507599</v>
       </c>
       <c r="J5">
-        <v>1.020743419678985</v>
+        <v>1.013534965603048</v>
       </c>
       <c r="K5">
-        <v>1.02728458448777</v>
+        <v>1.02152749783829</v>
       </c>
       <c r="L5">
-        <v>1.015435205165047</v>
+        <v>1.010429797786937</v>
       </c>
       <c r="M5">
-        <v>0.9943289551711098</v>
+        <v>0.9907021797394889</v>
       </c>
       <c r="N5">
-        <v>1.022192992415835</v>
+        <v>1.01497430150829</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00225336921039</v>
+        <v>0.9948022050667231</v>
       </c>
       <c r="D6">
-        <v>1.017953322328719</v>
+        <v>1.012061882371807</v>
       </c>
       <c r="E6">
-        <v>1.005984910943265</v>
+        <v>1.000859784518334</v>
       </c>
       <c r="F6">
-        <v>0.9848336743147412</v>
+        <v>0.9811432562142587</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.043926434879423</v>
+        <v>1.037312007000383</v>
       </c>
       <c r="J6">
-        <v>1.021069740157219</v>
+        <v>1.013803840375812</v>
       </c>
       <c r="K6">
-        <v>1.027583680706863</v>
+        <v>1.021758769169852</v>
       </c>
       <c r="L6">
-        <v>1.015751429518685</v>
+        <v>1.010685841242775</v>
       </c>
       <c r="M6">
-        <v>0.9948508711502193</v>
+        <v>0.9912055678504867</v>
       </c>
       <c r="N6">
-        <v>1.022519776306578</v>
+        <v>1.015243558114071</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9993963915291321</v>
+        <v>0.9923487053270296</v>
       </c>
       <c r="D7">
-        <v>1.015600864019241</v>
+        <v>1.010184534654661</v>
       </c>
       <c r="E7">
-        <v>1.003507665980965</v>
+        <v>0.9988051033929971</v>
       </c>
       <c r="F7">
-        <v>0.9809036141009752</v>
+        <v>0.9773400029663729</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042804650293984</v>
+        <v>1.036522968997282</v>
       </c>
       <c r="J7">
-        <v>1.018809453937245</v>
+        <v>1.011944014723308</v>
       </c>
       <c r="K7">
-        <v>1.025511637713716</v>
+        <v>1.020158615188019</v>
       </c>
       <c r="L7">
-        <v>1.013560952812954</v>
+        <v>1.008914964867975</v>
       </c>
       <c r="M7">
-        <v>0.9912350329121544</v>
+        <v>0.987716736722149</v>
       </c>
       <c r="N7">
-        <v>1.020256280220913</v>
+        <v>1.013381091295816</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9869297842134913</v>
+        <v>0.9817291647851706</v>
       </c>
       <c r="D8">
-        <v>1.005332680611189</v>
+        <v>1.002058049730599</v>
       </c>
       <c r="E8">
-        <v>0.9926981473034268</v>
+        <v>0.9899245117708487</v>
       </c>
       <c r="F8">
-        <v>0.9636992298307617</v>
+        <v>0.9606542371037926</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037868029906846</v>
+        <v>1.033063915197973</v>
       </c>
       <c r="J8">
-        <v>1.008924040685765</v>
+        <v>1.00388097477199</v>
       </c>
       <c r="K8">
-        <v>1.016440898644756</v>
+        <v>1.013210215407577</v>
       </c>
       <c r="L8">
-        <v>1.00397794378031</v>
+        <v>1.001242714047532</v>
       </c>
       <c r="M8">
-        <v>0.9753944538932973</v>
+        <v>0.9723949338352815</v>
       </c>
       <c r="N8">
-        <v>1.010356828548744</v>
+        <v>1.005306600902923</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9625797135868913</v>
+        <v>0.9614151325062237</v>
       </c>
       <c r="D9">
-        <v>0.9852684030990184</v>
+        <v>0.9865154838967499</v>
       </c>
       <c r="E9">
-        <v>0.971593993790689</v>
+        <v>0.972995623204314</v>
       </c>
       <c r="F9">
-        <v>0.9297649025263391</v>
+        <v>0.9275558308667533</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028061226088575</v>
+        <v>1.026264830929661</v>
       </c>
       <c r="J9">
-        <v>0.9895267862699675</v>
+        <v>0.9884080673220843</v>
       </c>
       <c r="K9">
-        <v>0.9986050992987443</v>
+        <v>0.9998311934468354</v>
       </c>
       <c r="L9">
-        <v>0.9851653887632572</v>
+        <v>0.9865425686669911</v>
       </c>
       <c r="M9">
-        <v>0.9441104812474925</v>
+        <v>0.9419448453819992</v>
       </c>
       <c r="N9">
-        <v>0.9909320278067795</v>
+        <v>0.9898117201496716</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9442426272106275</v>
+        <v>0.9465270401144332</v>
       </c>
       <c r="D10">
-        <v>0.9701566123341414</v>
+        <v>0.9751305432948768</v>
       </c>
       <c r="E10">
-        <v>0.9557186153620578</v>
+        <v>0.9606387756972997</v>
       </c>
       <c r="F10">
-        <v>0.903828858501079</v>
+        <v>0.9020612826172751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.020561575847118</v>
+        <v>1.021139986580783</v>
       </c>
       <c r="J10">
-        <v>0.9748574768002886</v>
+        <v>0.97703549982214</v>
       </c>
       <c r="K10">
-        <v>0.9850864471431274</v>
+        <v>0.9899638259947547</v>
       </c>
       <c r="L10">
-        <v>0.9709362183170605</v>
+        <v>0.9757570349654977</v>
       </c>
       <c r="M10">
-        <v>0.9201825331636405</v>
+        <v>0.9184567452347775</v>
       </c>
       <c r="N10">
-        <v>0.9762418862350601</v>
+        <v>0.9784230022994257</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9356490464395947</v>
+        <v>0.939683122321868</v>
       </c>
       <c r="D11">
-        <v>0.9630745898987676</v>
+        <v>0.9698990235486347</v>
       </c>
       <c r="E11">
-        <v>0.9482860631594522</v>
+        <v>0.9549730404624363</v>
       </c>
       <c r="F11">
-        <v>0.8915322006242133</v>
+        <v>0.8899001171938337</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.017019058741268</v>
+        <v>1.018744172184483</v>
       </c>
       <c r="J11">
-        <v>0.9679675725126675</v>
+        <v>0.9717997840071402</v>
       </c>
       <c r="K11">
-        <v>0.9787281597179757</v>
+        <v>0.985411837248982</v>
       </c>
       <c r="L11">
-        <v>0.9642538827943661</v>
+        <v>0.9707971677596899</v>
       </c>
       <c r="M11">
-        <v>0.9088371496792543</v>
+        <v>0.9072469354274093</v>
       </c>
       <c r="N11">
-        <v>0.9693421974930679</v>
+        <v>0.9731798511674232</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9323410579925477</v>
+        <v>0.9370727478006888</v>
       </c>
       <c r="D12">
-        <v>0.9603484730388636</v>
+        <v>0.9679039318930125</v>
       </c>
       <c r="E12">
-        <v>0.9454264550972148</v>
+        <v>0.9528144900537676</v>
       </c>
       <c r="F12">
-        <v>0.8867712732562445</v>
+        <v>0.8851767944937567</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.015651143118544</v>
+        <v>1.017823546964262</v>
       </c>
       <c r="J12">
-        <v>0.9653130352045268</v>
+        <v>0.9698015606780801</v>
       </c>
       <c r="K12">
-        <v>0.9762769114721137</v>
+        <v>0.9836730043023637</v>
       </c>
       <c r="L12">
-        <v>0.9616796059656496</v>
+        <v>0.9689051844463936</v>
       </c>
       <c r="M12">
-        <v>0.9044448288424067</v>
+        <v>0.9028925345528921</v>
       </c>
       <c r="N12">
-        <v>0.9666838904374699</v>
+        <v>0.9711787901320367</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.933056221147511</v>
+        <v>0.9376359299409521</v>
       </c>
       <c r="D13">
-        <v>0.9609378393906696</v>
+        <v>0.9683343563179496</v>
       </c>
       <c r="E13">
-        <v>0.946044609592571</v>
+        <v>0.9532800775158712</v>
       </c>
       <c r="F13">
-        <v>0.8878019096037209</v>
+        <v>0.886200038729255</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.015947070609228</v>
+        <v>1.018022494177984</v>
       </c>
       <c r="J13">
-        <v>0.9658870346821514</v>
+        <v>0.9702327303201347</v>
       </c>
       <c r="K13">
-        <v>0.9768070261413784</v>
+        <v>0.984048277247631</v>
       </c>
       <c r="L13">
-        <v>0.962236234295074</v>
+        <v>0.9693133842965106</v>
       </c>
       <c r="M13">
-        <v>0.9053956482621471</v>
+        <v>0.9038358772069529</v>
       </c>
       <c r="N13">
-        <v>0.9672587050601914</v>
+        <v>0.9716105720844388</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9353780934367175</v>
+        <v>0.9394687968292335</v>
       </c>
       <c r="D14">
-        <v>0.9628512970139452</v>
+        <v>0.969735210546374</v>
       </c>
       <c r="E14">
-        <v>0.9480518047374066</v>
+        <v>0.9547957610531671</v>
       </c>
       <c r="F14">
-        <v>0.8911428360528384</v>
+        <v>0.8895141549943507</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.016907101291507</v>
+        <v>1.018668727950465</v>
       </c>
       <c r="J14">
-        <v>0.9677501909287657</v>
+        <v>0.9716357450486011</v>
       </c>
       <c r="K14">
-        <v>0.9785274579155613</v>
+        <v>0.9852691249647937</v>
       </c>
       <c r="L14">
-        <v>0.9640430668567542</v>
+        <v>0.9706418300255876</v>
       </c>
       <c r="M14">
-        <v>0.9084779220682777</v>
+        <v>0.9068911290062659</v>
       </c>
       <c r="N14">
-        <v>0.9691245072023832</v>
+        <v>0.9730155792547479</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9367926936309529</v>
+        <v>0.9405887537318638</v>
       </c>
       <c r="D15">
-        <v>0.9640170723362504</v>
+        <v>0.9705912260923092</v>
       </c>
       <c r="E15">
-        <v>0.9492748897585834</v>
+        <v>0.9557222345315749</v>
       </c>
       <c r="F15">
-        <v>0.8931744924423294</v>
+        <v>0.8915274335975037</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.017491439476857</v>
+        <v>1.019062679276678</v>
       </c>
       <c r="J15">
-        <v>0.9688850080777986</v>
+        <v>0.9724928790700971</v>
       </c>
       <c r="K15">
-        <v>0.9795751368633611</v>
+        <v>0.9860147589630761</v>
       </c>
       <c r="L15">
-        <v>0.9651436214855342</v>
+        <v>0.9714535382952256</v>
       </c>
       <c r="M15">
-        <v>0.9103523423817474</v>
+        <v>0.9087470859352237</v>
       </c>
       <c r="N15">
-        <v>0.9702609359219329</v>
+        <v>0.9738739305048691</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9447977789179269</v>
+        <v>0.9469721925980386</v>
       </c>
       <c r="D16">
-        <v>0.9706141189144916</v>
+        <v>0.9754708618637447</v>
       </c>
       <c r="E16">
-        <v>0.9561989411516922</v>
+        <v>0.9610076155628986</v>
       </c>
       <c r="F16">
-        <v>0.9046198731803823</v>
+        <v>0.9028418127440693</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.020789851576773</v>
+        <v>1.021294936014535</v>
       </c>
       <c r="J16">
-        <v>0.9753022547539597</v>
+        <v>0.9773758840023038</v>
       </c>
       <c r="K16">
-        <v>0.9854967114350608</v>
+        <v>0.9902595576181491</v>
       </c>
       <c r="L16">
-        <v>0.971367626094814</v>
+        <v>0.9760796098945218</v>
       </c>
       <c r="M16">
-        <v>0.9209123700348841</v>
+        <v>0.9191761204128746</v>
       </c>
       <c r="N16">
-        <v>0.9766872958244427</v>
+        <v>0.9787638698641676</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9496331008560301</v>
+        <v>0.9508645452577988</v>
       </c>
       <c r="D17">
-        <v>0.9745989712441772</v>
+        <v>0.9784467950732678</v>
       </c>
       <c r="E17">
-        <v>0.9603833837295495</v>
+        <v>0.9642343605994921</v>
       </c>
       <c r="F17">
-        <v>0.9114933297630585</v>
+        <v>0.9096157936261742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022775027156142</v>
+        <v>1.022645260088278</v>
       </c>
       <c r="J17">
-        <v>0.9791745445831912</v>
+        <v>0.9803512781749012</v>
       </c>
       <c r="K17">
-        <v>0.9890675295502414</v>
+        <v>0.9928435868906255</v>
       </c>
       <c r="L17">
-        <v>0.9751236203246407</v>
+        <v>0.9788999637770489</v>
       </c>
       <c r="M17">
-        <v>0.9272541743936082</v>
+        <v>0.9254187503606106</v>
       </c>
       <c r="N17">
-        <v>0.9805650847493892</v>
+        <v>0.9817434894377729</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9523918255597409</v>
+        <v>0.9530972243854211</v>
       </c>
       <c r="D18">
-        <v>0.976872477175455</v>
+        <v>0.9801540028155939</v>
       </c>
       <c r="E18">
-        <v>0.9627714097033629</v>
+        <v>0.9660865827626619</v>
       </c>
       <c r="F18">
-        <v>0.9154023113847342</v>
+        <v>0.9134617643107142</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023905088770092</v>
+        <v>1.023416161473865</v>
       </c>
       <c r="J18">
-        <v>0.981382433115088</v>
+        <v>0.982057259620961</v>
       </c>
       <c r="K18">
-        <v>0.9911027316784625</v>
+        <v>0.9943243289896758</v>
       </c>
       <c r="L18">
-        <v>0.9772652650255551</v>
+        <v>0.9805175611518629</v>
       </c>
       <c r="M18">
-        <v>0.9308606978438309</v>
+        <v>0.9289624999542101</v>
       </c>
       <c r="N18">
-        <v>0.9827761087362497</v>
+        <v>0.983451893573165</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9533224884754012</v>
+        <v>0.9538523505905125</v>
       </c>
       <c r="D19">
-        <v>0.9776394501264687</v>
+        <v>0.9807314386236209</v>
       </c>
       <c r="E19">
-        <v>0.9635771179626197</v>
+        <v>0.9667132529175093</v>
       </c>
       <c r="F19">
-        <v>0.916719032506167</v>
+        <v>0.9147562508519931</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.024285886783186</v>
+        <v>1.023676291519551</v>
       </c>
       <c r="J19">
-        <v>0.9821270353847522</v>
+        <v>0.9826341266691008</v>
       </c>
       <c r="K19">
-        <v>0.9917889661909188</v>
+        <v>0.9948248931874479</v>
       </c>
       <c r="L19">
-        <v>0.9779875339642206</v>
+        <v>0.981064625200164</v>
       </c>
       <c r="M19">
-        <v>0.932075509822605</v>
+        <v>0.9301551653316984</v>
       </c>
       <c r="N19">
-        <v>0.9835217684265443</v>
+        <v>0.9840295798386804</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9491208050073187</v>
+        <v>0.9504508840231713</v>
       </c>
       <c r="D20">
-        <v>0.9741767808118061</v>
+        <v>0.9781305064613564</v>
       </c>
       <c r="E20">
-        <v>0.9599399775364093</v>
+        <v>0.9638912958817472</v>
       </c>
       <c r="F20">
-        <v>0.9107664444775175</v>
+        <v>0.9089001212546062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022564967158134</v>
+        <v>1.022502138964692</v>
       </c>
       <c r="J20">
-        <v>0.9787644262406043</v>
+        <v>0.980035142687334</v>
       </c>
       <c r="K20">
-        <v>0.9886894244778811</v>
+        <v>0.9925691228447358</v>
       </c>
       <c r="L20">
-        <v>0.9747258112071424</v>
+        <v>0.978600247432332</v>
       </c>
       <c r="M20">
-        <v>0.9265835210471518</v>
+        <v>0.9247592704273645</v>
       </c>
       <c r="N20">
-        <v>0.9801543839917147</v>
+        <v>0.9814269050015522</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9346977289692198</v>
+        <v>0.9389310259562286</v>
       </c>
       <c r="D21">
-        <v>0.962290607577825</v>
+        <v>0.9693241866080499</v>
       </c>
       <c r="E21">
-        <v>0.947463605222308</v>
+        <v>0.9543509838659037</v>
       </c>
       <c r="F21">
-        <v>0.8901646749076526</v>
+        <v>0.8885442878555847</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.016625906810677</v>
+        <v>1.018479315527884</v>
       </c>
       <c r="J21">
-        <v>0.9672043065304246</v>
+        <v>0.9712241294594369</v>
       </c>
       <c r="K21">
-        <v>0.978023434109185</v>
+        <v>0.9849109977743931</v>
       </c>
       <c r="L21">
-        <v>0.9635136752429553</v>
+        <v>0.970252063936505</v>
       </c>
       <c r="M21">
-        <v>0.907575477407517</v>
+        <v>0.9059970308716309</v>
       </c>
       <c r="N21">
-        <v>0.9685778475855822</v>
+        <v>0.972603379124234</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9249455351190139</v>
+        <v>0.9312873128790954</v>
       </c>
       <c r="D22">
-        <v>0.9542538057911178</v>
+        <v>0.9634825950824268</v>
       </c>
       <c r="E22">
-        <v>0.9390365362553924</v>
+        <v>0.9480352841931881</v>
       </c>
       <c r="F22">
-        <v>0.8760673950410628</v>
+        <v>0.8745235989192702</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.012584868657639</v>
+        <v>1.015769248986797</v>
       </c>
       <c r="J22">
-        <v>0.9593738931727285</v>
+        <v>0.9653704149355369</v>
       </c>
       <c r="K22">
-        <v>0.9707894415726664</v>
+        <v>0.9798139207298248</v>
       </c>
       <c r="L22">
-        <v>0.9559208061699862</v>
+        <v>0.9647115834785367</v>
       </c>
       <c r="M22">
-        <v>0.8945708493734726</v>
+        <v>0.893070761668828</v>
       </c>
       <c r="N22">
-        <v>0.9607363141427574</v>
+        <v>0.9667413516542794</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9301875637227455</v>
+        <v>0.93538081349405</v>
       </c>
       <c r="D23">
-        <v>0.9585737773496075</v>
+        <v>0.9666108696072954</v>
       </c>
       <c r="E23">
-        <v>0.9435653181860363</v>
+        <v>0.9514161336350194</v>
       </c>
       <c r="F23">
-        <v>0.8836631946790692</v>
+        <v>0.8820884218998913</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.014759412543174</v>
+        <v>1.017224776838409</v>
       </c>
       <c r="J23">
-        <v>0.963584257929791</v>
+        <v>0.968506032641052</v>
       </c>
       <c r="K23">
-        <v>0.9746800616155793</v>
+        <v>0.9825451822572425</v>
       </c>
       <c r="L23">
-        <v>0.9600032053515573</v>
+        <v>0.9676788259681156</v>
       </c>
       <c r="M23">
-        <v>0.9015775381731624</v>
+        <v>0.900045265460088</v>
       </c>
       <c r="N23">
-        <v>0.9649526581007104</v>
+        <v>0.9698814222965968</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9493524786384352</v>
+        <v>0.9506379154990603</v>
       </c>
       <c r="D24">
-        <v>0.974367706395325</v>
+        <v>0.9782735115891585</v>
       </c>
       <c r="E24">
-        <v>0.960140495450243</v>
+        <v>0.9640464039216291</v>
       </c>
       <c r="F24">
-        <v>0.911095199872219</v>
+        <v>0.9092238251380563</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.022659969758248</v>
+        <v>1.02256686060805</v>
       </c>
       <c r="J24">
-        <v>0.9789498968573493</v>
+        <v>0.980178081432209</v>
       </c>
       <c r="K24">
-        <v>0.9888604199790472</v>
+        <v>0.9926932227189933</v>
       </c>
       <c r="L24">
-        <v>0.9749057149467718</v>
+        <v>0.9787357607814241</v>
       </c>
       <c r="M24">
-        <v>0.9268868442352944</v>
+        <v>0.9250575597739347</v>
       </c>
       <c r="N24">
-        <v>0.9803401179980095</v>
+        <v>0.9815700467358399</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9692024330519067</v>
+        <v>0.9668814008110423</v>
       </c>
       <c r="D25">
-        <v>0.9907260559458879</v>
+        <v>0.9906970387858848</v>
       </c>
       <c r="E25">
-        <v>0.9773318769866612</v>
+        <v>0.977543292067068</v>
       </c>
       <c r="F25">
-        <v>0.9390449104430929</v>
+        <v>0.9366337660924874</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030747368119014</v>
+        <v>1.028116754596035</v>
       </c>
       <c r="J25">
-        <v>0.9948126470550609</v>
+        <v>0.9925771588024911</v>
       </c>
       <c r="K25">
-        <v>1.003470064401284</v>
+        <v>1.003441508581407</v>
       </c>
       <c r="L25">
-        <v>0.9902925835301382</v>
+        <v>0.9905005188973061</v>
       </c>
       <c r="M25">
-        <v>0.9526694174809206</v>
+        <v>0.9503024426899196</v>
       </c>
       <c r="N25">
-        <v>0.9962253951204847</v>
+        <v>0.9939867322181821</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.978894996224442</v>
+        <v>1.004409265446948</v>
       </c>
       <c r="D2">
-        <v>0.9998892270264177</v>
+        <v>1.026771107300812</v>
       </c>
       <c r="E2">
-        <v>0.9875579656077185</v>
+        <v>1.021075575227402</v>
       </c>
       <c r="F2">
-        <v>0.9561352234203038</v>
+        <v>1.033835853768418</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032129258276804</v>
+        <v>1.051463452899252</v>
       </c>
       <c r="J2">
-        <v>1.001725814570478</v>
+        <v>1.026458891221619</v>
       </c>
       <c r="K2">
-        <v>1.011350105308076</v>
+        <v>1.03786966348382</v>
       </c>
       <c r="L2">
-        <v>0.9991934030503991</v>
+        <v>1.032248899153869</v>
       </c>
       <c r="M2">
-        <v>0.9682414880072842</v>
+        <v>1.044843099055448</v>
       </c>
       <c r="N2">
-        <v>1.003148380126725</v>
+        <v>1.012755111559727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9871601509256946</v>
+        <v>1.008317886396731</v>
       </c>
       <c r="D3">
-        <v>1.00621412522968</v>
+        <v>1.029662794922337</v>
       </c>
       <c r="E3">
-        <v>0.9944635793691019</v>
+        <v>1.024242256126076</v>
       </c>
       <c r="F3">
-        <v>0.9692345284173013</v>
+        <v>1.037220954708897</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034841616676904</v>
+        <v>1.052513396903283</v>
       </c>
       <c r="J3">
-        <v>1.008007070297174</v>
+        <v>1.028584337498103</v>
       </c>
       <c r="K3">
-        <v>1.016768107853259</v>
+        <v>1.039929697261119</v>
       </c>
       <c r="L3">
-        <v>1.005167793327078</v>
+        <v>1.034574071498574</v>
       </c>
       <c r="M3">
-        <v>0.9802768055723867</v>
+        <v>1.047398746510136</v>
       </c>
       <c r="N3">
-        <v>1.009438555957023</v>
+        <v>1.013463431495102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9923201193666169</v>
+        <v>1.010800484772822</v>
       </c>
       <c r="D4">
-        <v>1.01016266087159</v>
+        <v>1.031500127816693</v>
       </c>
       <c r="E4">
-        <v>0.9987811705779089</v>
+        <v>1.026258802204312</v>
       </c>
       <c r="F4">
-        <v>0.9772955813881904</v>
+        <v>1.039374489310375</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036513752678307</v>
+        <v>1.053166785247225</v>
       </c>
       <c r="J4">
-        <v>1.011922338579863</v>
+        <v>1.029931890741268</v>
       </c>
       <c r="K4">
-        <v>1.020139959574211</v>
+        <v>1.041232676548656</v>
       </c>
       <c r="L4">
-        <v>1.008894328089931</v>
+        <v>1.036050308784375</v>
       </c>
       <c r="M4">
-        <v>0.9876759791852703</v>
+        <v>1.049019835372594</v>
       </c>
       <c r="N4">
-        <v>1.013359384369761</v>
+        <v>1.013912453782623</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.994447402796883</v>
+        <v>1.011833366713343</v>
       </c>
       <c r="D5">
-        <v>1.011790404992233</v>
+        <v>1.032264655422711</v>
       </c>
       <c r="E5">
-        <v>1.000562587837141</v>
+        <v>1.027098993924184</v>
       </c>
       <c r="F5">
-        <v>0.9805944045958435</v>
+        <v>1.040271250930736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037198148507599</v>
+        <v>1.05343534121358</v>
       </c>
       <c r="J5">
-        <v>1.013534965603048</v>
+        <v>1.03049192322306</v>
       </c>
       <c r="K5">
-        <v>1.02152749783829</v>
+        <v>1.041773424727361</v>
       </c>
       <c r="L5">
-        <v>1.010429797786937</v>
+        <v>1.036664314128791</v>
       </c>
       <c r="M5">
-        <v>0.9907021797394889</v>
+        <v>1.049693727833421</v>
       </c>
       <c r="N5">
-        <v>1.01497430150829</v>
+        <v>1.014099048027341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9948022050667231</v>
+        <v>1.012006168277717</v>
       </c>
       <c r="D6">
-        <v>1.012061882371807</v>
+        <v>1.032392566138558</v>
       </c>
       <c r="E6">
-        <v>1.000859784518334</v>
+        <v>1.027239628421725</v>
       </c>
       <c r="F6">
-        <v>0.9811432562142587</v>
+        <v>1.040421324506659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037312007000383</v>
+        <v>1.053480076240155</v>
       </c>
       <c r="J6">
-        <v>1.013803840375812</v>
+        <v>1.030585579884714</v>
       </c>
       <c r="K6">
-        <v>1.021758769169852</v>
+        <v>1.041863811278177</v>
       </c>
       <c r="L6">
-        <v>1.010685841242775</v>
+        <v>1.036767025867802</v>
       </c>
       <c r="M6">
-        <v>0.9912055678504867</v>
+        <v>1.049806436209666</v>
       </c>
       <c r="N6">
-        <v>1.015243558114071</v>
+        <v>1.014130252011841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9923487053270296</v>
+        <v>1.010814328198175</v>
       </c>
       <c r="D7">
-        <v>1.010184534654661</v>
+        <v>1.0315103742027</v>
       </c>
       <c r="E7">
-        <v>0.9988051033929971</v>
+        <v>1.026270058326012</v>
       </c>
       <c r="F7">
-        <v>0.9773400029663729</v>
+        <v>1.03938650530428</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036522968997282</v>
+        <v>1.053170397662735</v>
       </c>
       <c r="J7">
-        <v>1.011944014723308</v>
+        <v>1.029939399166104</v>
       </c>
       <c r="K7">
-        <v>1.020158615188019</v>
+        <v>1.041239929448152</v>
       </c>
       <c r="L7">
-        <v>1.008914964867975</v>
+        <v>1.036058538883734</v>
       </c>
       <c r="M7">
-        <v>0.987716736722149</v>
+        <v>1.049028869627778</v>
       </c>
       <c r="N7">
-        <v>1.013381091295816</v>
+        <v>1.013914955539624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9817291647851706</v>
+        <v>1.005740047924596</v>
       </c>
       <c r="D8">
-        <v>1.002058049730599</v>
+        <v>1.027755484903529</v>
       </c>
       <c r="E8">
-        <v>0.9899245117708487</v>
+        <v>1.022152635199992</v>
       </c>
       <c r="F8">
-        <v>0.9606542371037926</v>
+        <v>1.034987641475545</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033063915197973</v>
+        <v>1.051823727560439</v>
       </c>
       <c r="J8">
-        <v>1.00388097477199</v>
+        <v>1.027183043825271</v>
       </c>
       <c r="K8">
-        <v>1.013210215407577</v>
+        <v>1.038572170550409</v>
       </c>
       <c r="L8">
-        <v>1.001242714047532</v>
+        <v>1.033040668241254</v>
       </c>
       <c r="M8">
-        <v>0.9723949338352815</v>
+        <v>1.045713654876529</v>
       </c>
       <c r="N8">
-        <v>1.005306600902923</v>
+        <v>1.012996451948586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9614151325062237</v>
+        <v>0.9964260578997547</v>
       </c>
       <c r="D9">
-        <v>0.9865154838967499</v>
+        <v>1.020870724095633</v>
       </c>
       <c r="E9">
-        <v>0.972995623204314</v>
+        <v>1.014637973293028</v>
       </c>
       <c r="F9">
-        <v>0.9275558308667533</v>
+        <v>1.026942839249811</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026264830929661</v>
+        <v>1.049247128108866</v>
       </c>
       <c r="J9">
-        <v>0.9884080673220843</v>
+        <v>1.022105655598851</v>
       </c>
       <c r="K9">
-        <v>0.9998311934468354</v>
+        <v>1.033634026341562</v>
       </c>
       <c r="L9">
-        <v>0.9865425686669911</v>
+        <v>1.027497941366952</v>
       </c>
       <c r="M9">
-        <v>0.9419448453819992</v>
+        <v>1.039613404991048</v>
       </c>
       <c r="N9">
-        <v>0.9898117201496716</v>
+        <v>1.011304111944411</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9465270401144332</v>
+        <v>0.9899427140058862</v>
       </c>
       <c r="D10">
-        <v>0.9751305432948768</v>
+        <v>1.016086719206049</v>
       </c>
       <c r="E10">
-        <v>0.9606387756972997</v>
+        <v>1.009438836893717</v>
       </c>
       <c r="F10">
-        <v>0.9020612826172751</v>
+        <v>1.021365897261409</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.021139986580783</v>
+        <v>1.047385850371895</v>
       </c>
       <c r="J10">
-        <v>0.97703549982214</v>
+        <v>1.018561121470991</v>
       </c>
       <c r="K10">
-        <v>0.9899638259947547</v>
+        <v>1.030171473019887</v>
       </c>
       <c r="L10">
-        <v>0.9757570349654977</v>
+        <v>1.023639736153013</v>
       </c>
       <c r="M10">
-        <v>0.9184567452347775</v>
+        <v>1.035359809823274</v>
       </c>
       <c r="N10">
-        <v>0.9784230022994257</v>
+        <v>1.010122524975968</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.939683122321868</v>
+        <v>0.9870647261526583</v>
       </c>
       <c r="D11">
-        <v>0.9698990235486347</v>
+        <v>1.013965841408616</v>
       </c>
       <c r="E11">
-        <v>0.9549730404624363</v>
+        <v>1.007139059988428</v>
       </c>
       <c r="F11">
-        <v>0.8899001171938337</v>
+        <v>1.018896414995532</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.018744172184483</v>
+        <v>1.046544252942859</v>
       </c>
       <c r="J11">
-        <v>0.9717997840071402</v>
+        <v>1.016985707425849</v>
       </c>
       <c r="K11">
-        <v>0.985411837248982</v>
+        <v>1.028629102348009</v>
       </c>
       <c r="L11">
-        <v>0.9707971677596899</v>
+        <v>1.021927588321213</v>
       </c>
       <c r="M11">
-        <v>0.9072469354274093</v>
+        <v>1.033470559270697</v>
       </c>
       <c r="N11">
-        <v>0.9731798511674232</v>
+        <v>1.009597338721504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9370727478006888</v>
+        <v>0.9859845852437196</v>
       </c>
       <c r="D12">
-        <v>0.9679039318930125</v>
+        <v>1.013170336383056</v>
       </c>
       <c r="E12">
-        <v>0.9528144900537676</v>
+        <v>1.006277207142679</v>
       </c>
       <c r="F12">
-        <v>0.8851767944937567</v>
+        <v>1.017970577739334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.017823546964262</v>
+        <v>1.046226144203182</v>
       </c>
       <c r="J12">
-        <v>0.9698015606780801</v>
+        <v>1.016394179220895</v>
       </c>
       <c r="K12">
-        <v>0.9836730043023637</v>
+        <v>1.028049489795828</v>
       </c>
       <c r="L12">
-        <v>0.9689051844463936</v>
+        <v>1.021285125859551</v>
       </c>
       <c r="M12">
-        <v>0.9028925345528921</v>
+        <v>1.032761402544446</v>
       </c>
       <c r="N12">
-        <v>0.9711787901320367</v>
+        <v>1.00940014435253</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9376359299409521</v>
+        <v>0.9862167912757853</v>
       </c>
       <c r="D13">
-        <v>0.9683343563179496</v>
+        <v>1.013341329090133</v>
       </c>
       <c r="E13">
-        <v>0.9532800775158712</v>
+        <v>1.006462427429692</v>
       </c>
       <c r="F13">
-        <v>0.886200038729255</v>
+        <v>1.018169566309554</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.018022494177984</v>
+        <v>1.046294631019248</v>
       </c>
       <c r="J13">
-        <v>0.9702327303201347</v>
+        <v>1.016521355497457</v>
       </c>
       <c r="K13">
-        <v>0.984048277247631</v>
+        <v>1.028174126150896</v>
       </c>
       <c r="L13">
-        <v>0.9693133842965106</v>
+        <v>1.02142323441392</v>
       </c>
       <c r="M13">
-        <v>0.9038358772069529</v>
+        <v>1.032913858853149</v>
       </c>
       <c r="N13">
-        <v>0.9716105720844388</v>
+        <v>1.009442540355245</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9394687968292335</v>
+        <v>0.9869756714503026</v>
       </c>
       <c r="D14">
-        <v>0.969735210546374</v>
+        <v>1.013900243918984</v>
       </c>
       <c r="E14">
-        <v>0.9547957610531671</v>
+        <v>1.007067976211381</v>
       </c>
       <c r="F14">
-        <v>0.8895141549943507</v>
+        <v>1.018820061770452</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.018668727950465</v>
+        <v>1.04651807108692</v>
       </c>
       <c r="J14">
-        <v>0.9716357450486011</v>
+        <v>1.016936942531183</v>
       </c>
       <c r="K14">
-        <v>0.9852691249647937</v>
+        <v>1.02858132964625</v>
       </c>
       <c r="L14">
-        <v>0.9706418300255876</v>
+        <v>1.021874616196107</v>
       </c>
       <c r="M14">
-        <v>0.9068911290062659</v>
+        <v>1.033412092896124</v>
       </c>
       <c r="N14">
-        <v>0.9730155792547479</v>
+        <v>1.00958108224008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9405887537318638</v>
+        <v>0.9874417521416861</v>
       </c>
       <c r="D15">
-        <v>0.9705912260923092</v>
+        <v>1.014243578043608</v>
       </c>
       <c r="E15">
-        <v>0.9557222345315749</v>
+        <v>1.007440055959801</v>
       </c>
       <c r="F15">
-        <v>0.8915274335975037</v>
+        <v>1.019219708073019</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.019062679276678</v>
+        <v>1.046655006317245</v>
       </c>
       <c r="J15">
-        <v>0.9724928790700971</v>
+        <v>1.017192150400734</v>
       </c>
       <c r="K15">
-        <v>0.9860147589630761</v>
+        <v>1.028831325017632</v>
       </c>
       <c r="L15">
-        <v>0.9714535382952256</v>
+        <v>1.022151858896514</v>
       </c>
       <c r="M15">
-        <v>0.9087470859352237</v>
+        <v>1.033718081422602</v>
       </c>
       <c r="N15">
-        <v>0.9738739305048691</v>
+        <v>1.009666159470965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9469721925980386</v>
+        <v>0.990132184852633</v>
       </c>
       <c r="D16">
-        <v>0.9754708618637447</v>
+        <v>1.016226409527266</v>
       </c>
       <c r="E16">
-        <v>0.9610076155628986</v>
+        <v>1.009590416059166</v>
       </c>
       <c r="F16">
-        <v>0.9028418127440693</v>
+        <v>1.021528607906391</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.021294936014535</v>
+        <v>1.047440941037554</v>
       </c>
       <c r="J16">
-        <v>0.9773758840023038</v>
+        <v>1.018664800078941</v>
       </c>
       <c r="K16">
-        <v>0.9902595576181491</v>
+        <v>1.030272907823042</v>
       </c>
       <c r="L16">
-        <v>0.9760796098945218</v>
+        <v>1.023752469419722</v>
       </c>
       <c r="M16">
-        <v>0.9191761204128746</v>
+        <v>1.035484170518491</v>
       </c>
       <c r="N16">
-        <v>0.9787638698641676</v>
+        <v>1.010157087550793</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9508645452577988</v>
+        <v>0.9918005528805184</v>
       </c>
       <c r="D17">
-        <v>0.9784467950732678</v>
+        <v>1.017456763158278</v>
       </c>
       <c r="E17">
-        <v>0.9642343605994921</v>
+        <v>1.010926067603771</v>
       </c>
       <c r="F17">
-        <v>0.9096157936261742</v>
+        <v>1.022962050036152</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.022645260088278</v>
+        <v>1.047924291935703</v>
       </c>
       <c r="J17">
-        <v>0.9803512781749012</v>
+        <v>1.019577511625081</v>
       </c>
       <c r="K17">
-        <v>0.9928435868906255</v>
+        <v>1.031165482030293</v>
       </c>
       <c r="L17">
-        <v>0.9788999637770489</v>
+        <v>1.024745197502756</v>
       </c>
       <c r="M17">
-        <v>0.9254187503606106</v>
+        <v>1.036579103397945</v>
       </c>
       <c r="N17">
-        <v>0.9817434894377729</v>
+        <v>1.010461350061981</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9530972243854211</v>
+        <v>0.9927669025336702</v>
       </c>
       <c r="D18">
-        <v>0.9801540028155939</v>
+        <v>1.018169664981492</v>
       </c>
       <c r="E18">
-        <v>0.9660865827626619</v>
+        <v>1.011700472242375</v>
       </c>
       <c r="F18">
-        <v>0.9134617643107142</v>
+        <v>1.023792906552304</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023416161473865</v>
+        <v>1.048202792737678</v>
       </c>
       <c r="J18">
-        <v>0.982057259620961</v>
+        <v>1.020105980332505</v>
       </c>
       <c r="K18">
-        <v>0.9943243289896758</v>
+        <v>1.031681967353408</v>
       </c>
       <c r="L18">
-        <v>0.9805175611518629</v>
+        <v>1.025320251060242</v>
       </c>
       <c r="M18">
-        <v>0.9289624999542101</v>
+        <v>1.037213204109236</v>
       </c>
       <c r="N18">
-        <v>0.983451893573165</v>
+        <v>1.010637519439369</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9538523505905125</v>
+        <v>0.9930952676534563</v>
       </c>
       <c r="D19">
-        <v>0.9807314386236209</v>
+        <v>1.018411950452016</v>
       </c>
       <c r="E19">
-        <v>0.9667132529175093</v>
+        <v>1.011963743631954</v>
       </c>
       <c r="F19">
-        <v>0.9147562508519931</v>
+        <v>1.024075327766</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023676291519551</v>
+        <v>1.048297176877144</v>
       </c>
       <c r="J19">
-        <v>0.9826341266691008</v>
+        <v>1.020285520223371</v>
       </c>
       <c r="K19">
-        <v>0.9948248931874479</v>
+        <v>1.031857380603119</v>
       </c>
       <c r="L19">
-        <v>0.981064625200164</v>
+        <v>1.02551566059448</v>
       </c>
       <c r="M19">
-        <v>0.9301551653316984</v>
+        <v>1.037428651719144</v>
       </c>
       <c r="N19">
-        <v>0.9840295798386804</v>
+        <v>1.010697370216098</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9504508840231713</v>
+        <v>0.9916222577985669</v>
       </c>
       <c r="D20">
-        <v>0.9781305064613564</v>
+        <v>1.017325250518329</v>
       </c>
       <c r="E20">
-        <v>0.9638912958817472</v>
+        <v>1.010783248950498</v>
       </c>
       <c r="F20">
-        <v>0.9089001212546062</v>
+        <v>1.022808800379411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.022502138964692</v>
+        <v>1.04787278872405</v>
       </c>
       <c r="J20">
-        <v>0.980035142687334</v>
+        <v>1.019479991510803</v>
       </c>
       <c r="K20">
-        <v>0.9925691228447358</v>
+        <v>1.031070146964666</v>
       </c>
       <c r="L20">
-        <v>0.978600247432332</v>
+        <v>1.024639101474436</v>
       </c>
       <c r="M20">
-        <v>0.9247592704273645</v>
+        <v>1.036462100601306</v>
       </c>
       <c r="N20">
-        <v>0.9814269050015522</v>
+        <v>1.010428840794736</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9389310259562286</v>
+        <v>0.9867525116150266</v>
       </c>
       <c r="D21">
-        <v>0.9693241866080499</v>
+        <v>1.013735872933911</v>
       </c>
       <c r="E21">
-        <v>0.9543509838659037</v>
+        <v>1.006889870048372</v>
       </c>
       <c r="F21">
-        <v>0.8885442878555847</v>
+        <v>1.018628746356271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.018479315527884</v>
+        <v>1.046452426651499</v>
       </c>
       <c r="J21">
-        <v>0.9712241294594369</v>
+        <v>1.016814739847912</v>
       </c>
       <c r="K21">
-        <v>0.9849109977743931</v>
+        <v>1.028461605502684</v>
       </c>
       <c r="L21">
-        <v>0.970252063936505</v>
+        <v>1.021741876928006</v>
       </c>
       <c r="M21">
-        <v>0.9059970308716309</v>
+        <v>1.033265582141358</v>
       </c>
       <c r="N21">
-        <v>0.972603379124234</v>
+        <v>1.009540344215804</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9312873128790954</v>
+        <v>0.9836260486021372</v>
       </c>
       <c r="D22">
-        <v>0.9634825950824268</v>
+        <v>1.011434282522589</v>
       </c>
       <c r="E22">
-        <v>0.9480352841931881</v>
+        <v>1.004397725935702</v>
       </c>
       <c r="F22">
-        <v>0.8745235989192702</v>
+        <v>1.015950855714331</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.015769248986797</v>
+        <v>1.045527477318529</v>
       </c>
       <c r="J22">
-        <v>0.9653704149355369</v>
+        <v>1.015102121573887</v>
       </c>
       <c r="K22">
-        <v>0.9798139207298248</v>
+        <v>1.026782577004423</v>
       </c>
       <c r="L22">
-        <v>0.9647115834785367</v>
+        <v>1.01988256354481</v>
       </c>
       <c r="M22">
-        <v>0.893070761668828</v>
+        <v>1.031212810190927</v>
       </c>
       <c r="N22">
-        <v>0.9667413516542794</v>
+        <v>1.008969420385367</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.93538081349405</v>
+        <v>0.9852897541877144</v>
       </c>
       <c r="D23">
-        <v>0.9666108696072954</v>
+        <v>1.012658750553704</v>
       </c>
       <c r="E23">
-        <v>0.9514161336350194</v>
+        <v>1.005723163529608</v>
       </c>
       <c r="F23">
-        <v>0.8820884218998913</v>
+        <v>1.01737529304759</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017224776838409</v>
+        <v>1.046020886225832</v>
       </c>
       <c r="J23">
-        <v>0.968506032641052</v>
+        <v>1.016013594467231</v>
       </c>
       <c r="K23">
-        <v>0.9825451822572425</v>
+        <v>1.02767643540973</v>
       </c>
       <c r="L23">
-        <v>0.9676788259681156</v>
+        <v>1.020871885145691</v>
       </c>
       <c r="M23">
-        <v>0.900045265460088</v>
+        <v>1.032305196935742</v>
       </c>
       <c r="N23">
-        <v>0.9698814222965968</v>
+        <v>1.009273271193482</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9506379154990603</v>
+        <v>0.9917028425904524</v>
       </c>
       <c r="D24">
-        <v>0.9782735115891585</v>
+        <v>1.017384690054385</v>
       </c>
       <c r="E24">
-        <v>0.9640464039216291</v>
+        <v>1.010847796924948</v>
       </c>
       <c r="F24">
-        <v>0.9092238251380563</v>
+        <v>1.022878063489392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02256686060805</v>
+        <v>1.047896071396436</v>
       </c>
       <c r="J24">
-        <v>0.980178081432209</v>
+        <v>1.019524068688669</v>
       </c>
       <c r="K24">
-        <v>0.9926932227189933</v>
+        <v>1.031113237548184</v>
       </c>
       <c r="L24">
-        <v>0.9787357607814241</v>
+        <v>1.024687054008417</v>
       </c>
       <c r="M24">
-        <v>0.9250575597739347</v>
+        <v>1.036514983185407</v>
       </c>
       <c r="N24">
-        <v>0.9815700467358399</v>
+        <v>1.010443534350429</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9668814008110423</v>
+        <v>0.9988804341304202</v>
       </c>
       <c r="D25">
-        <v>0.9906970387858848</v>
+        <v>1.02268376080798</v>
       </c>
       <c r="E25">
-        <v>0.977543292067068</v>
+        <v>1.016612916719259</v>
       </c>
       <c r="F25">
-        <v>0.9366337660924874</v>
+        <v>1.029059027706174</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.028116754596035</v>
+        <v>1.049938029515607</v>
       </c>
       <c r="J25">
-        <v>0.9925771588024911</v>
+        <v>1.023445534965671</v>
       </c>
       <c r="K25">
-        <v>1.003441508581407</v>
+        <v>1.034939857930252</v>
       </c>
       <c r="L25">
-        <v>0.9905005188973061</v>
+        <v>1.028958698464147</v>
       </c>
       <c r="M25">
-        <v>0.9503024426899196</v>
+        <v>1.041222386471505</v>
       </c>
       <c r="N25">
-        <v>0.9939867322181821</v>
+        <v>1.011750741517257</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.004409265446948</v>
+        <v>1.031341972238605</v>
       </c>
       <c r="D2">
-        <v>1.026771107300812</v>
+        <v>1.040362130796568</v>
       </c>
       <c r="E2">
-        <v>1.021075575227402</v>
+        <v>1.041184803876184</v>
       </c>
       <c r="F2">
-        <v>1.033835853768418</v>
+        <v>1.052746765887175</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051463452899252</v>
+        <v>1.037328764366318</v>
       </c>
       <c r="J2">
-        <v>1.026458891221619</v>
+        <v>1.036478228737853</v>
       </c>
       <c r="K2">
-        <v>1.03786966348382</v>
+        <v>1.043144694831854</v>
       </c>
       <c r="L2">
-        <v>1.032248899153869</v>
+        <v>1.0439650361155</v>
       </c>
       <c r="M2">
-        <v>1.044843099055448</v>
+        <v>1.055494644700634</v>
       </c>
       <c r="N2">
-        <v>1.012755111559727</v>
+        <v>1.016154476248175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.008317886396731</v>
+        <v>1.032176259576357</v>
       </c>
       <c r="D3">
-        <v>1.029662794922337</v>
+        <v>1.040991524943093</v>
       </c>
       <c r="E3">
-        <v>1.024242256126076</v>
+        <v>1.041907733278212</v>
       </c>
       <c r="F3">
-        <v>1.037220954708897</v>
+        <v>1.053510512223387</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052513396903283</v>
+        <v>1.037473554271788</v>
       </c>
       <c r="J3">
-        <v>1.028584337498103</v>
+        <v>1.036954937301612</v>
       </c>
       <c r="K3">
-        <v>1.039929697261119</v>
+        <v>1.043584973256931</v>
       </c>
       <c r="L3">
-        <v>1.034574071498574</v>
+        <v>1.044498771773278</v>
       </c>
       <c r="M3">
-        <v>1.047398746510136</v>
+        <v>1.056071424288792</v>
       </c>
       <c r="N3">
-        <v>1.013463431495102</v>
+        <v>1.016312732456598</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.010800484772822</v>
+        <v>1.03271667834712</v>
       </c>
       <c r="D4">
-        <v>1.031500127816693</v>
+        <v>1.041398951770929</v>
       </c>
       <c r="E4">
-        <v>1.026258802204312</v>
+        <v>1.042376332613377</v>
       </c>
       <c r="F4">
-        <v>1.039374489310375</v>
+        <v>1.054005317416615</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053166785247225</v>
+        <v>1.037565667005835</v>
       </c>
       <c r="J4">
-        <v>1.029931890741268</v>
+        <v>1.037263320288202</v>
       </c>
       <c r="K4">
-        <v>1.041232676548656</v>
+        <v>1.043869339311712</v>
       </c>
       <c r="L4">
-        <v>1.036050308784375</v>
+        <v>1.044844278450707</v>
       </c>
       <c r="M4">
-        <v>1.049019835372594</v>
+        <v>1.056444585346642</v>
       </c>
       <c r="N4">
-        <v>1.013912453782623</v>
+        <v>1.016415085955701</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.011833366713343</v>
+        <v>1.032944007313189</v>
       </c>
       <c r="D5">
-        <v>1.032264655422711</v>
+        <v>1.041570271981262</v>
       </c>
       <c r="E5">
-        <v>1.027098993924184</v>
+        <v>1.042573525107426</v>
       </c>
       <c r="F5">
-        <v>1.040271250930736</v>
+        <v>1.054213477514688</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05343534121358</v>
+        <v>1.037604012965903</v>
       </c>
       <c r="J5">
-        <v>1.03049192322306</v>
+        <v>1.037392944148297</v>
       </c>
       <c r="K5">
-        <v>1.041773424727361</v>
+        <v>1.043988759985448</v>
       </c>
       <c r="L5">
-        <v>1.036664314128791</v>
+        <v>1.044989562413284</v>
       </c>
       <c r="M5">
-        <v>1.049693727833421</v>
+        <v>1.056601447610802</v>
       </c>
       <c r="N5">
-        <v>1.014099048027341</v>
+        <v>1.016458103192827</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012006168277717</v>
+        <v>1.032982184825723</v>
       </c>
       <c r="D6">
-        <v>1.032392566138558</v>
+        <v>1.04159903956849</v>
       </c>
       <c r="E6">
-        <v>1.027239628421725</v>
+        <v>1.042606645875549</v>
       </c>
       <c r="F6">
-        <v>1.040421324506659</v>
+        <v>1.054248436893908</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053480076240155</v>
+        <v>1.037610429214401</v>
       </c>
       <c r="J6">
-        <v>1.030585579884714</v>
+        <v>1.037414707332127</v>
       </c>
       <c r="K6">
-        <v>1.041863811278177</v>
+        <v>1.04400880376233</v>
       </c>
       <c r="L6">
-        <v>1.036767025867802</v>
+        <v>1.045013958118063</v>
       </c>
       <c r="M6">
-        <v>1.049806436209666</v>
+        <v>1.056627784565741</v>
       </c>
       <c r="N6">
-        <v>1.014130252011841</v>
+        <v>1.01646532524839</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.010814328198175</v>
+        <v>1.032719715392062</v>
       </c>
       <c r="D7">
-        <v>1.0315103742027</v>
+        <v>1.041401240813216</v>
       </c>
       <c r="E7">
-        <v>1.026270058326012</v>
+        <v>1.042378966751912</v>
       </c>
       <c r="F7">
-        <v>1.03938650530428</v>
+        <v>1.05400809829888</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053170397662735</v>
+        <v>1.037566180873801</v>
       </c>
       <c r="J7">
-        <v>1.029939399166104</v>
+        <v>1.037265052410225</v>
       </c>
       <c r="K7">
-        <v>1.041239929448152</v>
+        <v>1.043870935516768</v>
       </c>
       <c r="L7">
-        <v>1.036058538883734</v>
+        <v>1.044846219614553</v>
       </c>
       <c r="M7">
-        <v>1.049028869627778</v>
+        <v>1.056446681407631</v>
       </c>
       <c r="N7">
-        <v>1.013914955539624</v>
+        <v>1.016415660802568</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.005740047924596</v>
+        <v>1.031623802616624</v>
       </c>
       <c r="D8">
-        <v>1.027755484903529</v>
+        <v>1.040574801806396</v>
       </c>
       <c r="E8">
-        <v>1.022152635199992</v>
+        <v>1.041428951197327</v>
       </c>
       <c r="F8">
-        <v>1.034987641475545</v>
+        <v>1.053004749922154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051823727560439</v>
+        <v>1.037378022558099</v>
       </c>
       <c r="J8">
-        <v>1.027183043825271</v>
+        <v>1.036639350240755</v>
       </c>
       <c r="K8">
-        <v>1.038572170550409</v>
+        <v>1.043293596496759</v>
       </c>
       <c r="L8">
-        <v>1.033040668241254</v>
+        <v>1.044145383845973</v>
       </c>
       <c r="M8">
-        <v>1.045713654876529</v>
+        <v>1.055689580179365</v>
       </c>
       <c r="N8">
-        <v>1.012996451948586</v>
+        <v>1.016207969501784</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9964260578997547</v>
+        <v>1.029697175189799</v>
       </c>
       <c r="D9">
-        <v>1.020870724095633</v>
+        <v>1.039119873305124</v>
       </c>
       <c r="E9">
-        <v>1.014637973293028</v>
+        <v>1.039761235082623</v>
       </c>
       <c r="F9">
-        <v>1.026942839249811</v>
+        <v>1.051241488217078</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049247128108866</v>
+        <v>1.037034434199645</v>
       </c>
       <c r="J9">
-        <v>1.022105655598851</v>
+        <v>1.035536235296458</v>
       </c>
       <c r="K9">
-        <v>1.033634026341562</v>
+        <v>1.04227230713103</v>
       </c>
       <c r="L9">
-        <v>1.027497941366952</v>
+        <v>1.042911591848709</v>
       </c>
       <c r="M9">
-        <v>1.039613404991048</v>
+        <v>1.054355134978896</v>
       </c>
       <c r="N9">
-        <v>1.011304111944411</v>
+        <v>1.01584163789356</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9899427140058862</v>
+        <v>1.028415891733679</v>
       </c>
       <c r="D10">
-        <v>1.016086719206049</v>
+        <v>1.038150952545909</v>
       </c>
       <c r="E10">
-        <v>1.009438836893717</v>
+        <v>1.03865379749006</v>
       </c>
       <c r="F10">
-        <v>1.021365897261409</v>
+        <v>1.050069309791995</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047385850371895</v>
+        <v>1.036797342541982</v>
       </c>
       <c r="J10">
-        <v>1.018561121470991</v>
+        <v>1.034800537515523</v>
       </c>
       <c r="K10">
-        <v>1.030171473019887</v>
+        <v>1.041588883582548</v>
       </c>
       <c r="L10">
-        <v>1.023639736153013</v>
+        <v>1.042089941077527</v>
       </c>
       <c r="M10">
-        <v>1.035359809823274</v>
+        <v>1.053465382195159</v>
       </c>
       <c r="N10">
-        <v>1.010122524975968</v>
+        <v>1.015597207935158</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9870647261526583</v>
+        <v>1.027861846787001</v>
       </c>
       <c r="D11">
-        <v>1.013965841408616</v>
+        <v>1.037731668167951</v>
       </c>
       <c r="E11">
-        <v>1.007139059988428</v>
+        <v>1.038175326401658</v>
       </c>
       <c r="F11">
-        <v>1.018896414995532</v>
+        <v>1.049562559587439</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046544252942859</v>
+        <v>1.036692785517918</v>
       </c>
       <c r="J11">
-        <v>1.016985707425849</v>
+        <v>1.034481920917943</v>
       </c>
       <c r="K11">
-        <v>1.028629102348009</v>
+        <v>1.041292363990074</v>
       </c>
       <c r="L11">
-        <v>1.021927588321213</v>
+        <v>1.041734384349065</v>
       </c>
       <c r="M11">
-        <v>1.033470559270697</v>
+        <v>1.053080102086177</v>
       </c>
       <c r="N11">
-        <v>1.009597338721504</v>
+        <v>1.015491323508937</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9859845852437196</v>
+        <v>1.027656165606502</v>
       </c>
       <c r="D12">
-        <v>1.013170336383056</v>
+        <v>1.037575969014094</v>
       </c>
       <c r="E12">
-        <v>1.006277207142679</v>
+        <v>1.037997761667554</v>
       </c>
       <c r="F12">
-        <v>1.017970577739334</v>
+        <v>1.049374453937789</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046226144203182</v>
+        <v>1.036653664620636</v>
       </c>
       <c r="J12">
-        <v>1.016394179220895</v>
+        <v>1.034363565682264</v>
       </c>
       <c r="K12">
-        <v>1.028049489795828</v>
+        <v>1.041182135846113</v>
       </c>
       <c r="L12">
-        <v>1.021285125859551</v>
+        <v>1.041602349859634</v>
       </c>
       <c r="M12">
-        <v>1.032761402544446</v>
+        <v>1.052936991954602</v>
       </c>
       <c r="N12">
-        <v>1.00940014435253</v>
+        <v>1.01545198709275</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9862167912757853</v>
+        <v>1.027700279651045</v>
       </c>
       <c r="D13">
-        <v>1.013341329090133</v>
+        <v>1.03760936509117</v>
       </c>
       <c r="E13">
-        <v>1.006462427429692</v>
+        <v>1.03803584260065</v>
       </c>
       <c r="F13">
-        <v>1.018169566309554</v>
+        <v>1.049414797595558</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046294631019248</v>
+        <v>1.036662069012279</v>
       </c>
       <c r="J13">
-        <v>1.016521355497457</v>
+        <v>1.034388953570047</v>
       </c>
       <c r="K13">
-        <v>1.028174126150896</v>
+        <v>1.04120578409595</v>
       </c>
       <c r="L13">
-        <v>1.02142323441392</v>
+        <v>1.041630670092368</v>
       </c>
       <c r="M13">
-        <v>1.032913858853149</v>
+        <v>1.052967689533055</v>
       </c>
       <c r="N13">
-        <v>1.009442540355245</v>
+        <v>1.015460425161571</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9869756714503026</v>
+        <v>1.027844842744637</v>
       </c>
       <c r="D14">
-        <v>1.013900243918984</v>
+        <v>1.037718797164652</v>
       </c>
       <c r="E14">
-        <v>1.007067976211381</v>
+        <v>1.038160645555055</v>
       </c>
       <c r="F14">
-        <v>1.018820061770452</v>
+        <v>1.049547008175148</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04651807108692</v>
+        <v>1.036689557555801</v>
       </c>
       <c r="J14">
-        <v>1.016936942531183</v>
+        <v>1.034472137769027</v>
       </c>
       <c r="K14">
-        <v>1.02858132964625</v>
+        <v>1.04128325427506</v>
       </c>
       <c r="L14">
-        <v>1.021874616196107</v>
+        <v>1.041723469611864</v>
       </c>
       <c r="M14">
-        <v>1.033412092896124</v>
+        <v>1.053068272546817</v>
       </c>
       <c r="N14">
-        <v>1.00958108224008</v>
+        <v>1.01548807207273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9874417521416861</v>
+        <v>1.027933928231228</v>
       </c>
       <c r="D15">
-        <v>1.014243578043608</v>
+        <v>1.037786227465466</v>
       </c>
       <c r="E15">
-        <v>1.007440055959801</v>
+        <v>1.038237562131835</v>
       </c>
       <c r="F15">
-        <v>1.019219708073019</v>
+        <v>1.049628483963448</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046655006317245</v>
+        <v>1.036706456580358</v>
       </c>
       <c r="J15">
-        <v>1.017192150400734</v>
+        <v>1.034523389433015</v>
       </c>
       <c r="K15">
-        <v>1.028831325017632</v>
+        <v>1.041330974650251</v>
       </c>
       <c r="L15">
-        <v>1.022151858896514</v>
+        <v>1.041780651156976</v>
       </c>
       <c r="M15">
-        <v>1.033718081422602</v>
+        <v>1.053130245120891</v>
       </c>
       <c r="N15">
-        <v>1.009666159470965</v>
+        <v>1.01550510543655</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.990132184852633</v>
+        <v>1.028452678014766</v>
       </c>
       <c r="D16">
-        <v>1.016226409527266</v>
+        <v>1.038178784813998</v>
       </c>
       <c r="E16">
-        <v>1.009590416059166</v>
+        <v>1.038685574472505</v>
       </c>
       <c r="F16">
-        <v>1.021528607906391</v>
+        <v>1.050102958398245</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047440941037554</v>
+        <v>1.036804241803952</v>
       </c>
       <c r="J16">
-        <v>1.018664800078941</v>
+        <v>1.034821682015368</v>
       </c>
       <c r="K16">
-        <v>1.030272907823042</v>
+        <v>1.041608550250516</v>
       </c>
       <c r="L16">
-        <v>1.023752469419722</v>
+        <v>1.042113543046182</v>
       </c>
       <c r="M16">
-        <v>1.035484170518491</v>
+        <v>1.053490951878928</v>
       </c>
       <c r="N16">
-        <v>1.010157087550793</v>
+        <v>1.015604234236354</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9918005528805184</v>
+        <v>1.0287782805298</v>
       </c>
       <c r="D17">
-        <v>1.017456763158278</v>
+        <v>1.038425097924843</v>
       </c>
       <c r="E17">
-        <v>1.010926067603771</v>
+        <v>1.038966885081264</v>
       </c>
       <c r="F17">
-        <v>1.022962050036152</v>
+        <v>1.050400802250527</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047924291935703</v>
+        <v>1.036865073246642</v>
       </c>
       <c r="J17">
-        <v>1.019577511625081</v>
+        <v>1.035008779412574</v>
       </c>
       <c r="K17">
-        <v>1.031165482030293</v>
+        <v>1.041782508458067</v>
       </c>
       <c r="L17">
-        <v>1.024745197502756</v>
+        <v>1.042322418249946</v>
       </c>
       <c r="M17">
-        <v>1.036579103397945</v>
+        <v>1.053717211915157</v>
       </c>
       <c r="N17">
-        <v>1.010461350061981</v>
+        <v>1.015666403501765</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9927669025336702</v>
+        <v>1.028968272109268</v>
       </c>
       <c r="D18">
-        <v>1.018169664981492</v>
+        <v>1.038568793603928</v>
       </c>
       <c r="E18">
-        <v>1.011700472242375</v>
+        <v>1.039131070623717</v>
       </c>
       <c r="F18">
-        <v>1.023792906552304</v>
+        <v>1.050574607617422</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048202792737678</v>
+        <v>1.036900372319437</v>
       </c>
       <c r="J18">
-        <v>1.020105980332505</v>
+        <v>1.035117904799522</v>
       </c>
       <c r="K18">
-        <v>1.031681967353408</v>
+        <v>1.041883918052792</v>
       </c>
       <c r="L18">
-        <v>1.025320251060242</v>
+        <v>1.04244427308197</v>
       </c>
       <c r="M18">
-        <v>1.037213204109236</v>
+        <v>1.053849184360571</v>
       </c>
       <c r="N18">
-        <v>1.010637519439369</v>
+        <v>1.015702661443032</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9930952676534563</v>
+        <v>1.029033066681934</v>
       </c>
       <c r="D19">
-        <v>1.018411950452016</v>
+        <v>1.038617794367002</v>
       </c>
       <c r="E19">
-        <v>1.011963743631954</v>
+        <v>1.039187070861668</v>
       </c>
       <c r="F19">
-        <v>1.024075327766</v>
+        <v>1.050633883936099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048297176877144</v>
+        <v>1.036912377344111</v>
       </c>
       <c r="J19">
-        <v>1.020285520223371</v>
+        <v>1.035155112785993</v>
       </c>
       <c r="K19">
-        <v>1.031857380603119</v>
+        <v>1.041918486342396</v>
       </c>
       <c r="L19">
-        <v>1.02551566059448</v>
+        <v>1.042485826023816</v>
       </c>
       <c r="M19">
-        <v>1.037428651719144</v>
+        <v>1.053894183296151</v>
       </c>
       <c r="N19">
-        <v>1.010697370216098</v>
+        <v>1.015715023713319</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9916222577985669</v>
+        <v>1.028743338883694</v>
       </c>
       <c r="D20">
-        <v>1.017325250518329</v>
+        <v>1.038398668216796</v>
       </c>
       <c r="E20">
-        <v>1.010783248950498</v>
+        <v>1.038936692568872</v>
       </c>
       <c r="F20">
-        <v>1.022808800379411</v>
+        <v>1.050368838331678</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04787278872405</v>
+        <v>1.036858565517989</v>
       </c>
       <c r="J20">
-        <v>1.019479991510803</v>
+        <v>1.034988706177062</v>
       </c>
       <c r="K20">
-        <v>1.031070146964666</v>
+        <v>1.041763850303246</v>
       </c>
       <c r="L20">
-        <v>1.024639101474436</v>
+        <v>1.042300005686604</v>
       </c>
       <c r="M20">
-        <v>1.036462100601306</v>
+        <v>1.053692936466641</v>
       </c>
       <c r="N20">
-        <v>1.010428840794736</v>
+        <v>1.015659733773324</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9867525116150266</v>
+        <v>1.027802269306815</v>
       </c>
       <c r="D21">
-        <v>1.013735872933911</v>
+        <v>1.037686570978767</v>
       </c>
       <c r="E21">
-        <v>1.006889870048372</v>
+        <v>1.038123889742786</v>
       </c>
       <c r="F21">
-        <v>1.018628746356271</v>
+        <v>1.04950807201633</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046452426651499</v>
+        <v>1.036681470690866</v>
       </c>
       <c r="J21">
-        <v>1.016814739847912</v>
+        <v>1.034447642273797</v>
       </c>
       <c r="K21">
-        <v>1.028461605502684</v>
+        <v>1.041260443643562</v>
       </c>
       <c r="L21">
-        <v>1.021741876928006</v>
+        <v>1.041696141484799</v>
       </c>
       <c r="M21">
-        <v>1.033265582141358</v>
+        <v>1.053038653340664</v>
       </c>
       <c r="N21">
-        <v>1.009540344215804</v>
+        <v>1.015479930914479</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9836260486021372</v>
+        <v>1.027211252237808</v>
       </c>
       <c r="D22">
-        <v>1.011434282522589</v>
+        <v>1.037239089602529</v>
       </c>
       <c r="E22">
-        <v>1.004397725935702</v>
+        <v>1.037613779266255</v>
       </c>
       <c r="F22">
-        <v>1.015950855714331</v>
+        <v>1.048967592194381</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045527477318529</v>
+        <v>1.036568482824345</v>
       </c>
       <c r="J22">
-        <v>1.015102121573887</v>
+        <v>1.034107414990901</v>
       </c>
       <c r="K22">
-        <v>1.026782577004423</v>
+        <v>1.040943426003033</v>
       </c>
       <c r="L22">
-        <v>1.01988256354481</v>
+        <v>1.04131667199097</v>
       </c>
       <c r="M22">
-        <v>1.031212810190927</v>
+        <v>1.052627280755243</v>
       </c>
       <c r="N22">
-        <v>1.008969420385367</v>
+        <v>1.015366845937587</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9852897541877144</v>
+        <v>1.027524497419222</v>
       </c>
       <c r="D23">
-        <v>1.012658750553704</v>
+        <v>1.037476284313959</v>
       </c>
       <c r="E23">
-        <v>1.005723163529608</v>
+        <v>1.037884109582716</v>
       </c>
       <c r="F23">
-        <v>1.01737529304759</v>
+        <v>1.049254041995342</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046020886225832</v>
+        <v>1.036628535106824</v>
       </c>
       <c r="J23">
-        <v>1.016013594467231</v>
+        <v>1.034287779148262</v>
       </c>
       <c r="K23">
-        <v>1.02767643540973</v>
+        <v>1.041111530512347</v>
       </c>
       <c r="L23">
-        <v>1.020871885145691</v>
+        <v>1.041517816110516</v>
       </c>
       <c r="M23">
-        <v>1.032305196935742</v>
+        <v>1.052845356450626</v>
       </c>
       <c r="N23">
-        <v>1.009273271193482</v>
+        <v>1.015426797654985</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9917028425904524</v>
+        <v>1.02875912728373</v>
       </c>
       <c r="D24">
-        <v>1.017384690054385</v>
+        <v>1.038410610585946</v>
       </c>
       <c r="E24">
-        <v>1.010847796924948</v>
+        <v>1.038950334951234</v>
       </c>
       <c r="F24">
-        <v>1.022878063489392</v>
+        <v>1.050383281209727</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047896071396436</v>
+        <v>1.036861506645612</v>
       </c>
       <c r="J24">
-        <v>1.019524068688669</v>
+        <v>1.034997776424872</v>
       </c>
       <c r="K24">
-        <v>1.031113237548184</v>
+        <v>1.041772281297457</v>
       </c>
       <c r="L24">
-        <v>1.024687054008417</v>
+        <v>1.042310132893124</v>
       </c>
       <c r="M24">
-        <v>1.036514983185407</v>
+        <v>1.053703905500841</v>
       </c>
       <c r="N24">
-        <v>1.010443534350429</v>
+        <v>1.015662747549978</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9988804341304202</v>
+        <v>1.030194709490536</v>
       </c>
       <c r="D25">
-        <v>1.02268376080798</v>
+        <v>1.039495833802449</v>
       </c>
       <c r="E25">
-        <v>1.016612916719259</v>
+        <v>1.040191617308164</v>
       </c>
       <c r="F25">
-        <v>1.029059027706174</v>
+        <v>1.051696755922214</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049938029515607</v>
+        <v>1.037124679878858</v>
       </c>
       <c r="J25">
-        <v>1.023445534965671</v>
+        <v>1.035821473562335</v>
       </c>
       <c r="K25">
-        <v>1.034939857930252</v>
+        <v>1.042536793250551</v>
       </c>
       <c r="L25">
-        <v>1.028958698464147</v>
+        <v>1.043230408646801</v>
       </c>
       <c r="M25">
-        <v>1.041222386471505</v>
+        <v>1.054700150215478</v>
       </c>
       <c r="N25">
-        <v>1.011750741517257</v>
+        <v>1.015936382291505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031341972238605</v>
+        <v>1.004409265446947</v>
       </c>
       <c r="D2">
-        <v>1.040362130796568</v>
+        <v>1.026771107300812</v>
       </c>
       <c r="E2">
-        <v>1.041184803876184</v>
+        <v>1.021075575227401</v>
       </c>
       <c r="F2">
-        <v>1.052746765887175</v>
+        <v>1.033835853768418</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.037328764366318</v>
+        <v>1.051463452899252</v>
       </c>
       <c r="J2">
-        <v>1.036478228737853</v>
+        <v>1.026458891221618</v>
       </c>
       <c r="K2">
-        <v>1.043144694831854</v>
+        <v>1.03786966348382</v>
       </c>
       <c r="L2">
-        <v>1.0439650361155</v>
+        <v>1.032248899153868</v>
       </c>
       <c r="M2">
-        <v>1.055494644700634</v>
+        <v>1.044843099055447</v>
       </c>
       <c r="N2">
-        <v>1.016154476248175</v>
+        <v>1.012755111559727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.032176259576357</v>
+        <v>1.008317886396731</v>
       </c>
       <c r="D3">
-        <v>1.040991524943093</v>
+        <v>1.029662794922337</v>
       </c>
       <c r="E3">
-        <v>1.041907733278212</v>
+        <v>1.024242256126075</v>
       </c>
       <c r="F3">
-        <v>1.053510512223387</v>
+        <v>1.037220954708897</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037473554271788</v>
+        <v>1.052513396903283</v>
       </c>
       <c r="J3">
-        <v>1.036954937301612</v>
+        <v>1.028584337498103</v>
       </c>
       <c r="K3">
-        <v>1.043584973256931</v>
+        <v>1.039929697261118</v>
       </c>
       <c r="L3">
-        <v>1.044498771773278</v>
+        <v>1.034574071498574</v>
       </c>
       <c r="M3">
-        <v>1.056071424288792</v>
+        <v>1.047398746510135</v>
       </c>
       <c r="N3">
-        <v>1.016312732456598</v>
+        <v>1.013463431495102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03271667834712</v>
+        <v>1.010800484772821</v>
       </c>
       <c r="D4">
-        <v>1.041398951770929</v>
+        <v>1.031500127816693</v>
       </c>
       <c r="E4">
-        <v>1.042376332613377</v>
+        <v>1.026258802204312</v>
       </c>
       <c r="F4">
-        <v>1.054005317416615</v>
+        <v>1.039374489310374</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.037565667005835</v>
+        <v>1.053166785247225</v>
       </c>
       <c r="J4">
-        <v>1.037263320288202</v>
+        <v>1.029931890741268</v>
       </c>
       <c r="K4">
-        <v>1.043869339311712</v>
+        <v>1.041232676548655</v>
       </c>
       <c r="L4">
-        <v>1.044844278450707</v>
+        <v>1.036050308784375</v>
       </c>
       <c r="M4">
-        <v>1.056444585346642</v>
+        <v>1.049019835372593</v>
       </c>
       <c r="N4">
-        <v>1.016415085955701</v>
+        <v>1.013912453782622</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032944007313189</v>
+        <v>1.011833366713343</v>
       </c>
       <c r="D5">
-        <v>1.041570271981262</v>
+        <v>1.032264655422711</v>
       </c>
       <c r="E5">
-        <v>1.042573525107426</v>
+        <v>1.027098993924184</v>
       </c>
       <c r="F5">
-        <v>1.054213477514688</v>
+        <v>1.040271250930736</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037604012965903</v>
+        <v>1.05343534121358</v>
       </c>
       <c r="J5">
-        <v>1.037392944148297</v>
+        <v>1.03049192322306</v>
       </c>
       <c r="K5">
-        <v>1.043988759985448</v>
+        <v>1.041773424727361</v>
       </c>
       <c r="L5">
-        <v>1.044989562413284</v>
+        <v>1.036664314128791</v>
       </c>
       <c r="M5">
-        <v>1.056601447610802</v>
+        <v>1.049693727833421</v>
       </c>
       <c r="N5">
-        <v>1.016458103192827</v>
+        <v>1.014099048027341</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032982184825723</v>
+        <v>1.012006168277717</v>
       </c>
       <c r="D6">
-        <v>1.04159903956849</v>
+        <v>1.032392566138558</v>
       </c>
       <c r="E6">
-        <v>1.042606645875549</v>
+        <v>1.027239628421724</v>
       </c>
       <c r="F6">
-        <v>1.054248436893908</v>
+        <v>1.040421324506659</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037610429214401</v>
+        <v>1.053480076240154</v>
       </c>
       <c r="J6">
-        <v>1.037414707332127</v>
+        <v>1.030585579884714</v>
       </c>
       <c r="K6">
-        <v>1.04400880376233</v>
+        <v>1.041863811278177</v>
       </c>
       <c r="L6">
-        <v>1.045013958118063</v>
+        <v>1.036767025867802</v>
       </c>
       <c r="M6">
-        <v>1.056627784565741</v>
+        <v>1.049806436209665</v>
       </c>
       <c r="N6">
-        <v>1.01646532524839</v>
+        <v>1.014130252011841</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032719715392062</v>
+        <v>1.010814328198176</v>
       </c>
       <c r="D7">
-        <v>1.041401240813216</v>
+        <v>1.031510374202701</v>
       </c>
       <c r="E7">
-        <v>1.042378966751912</v>
+        <v>1.026270058326013</v>
       </c>
       <c r="F7">
-        <v>1.05400809829888</v>
+        <v>1.039386505304281</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.037566180873801</v>
+        <v>1.053170397662735</v>
       </c>
       <c r="J7">
-        <v>1.037265052410225</v>
+        <v>1.029939399166105</v>
       </c>
       <c r="K7">
-        <v>1.043870935516768</v>
+        <v>1.041239929448153</v>
       </c>
       <c r="L7">
-        <v>1.044846219614553</v>
+        <v>1.036058538883735</v>
       </c>
       <c r="M7">
-        <v>1.056446681407631</v>
+        <v>1.049028869627779</v>
       </c>
       <c r="N7">
-        <v>1.016415660802568</v>
+        <v>1.013914955539624</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031623802616624</v>
+        <v>1.005740047924595</v>
       </c>
       <c r="D8">
-        <v>1.040574801806396</v>
+        <v>1.027755484903529</v>
       </c>
       <c r="E8">
-        <v>1.041428951197327</v>
+        <v>1.022152635199991</v>
       </c>
       <c r="F8">
-        <v>1.053004749922154</v>
+        <v>1.034987641475544</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.037378022558099</v>
+        <v>1.051823727560438</v>
       </c>
       <c r="J8">
-        <v>1.036639350240755</v>
+        <v>1.02718304382527</v>
       </c>
       <c r="K8">
-        <v>1.043293596496759</v>
+        <v>1.038572170550408</v>
       </c>
       <c r="L8">
-        <v>1.044145383845973</v>
+        <v>1.033040668241253</v>
       </c>
       <c r="M8">
-        <v>1.055689580179365</v>
+        <v>1.045713654876528</v>
       </c>
       <c r="N8">
-        <v>1.016207969501784</v>
+        <v>1.012996451948586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029697175189799</v>
+        <v>0.9964260578997544</v>
       </c>
       <c r="D9">
-        <v>1.039119873305124</v>
+        <v>1.020870724095632</v>
       </c>
       <c r="E9">
-        <v>1.039761235082623</v>
+        <v>1.014637973293028</v>
       </c>
       <c r="F9">
-        <v>1.051241488217078</v>
+        <v>1.02694283924981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037034434199645</v>
+        <v>1.049247128108866</v>
       </c>
       <c r="J9">
-        <v>1.035536235296458</v>
+        <v>1.022105655598851</v>
       </c>
       <c r="K9">
-        <v>1.04227230713103</v>
+        <v>1.033634026341562</v>
       </c>
       <c r="L9">
-        <v>1.042911591848709</v>
+        <v>1.027497941366952</v>
       </c>
       <c r="M9">
-        <v>1.054355134978896</v>
+        <v>1.039613404991047</v>
       </c>
       <c r="N9">
-        <v>1.01584163789356</v>
+        <v>1.011304111944411</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028415891733679</v>
+        <v>0.9899427140058857</v>
       </c>
       <c r="D10">
-        <v>1.038150952545909</v>
+        <v>1.016086719206048</v>
       </c>
       <c r="E10">
-        <v>1.03865379749006</v>
+        <v>1.009438836893716</v>
       </c>
       <c r="F10">
-        <v>1.050069309791995</v>
+        <v>1.021365897261408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036797342541982</v>
+        <v>1.047385850371894</v>
       </c>
       <c r="J10">
-        <v>1.034800537515523</v>
+        <v>1.01856112147099</v>
       </c>
       <c r="K10">
-        <v>1.041588883582548</v>
+        <v>1.030171473019887</v>
       </c>
       <c r="L10">
-        <v>1.042089941077527</v>
+        <v>1.023639736153012</v>
       </c>
       <c r="M10">
-        <v>1.053465382195159</v>
+        <v>1.035359809823274</v>
       </c>
       <c r="N10">
-        <v>1.015597207935158</v>
+        <v>1.010122524975967</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027861846787001</v>
+        <v>0.9870647261526579</v>
       </c>
       <c r="D11">
-        <v>1.037731668167951</v>
+        <v>1.013965841408616</v>
       </c>
       <c r="E11">
-        <v>1.038175326401658</v>
+        <v>1.007139059988428</v>
       </c>
       <c r="F11">
-        <v>1.049562559587439</v>
+        <v>1.018896414995532</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036692785517918</v>
+        <v>1.046544252942859</v>
       </c>
       <c r="J11">
-        <v>1.034481920917943</v>
+        <v>1.016985707425848</v>
       </c>
       <c r="K11">
-        <v>1.041292363990074</v>
+        <v>1.028629102348009</v>
       </c>
       <c r="L11">
-        <v>1.041734384349065</v>
+        <v>1.021927588321212</v>
       </c>
       <c r="M11">
-        <v>1.053080102086177</v>
+        <v>1.033470559270697</v>
       </c>
       <c r="N11">
-        <v>1.015491323508937</v>
+        <v>1.009597338721504</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027656165606502</v>
+        <v>0.9859845852437199</v>
       </c>
       <c r="D12">
-        <v>1.037575969014094</v>
+        <v>1.013170336383056</v>
       </c>
       <c r="E12">
-        <v>1.037997761667554</v>
+        <v>1.00627720714268</v>
       </c>
       <c r="F12">
-        <v>1.049374453937789</v>
+        <v>1.017970577739334</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036653664620636</v>
+        <v>1.046226144203182</v>
       </c>
       <c r="J12">
-        <v>1.034363565682264</v>
+        <v>1.016394179220895</v>
       </c>
       <c r="K12">
-        <v>1.041182135846113</v>
+        <v>1.028049489795828</v>
       </c>
       <c r="L12">
-        <v>1.041602349859634</v>
+        <v>1.021285125859551</v>
       </c>
       <c r="M12">
-        <v>1.052936991954602</v>
+        <v>1.032761402544446</v>
       </c>
       <c r="N12">
-        <v>1.01545198709275</v>
+        <v>1.00940014435253</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027700279651045</v>
+        <v>0.9862167912757852</v>
       </c>
       <c r="D13">
-        <v>1.03760936509117</v>
+        <v>1.013341329090133</v>
       </c>
       <c r="E13">
-        <v>1.03803584260065</v>
+        <v>1.006462427429692</v>
       </c>
       <c r="F13">
-        <v>1.049414797595558</v>
+        <v>1.018169566309555</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036662069012279</v>
+        <v>1.046294631019248</v>
       </c>
       <c r="J13">
-        <v>1.034388953570047</v>
+        <v>1.016521355497457</v>
       </c>
       <c r="K13">
-        <v>1.04120578409595</v>
+        <v>1.028174126150896</v>
       </c>
       <c r="L13">
-        <v>1.041630670092368</v>
+        <v>1.02142323441392</v>
       </c>
       <c r="M13">
-        <v>1.052967689533055</v>
+        <v>1.032913858853149</v>
       </c>
       <c r="N13">
-        <v>1.015460425161571</v>
+        <v>1.009442540355245</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027844842744637</v>
+        <v>0.9869756714503028</v>
       </c>
       <c r="D14">
-        <v>1.037718797164652</v>
+        <v>1.013900243918984</v>
       </c>
       <c r="E14">
-        <v>1.038160645555055</v>
+        <v>1.007067976211381</v>
       </c>
       <c r="F14">
-        <v>1.049547008175148</v>
+        <v>1.018820061770452</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036689557555801</v>
+        <v>1.04651807108692</v>
       </c>
       <c r="J14">
-        <v>1.034472137769027</v>
+        <v>1.016936942531183</v>
       </c>
       <c r="K14">
-        <v>1.04128325427506</v>
+        <v>1.02858132964625</v>
       </c>
       <c r="L14">
-        <v>1.041723469611864</v>
+        <v>1.021874616196107</v>
       </c>
       <c r="M14">
-        <v>1.053068272546817</v>
+        <v>1.033412092896124</v>
       </c>
       <c r="N14">
-        <v>1.01548807207273</v>
+        <v>1.00958108224008</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027933928231228</v>
+        <v>0.9874417521416861</v>
       </c>
       <c r="D15">
-        <v>1.037786227465466</v>
+        <v>1.014243578043608</v>
       </c>
       <c r="E15">
-        <v>1.038237562131835</v>
+        <v>1.007440055959801</v>
       </c>
       <c r="F15">
-        <v>1.049628483963448</v>
+        <v>1.019219708073019</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036706456580358</v>
+        <v>1.046655006317245</v>
       </c>
       <c r="J15">
-        <v>1.034523389433015</v>
+        <v>1.017192150400734</v>
       </c>
       <c r="K15">
-        <v>1.041330974650251</v>
+        <v>1.028831325017632</v>
       </c>
       <c r="L15">
-        <v>1.041780651156976</v>
+        <v>1.022151858896514</v>
       </c>
       <c r="M15">
-        <v>1.053130245120891</v>
+        <v>1.033718081422602</v>
       </c>
       <c r="N15">
-        <v>1.01550510543655</v>
+        <v>1.009666159470965</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.028452678014766</v>
+        <v>0.990132184852633</v>
       </c>
       <c r="D16">
-        <v>1.038178784813998</v>
+        <v>1.016226409527266</v>
       </c>
       <c r="E16">
-        <v>1.038685574472505</v>
+        <v>1.009590416059166</v>
       </c>
       <c r="F16">
-        <v>1.050102958398245</v>
+        <v>1.021528607906391</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036804241803952</v>
+        <v>1.047440941037554</v>
       </c>
       <c r="J16">
-        <v>1.034821682015368</v>
+        <v>1.018664800078941</v>
       </c>
       <c r="K16">
-        <v>1.041608550250516</v>
+        <v>1.030272907823043</v>
       </c>
       <c r="L16">
-        <v>1.042113543046182</v>
+        <v>1.023752469419722</v>
       </c>
       <c r="M16">
-        <v>1.053490951878928</v>
+        <v>1.035484170518491</v>
       </c>
       <c r="N16">
-        <v>1.015604234236354</v>
+        <v>1.010157087550793</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.0287782805298</v>
+        <v>0.9918005528805198</v>
       </c>
       <c r="D17">
-        <v>1.038425097924843</v>
+        <v>1.017456763158279</v>
       </c>
       <c r="E17">
-        <v>1.038966885081264</v>
+        <v>1.010926067603771</v>
       </c>
       <c r="F17">
-        <v>1.050400802250527</v>
+        <v>1.022962050036153</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036865073246642</v>
+        <v>1.047924291935703</v>
       </c>
       <c r="J17">
-        <v>1.035008779412574</v>
+        <v>1.019577511625082</v>
       </c>
       <c r="K17">
-        <v>1.041782508458067</v>
+        <v>1.031165482030294</v>
       </c>
       <c r="L17">
-        <v>1.042322418249946</v>
+        <v>1.024745197502757</v>
       </c>
       <c r="M17">
-        <v>1.053717211915157</v>
+        <v>1.036579103397945</v>
       </c>
       <c r="N17">
-        <v>1.015666403501765</v>
+        <v>1.010461350061982</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028968272109268</v>
+        <v>0.9927669025336698</v>
       </c>
       <c r="D18">
-        <v>1.038568793603928</v>
+        <v>1.018169664981492</v>
       </c>
       <c r="E18">
-        <v>1.039131070623717</v>
+        <v>1.011700472242375</v>
       </c>
       <c r="F18">
-        <v>1.050574607617422</v>
+        <v>1.023792906552304</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036900372319437</v>
+        <v>1.048202792737678</v>
       </c>
       <c r="J18">
-        <v>1.035117904799522</v>
+        <v>1.020105980332505</v>
       </c>
       <c r="K18">
-        <v>1.041883918052792</v>
+        <v>1.031681967353408</v>
       </c>
       <c r="L18">
-        <v>1.04244427308197</v>
+        <v>1.025320251060241</v>
       </c>
       <c r="M18">
-        <v>1.053849184360571</v>
+        <v>1.037213204109235</v>
       </c>
       <c r="N18">
-        <v>1.015702661443032</v>
+        <v>1.010637519439369</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029033066681934</v>
+        <v>0.9930952676534558</v>
       </c>
       <c r="D19">
-        <v>1.038617794367002</v>
+        <v>1.018411950452016</v>
       </c>
       <c r="E19">
-        <v>1.039187070861668</v>
+        <v>1.011963743631953</v>
       </c>
       <c r="F19">
-        <v>1.050633883936099</v>
+        <v>1.024075327765999</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036912377344111</v>
+        <v>1.048297176877144</v>
       </c>
       <c r="J19">
-        <v>1.035155112785993</v>
+        <v>1.02028552022337</v>
       </c>
       <c r="K19">
-        <v>1.041918486342396</v>
+        <v>1.031857380603119</v>
       </c>
       <c r="L19">
-        <v>1.042485826023816</v>
+        <v>1.025515660594479</v>
       </c>
       <c r="M19">
-        <v>1.053894183296151</v>
+        <v>1.037428651719143</v>
       </c>
       <c r="N19">
-        <v>1.015715023713319</v>
+        <v>1.010697370216098</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028743338883694</v>
+        <v>0.9916222577985663</v>
       </c>
       <c r="D20">
-        <v>1.038398668216796</v>
+        <v>1.017325250518328</v>
       </c>
       <c r="E20">
-        <v>1.038936692568872</v>
+        <v>1.010783248950498</v>
       </c>
       <c r="F20">
-        <v>1.050368838331678</v>
+        <v>1.02280880037941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036858565517989</v>
+        <v>1.04787278872405</v>
       </c>
       <c r="J20">
-        <v>1.034988706177062</v>
+        <v>1.019479991510803</v>
       </c>
       <c r="K20">
-        <v>1.041763850303246</v>
+        <v>1.031070146964665</v>
       </c>
       <c r="L20">
-        <v>1.042300005686604</v>
+        <v>1.024639101474435</v>
       </c>
       <c r="M20">
-        <v>1.053692936466641</v>
+        <v>1.036462100601306</v>
       </c>
       <c r="N20">
-        <v>1.015659733773324</v>
+        <v>1.010428840794736</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027802269306815</v>
+        <v>0.9867525116150265</v>
       </c>
       <c r="D21">
-        <v>1.037686570978767</v>
+        <v>1.013735872933911</v>
       </c>
       <c r="E21">
-        <v>1.038123889742786</v>
+        <v>1.006889870048372</v>
       </c>
       <c r="F21">
-        <v>1.04950807201633</v>
+        <v>1.018628746356271</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036681470690866</v>
+        <v>1.046452426651499</v>
       </c>
       <c r="J21">
-        <v>1.034447642273797</v>
+        <v>1.016814739847912</v>
       </c>
       <c r="K21">
-        <v>1.041260443643562</v>
+        <v>1.028461605502684</v>
       </c>
       <c r="L21">
-        <v>1.041696141484799</v>
+        <v>1.021741876928006</v>
       </c>
       <c r="M21">
-        <v>1.053038653340664</v>
+        <v>1.033265582141358</v>
       </c>
       <c r="N21">
-        <v>1.015479930914479</v>
+        <v>1.009540344215804</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C22">
-        <v>1.027211252237808</v>
+        <v>0.9836260486021369</v>
       </c>
       <c r="D22">
-        <v>1.037239089602529</v>
+        <v>1.011434282522589</v>
       </c>
       <c r="E22">
-        <v>1.037613779266255</v>
+        <v>1.004397725935702</v>
       </c>
       <c r="F22">
-        <v>1.048967592194381</v>
+        <v>1.015950855714331</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036568482824345</v>
+        <v>1.045527477318529</v>
       </c>
       <c r="J22">
-        <v>1.034107414990901</v>
+        <v>1.015102121573887</v>
       </c>
       <c r="K22">
-        <v>1.040943426003033</v>
+        <v>1.026782577004423</v>
       </c>
       <c r="L22">
-        <v>1.04131667199097</v>
+        <v>1.01988256354481</v>
       </c>
       <c r="M22">
-        <v>1.052627280755243</v>
+        <v>1.031212810190927</v>
       </c>
       <c r="N22">
-        <v>1.015366845937587</v>
+        <v>1.008969420385367</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027524497419222</v>
+        <v>0.9852897541877145</v>
       </c>
       <c r="D23">
-        <v>1.037476284313959</v>
+        <v>1.012658750553704</v>
       </c>
       <c r="E23">
-        <v>1.037884109582716</v>
+        <v>1.005723163529608</v>
       </c>
       <c r="F23">
-        <v>1.049254041995342</v>
+        <v>1.01737529304759</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036628535106824</v>
+        <v>1.046020886225832</v>
       </c>
       <c r="J23">
-        <v>1.034287779148262</v>
+        <v>1.016013594467231</v>
       </c>
       <c r="K23">
-        <v>1.041111530512347</v>
+        <v>1.02767643540973</v>
       </c>
       <c r="L23">
-        <v>1.041517816110516</v>
+        <v>1.020871885145691</v>
       </c>
       <c r="M23">
-        <v>1.052845356450626</v>
+        <v>1.032305196935742</v>
       </c>
       <c r="N23">
-        <v>1.015426797654985</v>
+        <v>1.009273271193482</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02875912728373</v>
+        <v>0.9917028425904522</v>
       </c>
       <c r="D24">
-        <v>1.038410610585946</v>
+        <v>1.017384690054384</v>
       </c>
       <c r="E24">
-        <v>1.038950334951234</v>
+        <v>1.010847796924947</v>
       </c>
       <c r="F24">
-        <v>1.050383281209727</v>
+        <v>1.022878063489392</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036861506645612</v>
+        <v>1.047896071396436</v>
       </c>
       <c r="J24">
-        <v>1.034997776424872</v>
+        <v>1.019524068688668</v>
       </c>
       <c r="K24">
-        <v>1.041772281297457</v>
+        <v>1.031113237548184</v>
       </c>
       <c r="L24">
-        <v>1.042310132893124</v>
+        <v>1.024687054008417</v>
       </c>
       <c r="M24">
-        <v>1.053703905500841</v>
+        <v>1.036514983185407</v>
       </c>
       <c r="N24">
-        <v>1.015662747549978</v>
+        <v>1.010443534350429</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.030194709490536</v>
+        <v>0.9988804341304204</v>
       </c>
       <c r="D25">
-        <v>1.039495833802449</v>
+        <v>1.02268376080798</v>
       </c>
       <c r="E25">
-        <v>1.040191617308164</v>
+        <v>1.016612916719259</v>
       </c>
       <c r="F25">
-        <v>1.051696755922214</v>
+        <v>1.029059027706174</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037124679878858</v>
+        <v>1.049938029515607</v>
       </c>
       <c r="J25">
-        <v>1.035821473562335</v>
+        <v>1.023445534965671</v>
       </c>
       <c r="K25">
-        <v>1.042536793250551</v>
+        <v>1.034939857930253</v>
       </c>
       <c r="L25">
-        <v>1.043230408646801</v>
+        <v>1.028958698464147</v>
       </c>
       <c r="M25">
-        <v>1.054700150215478</v>
+        <v>1.041222386471506</v>
       </c>
       <c r="N25">
-        <v>1.015936382291505</v>
+        <v>1.011750741517257</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004409265446947</v>
+        <v>0.9913273573363862</v>
       </c>
       <c r="D2">
-        <v>1.026771107300812</v>
+        <v>1.014240718601116</v>
       </c>
       <c r="E2">
-        <v>1.021075575227401</v>
+        <v>0.9988592143431144</v>
       </c>
       <c r="F2">
-        <v>1.033835853768418</v>
+        <v>1.025689674235496</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051463452899252</v>
+        <v>1.041214166515946</v>
       </c>
       <c r="J2">
-        <v>1.026458891221618</v>
+        <v>1.013770596492022</v>
       </c>
       <c r="K2">
-        <v>1.03786966348382</v>
+        <v>1.025505159584907</v>
       </c>
       <c r="L2">
-        <v>1.032248899153868</v>
+        <v>1.010334465033836</v>
       </c>
       <c r="M2">
-        <v>1.044843099055447</v>
+        <v>1.036802346853919</v>
       </c>
       <c r="N2">
-        <v>1.012755111559727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.00824997961211</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.037698973870286</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.029104442247495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.008317886396731</v>
+        <v>0.9958420272351425</v>
       </c>
       <c r="D3">
-        <v>1.029662794922337</v>
+        <v>1.017145344892965</v>
       </c>
       <c r="E3">
-        <v>1.024242256126075</v>
+        <v>1.002465589088856</v>
       </c>
       <c r="F3">
-        <v>1.037220954708897</v>
+        <v>1.028726555833698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052513396903283</v>
+        <v>1.042098969952826</v>
       </c>
       <c r="J3">
-        <v>1.028584337498103</v>
+        <v>1.016446688172608</v>
       </c>
       <c r="K3">
-        <v>1.039929697261118</v>
+        <v>1.027563449029043</v>
       </c>
       <c r="L3">
-        <v>1.034574071498574</v>
+        <v>1.013067019151447</v>
       </c>
       <c r="M3">
-        <v>1.047398746510135</v>
+        <v>1.03900460939894</v>
       </c>
       <c r="N3">
-        <v>1.013463431495102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009181272013163</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.039441921700621</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.030557172801232</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.010800484772821</v>
+        <v>0.9987052260445175</v>
       </c>
       <c r="D4">
-        <v>1.031500127816693</v>
+        <v>1.018990995044318</v>
       </c>
       <c r="E4">
-        <v>1.026258802204312</v>
+        <v>1.004758961162387</v>
       </c>
       <c r="F4">
-        <v>1.039374489310374</v>
+        <v>1.030654516318772</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053166785247225</v>
+        <v>1.042648798166316</v>
       </c>
       <c r="J4">
-        <v>1.029931890741268</v>
+        <v>1.018142110361773</v>
       </c>
       <c r="K4">
-        <v>1.041232676548655</v>
+        <v>1.028865493755813</v>
       </c>
       <c r="L4">
-        <v>1.036050308784375</v>
+        <v>1.014800287052082</v>
       </c>
       <c r="M4">
-        <v>1.049019835372593</v>
+        <v>1.040396527093369</v>
       </c>
       <c r="N4">
-        <v>1.013912453782622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009770857169837</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04054353200666</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.031478760398946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011833366713343</v>
+        <v>0.999900253085192</v>
       </c>
       <c r="D5">
-        <v>1.032264655422711</v>
+        <v>1.019764413721359</v>
       </c>
       <c r="E5">
-        <v>1.027098993924184</v>
+        <v>1.005718167289798</v>
       </c>
       <c r="F5">
-        <v>1.040271250930736</v>
+        <v>1.031457110011421</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05343534121358</v>
+        <v>1.042877078666615</v>
       </c>
       <c r="J5">
-        <v>1.03049192322306</v>
+        <v>1.018851099353257</v>
       </c>
       <c r="K5">
-        <v>1.041773424727361</v>
+        <v>1.029411240486831</v>
       </c>
       <c r="L5">
-        <v>1.036664314128791</v>
+        <v>1.01552518432361</v>
       </c>
       <c r="M5">
-        <v>1.049693727833421</v>
+        <v>1.040974674042104</v>
       </c>
       <c r="N5">
-        <v>1.014099048027341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010017838388219</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.041001096380194</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.031871908746321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012006168277717</v>
+        <v>1.000105911106135</v>
       </c>
       <c r="D6">
-        <v>1.032392566138558</v>
+        <v>1.019900349977372</v>
       </c>
       <c r="E6">
-        <v>1.027239628421724</v>
+        <v>1.005884008648084</v>
       </c>
       <c r="F6">
-        <v>1.040421324506659</v>
+        <v>1.031592238944649</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053480076240154</v>
+        <v>1.042918100637928</v>
       </c>
       <c r="J6">
-        <v>1.030585579884714</v>
+        <v>1.018975294555633</v>
       </c>
       <c r="K6">
-        <v>1.041863811278177</v>
+        <v>1.02950892974071</v>
       </c>
       <c r="L6">
-        <v>1.036767025867802</v>
+        <v>1.015651692163661</v>
       </c>
       <c r="M6">
-        <v>1.049806436209665</v>
+        <v>1.041072160220875</v>
       </c>
       <c r="N6">
-        <v>1.014130252011841</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010061752248305</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.041078250096724</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03194982531687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.010814328198176</v>
+        <v>0.9987368416927777</v>
       </c>
       <c r="D7">
-        <v>1.031510374202701</v>
+        <v>1.019018931350193</v>
       </c>
       <c r="E7">
-        <v>1.026270058326013</v>
+        <v>1.004786186180114</v>
       </c>
       <c r="F7">
-        <v>1.039386505304281</v>
+        <v>1.030667623804637</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053170397662735</v>
+        <v>1.042659963750294</v>
       </c>
       <c r="J7">
-        <v>1.029939399166105</v>
+        <v>1.018166811929974</v>
       </c>
       <c r="K7">
-        <v>1.041239929448153</v>
+        <v>1.028890181980971</v>
       </c>
       <c r="L7">
-        <v>1.036058538883735</v>
+        <v>1.014824205173974</v>
       </c>
       <c r="M7">
-        <v>1.049028869627779</v>
+        <v>1.040406605671986</v>
       </c>
       <c r="N7">
-        <v>1.013914955539624</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009781257009546</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.040551508525359</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.031516555082208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005740047924595</v>
+        <v>0.992885167119187</v>
       </c>
       <c r="D8">
-        <v>1.027755484903529</v>
+        <v>1.015251515982704</v>
       </c>
       <c r="E8">
-        <v>1.022152635199991</v>
+        <v>1.000104741733364</v>
       </c>
       <c r="F8">
-        <v>1.034987641475544</v>
+        <v>1.026726828054448</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051823727560438</v>
+        <v>1.041528151950444</v>
       </c>
       <c r="J8">
-        <v>1.02718304382527</v>
+        <v>1.014701788062556</v>
       </c>
       <c r="K8">
-        <v>1.038572170550408</v>
+        <v>1.026228784040115</v>
       </c>
       <c r="L8">
-        <v>1.033040668241253</v>
+        <v>1.011283294412328</v>
       </c>
       <c r="M8">
-        <v>1.045713654876528</v>
+        <v>1.037556539886926</v>
       </c>
       <c r="N8">
-        <v>1.012996451948586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008576504595056</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.038295869170651</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.02963931124367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9964260578997544</v>
+        <v>0.9820796111779236</v>
       </c>
       <c r="D9">
-        <v>1.020870724095632</v>
+        <v>1.008313750617648</v>
       </c>
       <c r="E9">
-        <v>1.014637973293028</v>
+        <v>0.991508687502952</v>
       </c>
       <c r="F9">
-        <v>1.02694283924981</v>
+        <v>1.019482878544676</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049247128108866</v>
+        <v>1.039341932090983</v>
       </c>
       <c r="J9">
-        <v>1.022105655598851</v>
+        <v>1.008281451649243</v>
       </c>
       <c r="K9">
-        <v>1.033634026341562</v>
+        <v>1.021273367868095</v>
       </c>
       <c r="L9">
-        <v>1.027497941366952</v>
+        <v>1.004741049215796</v>
       </c>
       <c r="M9">
-        <v>1.039613404991047</v>
+        <v>1.032267574731925</v>
       </c>
       <c r="N9">
-        <v>1.011304111944411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006337981396851</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.034109982698504</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.026132184424411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9899427140058857</v>
+        <v>0.9745761152448357</v>
       </c>
       <c r="D10">
-        <v>1.016086719206048</v>
+        <v>1.003544194346863</v>
       </c>
       <c r="E10">
-        <v>1.009438836893716</v>
+        <v>0.9855850173629938</v>
       </c>
       <c r="F10">
-        <v>1.021365897261408</v>
+        <v>1.014994200801387</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047385850371894</v>
+        <v>1.037850196375741</v>
       </c>
       <c r="J10">
-        <v>1.01856112147099</v>
+        <v>1.003836057496793</v>
       </c>
       <c r="K10">
-        <v>1.030171473019887</v>
+        <v>1.017849750773486</v>
       </c>
       <c r="L10">
-        <v>1.023639736153012</v>
+        <v>1.000219509399727</v>
       </c>
       <c r="M10">
-        <v>1.035359809823274</v>
+        <v>1.029097906832093</v>
       </c>
       <c r="N10">
-        <v>1.010122524975967</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004793509369039</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.031653244028222</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.023728462301992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9870647261526579</v>
+        <v>0.9715930067505543</v>
       </c>
       <c r="D11">
-        <v>1.013965841408616</v>
+        <v>1.001808103882551</v>
       </c>
       <c r="E11">
-        <v>1.007139059988428</v>
+        <v>0.9832936443337001</v>
       </c>
       <c r="F11">
-        <v>1.018896414995532</v>
+        <v>1.017293506428678</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.046544252942859</v>
+        <v>1.037858696040024</v>
       </c>
       <c r="J11">
-        <v>1.016985707425848</v>
+        <v>1.00219723409418</v>
       </c>
       <c r="K11">
-        <v>1.028629102348009</v>
+        <v>1.016696002377848</v>
       </c>
       <c r="L11">
-        <v>1.021927588321212</v>
+        <v>0.9985376482488796</v>
       </c>
       <c r="M11">
-        <v>1.033470559270697</v>
+        <v>1.031896498964044</v>
       </c>
       <c r="N11">
-        <v>1.009597338721504</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004281847845029</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.034306344763526</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.022946061170531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9859845852437199</v>
+        <v>0.9705391175968829</v>
       </c>
       <c r="D12">
-        <v>1.013170336383056</v>
+        <v>1.001219593299886</v>
       </c>
       <c r="E12">
-        <v>1.00627720714268</v>
+        <v>0.9825035054707264</v>
       </c>
       <c r="F12">
-        <v>1.017970577739334</v>
+        <v>1.019482417135833</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046226144203182</v>
+        <v>1.038025886311674</v>
       </c>
       <c r="J12">
-        <v>1.016394179220895</v>
+        <v>1.00164485267887</v>
       </c>
       <c r="K12">
-        <v>1.028049489795828</v>
+        <v>1.01632346506781</v>
       </c>
       <c r="L12">
-        <v>1.021285125859551</v>
+        <v>0.9979737668840122</v>
       </c>
       <c r="M12">
-        <v>1.032761402544446</v>
+        <v>1.034245646937625</v>
       </c>
       <c r="N12">
-        <v>1.00940014435253</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004136717194454</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.036491658648815</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.022682657021279</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9862167912757852</v>
+        <v>0.9709250663145811</v>
       </c>
       <c r="D13">
-        <v>1.013341329090133</v>
+        <v>1.001500268346182</v>
       </c>
       <c r="E13">
-        <v>1.006462427429692</v>
+        <v>0.9828356144431615</v>
       </c>
       <c r="F13">
-        <v>1.018169566309555</v>
+        <v>1.021772144416957</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046294631019248</v>
+        <v>1.038345305681003</v>
       </c>
       <c r="J13">
-        <v>1.016521355497457</v>
+        <v>1.001915683161055</v>
       </c>
       <c r="K13">
-        <v>1.028174126150896</v>
+        <v>1.016554844403955</v>
       </c>
       <c r="L13">
-        <v>1.02142323441392</v>
+        <v>0.9982540468399955</v>
       </c>
       <c r="M13">
-        <v>1.032913858853149</v>
+        <v>1.036451107884075</v>
       </c>
       <c r="N13">
-        <v>1.009442540355245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004274706467357</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038512422876086</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.022843720739766</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9869756714503028</v>
+        <v>0.9718445572662132</v>
       </c>
       <c r="D14">
-        <v>1.013900243918984</v>
+        <v>1.002086358322999</v>
       </c>
       <c r="E14">
-        <v>1.007067976211381</v>
+        <v>0.9835740453040284</v>
       </c>
       <c r="F14">
-        <v>1.018820061770452</v>
+        <v>1.02336289630151</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04651807108692</v>
+        <v>1.038624940424164</v>
       </c>
       <c r="J14">
-        <v>1.016936942531183</v>
+        <v>1.002474831013995</v>
       </c>
       <c r="K14">
-        <v>1.02858132964625</v>
+        <v>1.016985953311097</v>
       </c>
       <c r="L14">
-        <v>1.021874616196107</v>
+        <v>0.9988299102036114</v>
       </c>
       <c r="M14">
-        <v>1.033412092896124</v>
+        <v>1.037873683458317</v>
       </c>
       <c r="N14">
-        <v>1.00958108224008</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004498788681083</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039810299585966</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.023149986707775</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9874417521416861</v>
+        <v>0.9723923021427419</v>
       </c>
       <c r="D15">
-        <v>1.014243578043608</v>
+        <v>1.002433225304985</v>
       </c>
       <c r="E15">
-        <v>1.007440055959801</v>
+        <v>0.9840080467708131</v>
       </c>
       <c r="F15">
-        <v>1.019219708073019</v>
+        <v>1.023865008727252</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046655006317245</v>
+        <v>1.03874678254432</v>
       </c>
       <c r="J15">
-        <v>1.017192150400734</v>
+        <v>1.002802115591737</v>
       </c>
       <c r="K15">
-        <v>1.028831325017632</v>
+        <v>1.017237726673713</v>
       </c>
       <c r="L15">
-        <v>1.022151858896514</v>
+        <v>0.9991643388034415</v>
       </c>
       <c r="M15">
-        <v>1.033718081422602</v>
+        <v>1.038280966856098</v>
       </c>
       <c r="N15">
-        <v>1.009666159470965</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004619610159783</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040169749356705</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.023333971650336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.990132184852633</v>
+        <v>0.9754954605767501</v>
       </c>
       <c r="D16">
-        <v>1.016226409527266</v>
+        <v>1.004397715571857</v>
       </c>
       <c r="E16">
-        <v>1.009590416059166</v>
+        <v>0.9864438980535548</v>
       </c>
       <c r="F16">
-        <v>1.021528607906391</v>
+        <v>1.025341995930997</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.047440941037554</v>
+        <v>1.039326249589598</v>
       </c>
       <c r="J16">
-        <v>1.018664800078941</v>
+        <v>1.004636189301403</v>
       </c>
       <c r="K16">
-        <v>1.030272907823043</v>
+        <v>1.018651573552517</v>
       </c>
       <c r="L16">
-        <v>1.023752469419722</v>
+        <v>1.001024891203458</v>
       </c>
       <c r="M16">
-        <v>1.035484170518491</v>
+        <v>1.039232906871463</v>
       </c>
       <c r="N16">
-        <v>1.010157087550793</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005248688833303</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.04088344812718</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.024336855603512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9918005528805198</v>
+        <v>0.9774010932328662</v>
       </c>
       <c r="D17">
-        <v>1.017456763158279</v>
+        <v>1.005606470144809</v>
       </c>
       <c r="E17">
-        <v>1.010926067603771</v>
+        <v>0.9879335986502719</v>
       </c>
       <c r="F17">
-        <v>1.022962050036153</v>
+        <v>1.025668011798568</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047924291935703</v>
+        <v>1.039632220882011</v>
       </c>
       <c r="J17">
-        <v>1.019577511625082</v>
+        <v>1.005756296721043</v>
       </c>
       <c r="K17">
-        <v>1.031165482030294</v>
+        <v>1.019516906577927</v>
       </c>
       <c r="L17">
-        <v>1.024745197502757</v>
+        <v>1.002156555900982</v>
       </c>
       <c r="M17">
-        <v>1.036579103397945</v>
+        <v>1.039240473557582</v>
       </c>
       <c r="N17">
-        <v>1.010461350061982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005615780731762</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040760375233784</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.024951319739245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9927669025336698</v>
+        <v>0.9784347080504789</v>
       </c>
       <c r="D18">
-        <v>1.018169664981492</v>
+        <v>1.006239319966188</v>
       </c>
       <c r="E18">
-        <v>1.011700472242375</v>
+        <v>0.9887256069402544</v>
       </c>
       <c r="F18">
-        <v>1.023792906552304</v>
+        <v>1.024720776084162</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048202792737678</v>
+        <v>1.039668060366492</v>
       </c>
       <c r="J18">
-        <v>1.020105980332505</v>
+        <v>1.006337932849403</v>
       </c>
       <c r="K18">
-        <v>1.031681967353408</v>
+        <v>1.019951216767225</v>
       </c>
       <c r="L18">
-        <v>1.025320251060241</v>
+        <v>1.00274183094981</v>
       </c>
       <c r="M18">
-        <v>1.037213204109235</v>
+        <v>1.03812601690783</v>
       </c>
       <c r="N18">
-        <v>1.010637519439369</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005780143404278</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039641477490826</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.025246584765033</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9930952676534558</v>
+        <v>0.9786597339410535</v>
       </c>
       <c r="D19">
-        <v>1.018411950452016</v>
+        <v>1.006324937542882</v>
       </c>
       <c r="E19">
-        <v>1.011963743631953</v>
+        <v>0.9888713840798136</v>
       </c>
       <c r="F19">
-        <v>1.024075327765999</v>
+        <v>1.022361218724694</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048297176877144</v>
+        <v>1.039398490540858</v>
       </c>
       <c r="J19">
-        <v>1.02028552022337</v>
+        <v>1.006414417213854</v>
       </c>
       <c r="K19">
-        <v>1.031857380603119</v>
+        <v>1.019971417684526</v>
       </c>
       <c r="L19">
-        <v>1.025515660594479</v>
+        <v>1.00281942559125</v>
       </c>
       <c r="M19">
-        <v>1.037428651719143</v>
+        <v>1.035742281760964</v>
       </c>
       <c r="N19">
-        <v>1.010697370216098</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005762385726551</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.037430332115299</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.025267358408094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9916222577985663</v>
+        <v>0.9765665986076341</v>
       </c>
       <c r="D20">
-        <v>1.017325250518328</v>
+        <v>1.004827287798719</v>
       </c>
       <c r="E20">
-        <v>1.010783248950498</v>
+        <v>0.9871594797603064</v>
       </c>
       <c r="F20">
-        <v>1.02280880037941</v>
+        <v>1.016186189632531</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04787278872405</v>
+        <v>1.038266223557853</v>
       </c>
       <c r="J20">
-        <v>1.019479991510803</v>
+        <v>1.005031712786494</v>
       </c>
       <c r="K20">
-        <v>1.031070146964665</v>
+        <v>1.018785782958018</v>
       </c>
       <c r="L20">
-        <v>1.024639101474435</v>
+        <v>1.001431935589261</v>
       </c>
       <c r="M20">
-        <v>1.036462100601306</v>
+        <v>1.02995027269771</v>
       </c>
       <c r="N20">
-        <v>1.010428840794736</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005214864317316</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.032317170936012</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.024433027818727</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,81 +1440,105 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9867525116150265</v>
+        <v>0.9708369981130551</v>
       </c>
       <c r="D21">
-        <v>1.013735872933911</v>
+        <v>1.001159317707303</v>
       </c>
       <c r="E21">
-        <v>1.006889870048372</v>
+        <v>0.9826395334250759</v>
       </c>
       <c r="F21">
-        <v>1.018628746356271</v>
+        <v>1.011960307085459</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046452426651499</v>
+        <v>1.036980682489565</v>
       </c>
       <c r="J21">
-        <v>1.016814739847912</v>
+        <v>1.001606721177873</v>
       </c>
       <c r="K21">
-        <v>1.028461605502684</v>
+        <v>1.016118759696115</v>
       </c>
       <c r="L21">
-        <v>1.021741876928006</v>
+        <v>0.9979574423082229</v>
       </c>
       <c r="M21">
-        <v>1.033265582141358</v>
+        <v>1.026718576157537</v>
       </c>
       <c r="N21">
-        <v>1.009540344215804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004013631457613</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.029718269215783</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.022550576560973</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9836260486021369</v>
+        <v>0.9671547023034267</v>
       </c>
       <c r="D22">
-        <v>1.011434282522589</v>
+        <v>0.9988115242504686</v>
       </c>
       <c r="E22">
-        <v>1.004397725935702</v>
+        <v>0.979744739514942</v>
       </c>
       <c r="F22">
-        <v>1.015950855714331</v>
+        <v>1.009523251582392</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045527477318529</v>
+        <v>1.036179117023343</v>
       </c>
       <c r="J22">
-        <v>1.015102121573887</v>
+        <v>0.9994073999871798</v>
       </c>
       <c r="K22">
-        <v>1.026782577004423</v>
+        <v>1.014406561900671</v>
       </c>
       <c r="L22">
-        <v>1.01988256354481</v>
+        <v>0.9957284270751058</v>
       </c>
       <c r="M22">
-        <v>1.031212810190927</v>
+        <v>1.024908382597055</v>
       </c>
       <c r="N22">
-        <v>1.008969420385367</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003242887331208</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.028285599040496</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.021326211139658</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9852897541877145</v>
+        <v>0.9690996458068241</v>
       </c>
       <c r="D23">
-        <v>1.012658750553704</v>
+        <v>1.000044119491572</v>
       </c>
       <c r="E23">
-        <v>1.005723163529608</v>
+        <v>0.9812706364876946</v>
       </c>
       <c r="F23">
-        <v>1.01737529304759</v>
+        <v>1.010817709071154</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046020886225832</v>
+        <v>1.036598984055936</v>
       </c>
       <c r="J23">
-        <v>1.016013594467231</v>
+        <v>1.000563541628882</v>
       </c>
       <c r="K23">
-        <v>1.02767643540973</v>
+        <v>1.015301911185186</v>
       </c>
       <c r="L23">
-        <v>1.020871885145691</v>
+        <v>0.9969008297467278</v>
       </c>
       <c r="M23">
-        <v>1.032305196935742</v>
+        <v>1.02586994845362</v>
       </c>
       <c r="N23">
-        <v>1.009273271193482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.00364599276344</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029046626713894</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.021949479789998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9917028425904522</v>
+        <v>0.9766009398556627</v>
       </c>
       <c r="D24">
-        <v>1.017384690054384</v>
+        <v>1.004822496552005</v>
       </c>
       <c r="E24">
-        <v>1.010847796924947</v>
+        <v>0.9871782616122874</v>
       </c>
       <c r="F24">
-        <v>1.022878063489392</v>
+        <v>1.01581067725854</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047896071396436</v>
+        <v>1.038203225435419</v>
       </c>
       <c r="J24">
-        <v>1.019524068688668</v>
+        <v>1.005030452142442</v>
       </c>
       <c r="K24">
-        <v>1.031113237548184</v>
+        <v>1.018765449733593</v>
       </c>
       <c r="L24">
-        <v>1.024687054008417</v>
+        <v>1.001434345949855</v>
       </c>
       <c r="M24">
-        <v>1.036514983185407</v>
+        <v>1.029565714418228</v>
       </c>
       <c r="N24">
-        <v>1.010443534350429</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005206358532438</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.031971618979321</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.024390818606233</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9988804341304204</v>
+        <v>0.9849578504756221</v>
       </c>
       <c r="D25">
-        <v>1.02268376080798</v>
+        <v>1.010169427185404</v>
       </c>
       <c r="E25">
-        <v>1.016612916719259</v>
+        <v>0.9937953378444601</v>
       </c>
       <c r="F25">
-        <v>1.029059027706174</v>
+        <v>1.021396328591554</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049938029515607</v>
+        <v>1.039942224818202</v>
       </c>
       <c r="J25">
-        <v>1.023445534965671</v>
+        <v>1.010002268130987</v>
       </c>
       <c r="K25">
-        <v>1.034939857930253</v>
+        <v>1.022611900731428</v>
       </c>
       <c r="L25">
-        <v>1.028958698464147</v>
+        <v>1.006490742924229</v>
       </c>
       <c r="M25">
-        <v>1.041222386471506</v>
+        <v>1.033671331851973</v>
       </c>
       <c r="N25">
-        <v>1.011750741517257</v>
+        <v>1.00694151943641</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03522097142954</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.027107626416071</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9913273573363862</v>
+        <v>0.992476559725288</v>
       </c>
       <c r="D2">
-        <v>1.014240718601116</v>
+        <v>1.015028883195208</v>
       </c>
       <c r="E2">
-        <v>0.9988592143431144</v>
+        <v>0.9998740845034488</v>
       </c>
       <c r="F2">
-        <v>1.025689674235496</v>
+        <v>1.025790499813179</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.041214166515946</v>
+        <v>1.04155720721155</v>
       </c>
       <c r="J2">
-        <v>1.013770596492022</v>
+        <v>1.014884647995887</v>
       </c>
       <c r="K2">
-        <v>1.025505159584907</v>
+        <v>1.026282738327627</v>
       </c>
       <c r="L2">
-        <v>1.010334465033836</v>
+        <v>1.011335173807247</v>
       </c>
       <c r="M2">
-        <v>1.036802346853919</v>
+        <v>1.036901854733556</v>
       </c>
       <c r="N2">
-        <v>1.00824997961211</v>
+        <v>1.010976396325954</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.037698973870286</v>
+        <v>1.037777727988471</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.029104442247495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.029663154407264</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019057251347048</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9958420272351425</v>
+        <v>0.9967072949096909</v>
       </c>
       <c r="D3">
-        <v>1.017145344892965</v>
+        <v>1.017643098999663</v>
       </c>
       <c r="E3">
-        <v>1.002465589088856</v>
+        <v>1.003232286104921</v>
       </c>
       <c r="F3">
-        <v>1.028726555833698</v>
+        <v>1.02879145083946</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.042098969952826</v>
+        <v>1.042321466975332</v>
       </c>
       <c r="J3">
-        <v>1.016446688172608</v>
+        <v>1.017288126645301</v>
       </c>
       <c r="K3">
-        <v>1.027563449029043</v>
+        <v>1.028055102322837</v>
       </c>
       <c r="L3">
-        <v>1.013067019151447</v>
+        <v>1.013823975615805</v>
       </c>
       <c r="M3">
-        <v>1.03900460939894</v>
+        <v>1.039068730650666</v>
       </c>
       <c r="N3">
-        <v>1.009181272013163</v>
+        <v>1.011639715255536</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.039441921700621</v>
+        <v>1.039492669445002</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.030557172801232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.030913422966936</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019436472093063</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987052260445175</v>
+        <v>0.9993930699360785</v>
       </c>
       <c r="D4">
-        <v>1.018990995044318</v>
+        <v>1.019306176366665</v>
       </c>
       <c r="E4">
-        <v>1.004758961162387</v>
+        <v>1.005370350605489</v>
       </c>
       <c r="F4">
-        <v>1.030654516318772</v>
+        <v>1.030697096659242</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.042648798166316</v>
+        <v>1.042795488866488</v>
       </c>
       <c r="J4">
-        <v>1.018142110361773</v>
+        <v>1.018812313798948</v>
       </c>
       <c r="K4">
-        <v>1.028865493755813</v>
+        <v>1.029177045664633</v>
       </c>
       <c r="L4">
-        <v>1.014800287052082</v>
+        <v>1.015404389479508</v>
       </c>
       <c r="M4">
-        <v>1.040396527093369</v>
+        <v>1.040438630520459</v>
       </c>
       <c r="N4">
-        <v>1.009770857169837</v>
+        <v>1.012060169145266</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04054353200666</v>
+        <v>1.040576854043466</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.031478760398946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.031707737755982</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019673981428385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.999900253085192</v>
+        <v>1.000514519298361</v>
       </c>
       <c r="D5">
-        <v>1.019764413721359</v>
+        <v>1.020003708714592</v>
       </c>
       <c r="E5">
-        <v>1.005718167289798</v>
+        <v>1.006265087030595</v>
       </c>
       <c r="F5">
-        <v>1.031457110011421</v>
+        <v>1.031490468833838</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.042877078666615</v>
+        <v>1.042992227778621</v>
       </c>
       <c r="J5">
-        <v>1.018851099353257</v>
+        <v>1.019450090253806</v>
       </c>
       <c r="K5">
-        <v>1.029411240486831</v>
+        <v>1.029647853509169</v>
       </c>
       <c r="L5">
-        <v>1.01552518432361</v>
+        <v>1.016065763337204</v>
       </c>
       <c r="M5">
-        <v>1.040974674042104</v>
+        <v>1.041007669229284</v>
       </c>
       <c r="N5">
-        <v>1.010017838388219</v>
+        <v>1.012236457483459</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.041001096380194</v>
+        <v>1.041027209839974</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.031871908746321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.032048603769312</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019773572983897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000105911106135</v>
+        <v>1.000707394155053</v>
       </c>
       <c r="D6">
-        <v>1.019900349977372</v>
+        <v>1.020126537520028</v>
       </c>
       <c r="E6">
-        <v>1.005884008648084</v>
+        <v>1.006419704881537</v>
       </c>
       <c r="F6">
-        <v>1.031592238944649</v>
+        <v>1.03162399887007</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.042918100637928</v>
+        <v>1.043027766699192</v>
       </c>
       <c r="J6">
-        <v>1.018975294555633</v>
+        <v>1.019561898393315</v>
       </c>
       <c r="K6">
-        <v>1.02950892974071</v>
+        <v>1.029732593879253</v>
       </c>
       <c r="L6">
-        <v>1.015651692163661</v>
+        <v>1.016181206961541</v>
       </c>
       <c r="M6">
-        <v>1.041072160220875</v>
+        <v>1.041103575530633</v>
       </c>
       <c r="N6">
-        <v>1.010061752248305</v>
+        <v>1.012267852809797</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.041078250096724</v>
+        <v>1.041103113187709</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03194982531687</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.032118230053366</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019792122162469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987368416927777</v>
+        <v>0.9994340183932867</v>
       </c>
       <c r="D7">
-        <v>1.019018931350193</v>
+        <v>1.019340095906745</v>
       </c>
       <c r="E7">
-        <v>1.004786186180114</v>
+        <v>1.005406121691318</v>
       </c>
       <c r="F7">
-        <v>1.030667623804637</v>
+        <v>1.030710977756522</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.042659963750294</v>
+        <v>1.042809323705264</v>
       </c>
       <c r="J7">
-        <v>1.018166811929974</v>
+        <v>1.018846117131377</v>
       </c>
       <c r="K7">
-        <v>1.028890181980971</v>
+        <v>1.029207649738981</v>
       </c>
       <c r="L7">
-        <v>1.014824205173974</v>
+        <v>1.015436754865213</v>
       </c>
       <c r="M7">
-        <v>1.040406605671986</v>
+        <v>1.04044947422332</v>
       </c>
       <c r="N7">
-        <v>1.009781257009546</v>
+        <v>1.012097280536572</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040551508525359</v>
+        <v>1.040585436106265</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.031516555082208</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.031751707616743</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019683067681255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.992885167119187</v>
+        <v>0.9939714882588758</v>
       </c>
       <c r="D8">
-        <v>1.015251515982704</v>
+        <v>1.015964366267741</v>
       </c>
       <c r="E8">
-        <v>1.000104741733364</v>
+        <v>1.001066105988277</v>
       </c>
       <c r="F8">
-        <v>1.026726828054448</v>
+        <v>1.026818459294284</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.041528151950444</v>
+        <v>1.041840734252713</v>
       </c>
       <c r="J8">
-        <v>1.014701788062556</v>
+        <v>1.015756021904101</v>
       </c>
       <c r="K8">
-        <v>1.026228784040115</v>
+        <v>1.026932346504798</v>
       </c>
       <c r="L8">
-        <v>1.011283294412328</v>
+        <v>1.012231655531093</v>
       </c>
       <c r="M8">
-        <v>1.037556539886926</v>
+        <v>1.037647009451372</v>
       </c>
       <c r="N8">
-        <v>1.008576504595056</v>
+        <v>1.011299212778439</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.038295869170651</v>
+        <v>1.038367469981347</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.02963931124367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.030147939911693</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019201577270903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9820796111779236</v>
+        <v>0.9838687441547078</v>
       </c>
       <c r="D9">
-        <v>1.008313750617648</v>
+        <v>1.009736260265101</v>
       </c>
       <c r="E9">
-        <v>0.991508687502952</v>
+        <v>0.9930830163028362</v>
       </c>
       <c r="F9">
-        <v>1.019482878544676</v>
+        <v>1.019664291593952</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.039341932090983</v>
+        <v>1.039949225643754</v>
       </c>
       <c r="J9">
-        <v>1.008281451649243</v>
+        <v>1.010004286966071</v>
       </c>
       <c r="K9">
-        <v>1.021273367868095</v>
+        <v>1.022673324059437</v>
       </c>
       <c r="L9">
-        <v>1.004741049215796</v>
+        <v>1.00628932256194</v>
       </c>
       <c r="M9">
-        <v>1.032267574731925</v>
+        <v>1.032446187034736</v>
       </c>
       <c r="N9">
-        <v>1.006337981396851</v>
+        <v>1.009719445859097</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.034109982698504</v>
+        <v>1.034251343614315</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.026132184424411</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.027132969234398</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018274488802017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9745761152448357</v>
+        <v>0.9769204484854355</v>
       </c>
       <c r="D10">
-        <v>1.003544194346863</v>
+        <v>1.005504024863048</v>
       </c>
       <c r="E10">
-        <v>0.9855850173629938</v>
+        <v>0.987643397407304</v>
       </c>
       <c r="F10">
-        <v>1.014994200801387</v>
+        <v>1.015245084196354</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.037850196375741</v>
+        <v>1.038681036206625</v>
       </c>
       <c r="J10">
-        <v>1.003836057496793</v>
+        <v>1.006080657900734</v>
       </c>
       <c r="K10">
-        <v>1.017849750773486</v>
+        <v>1.019774608496701</v>
       </c>
       <c r="L10">
-        <v>1.000219509399727</v>
+        <v>1.002239396630086</v>
       </c>
       <c r="M10">
-        <v>1.029097906832093</v>
+        <v>1.029344433414418</v>
       </c>
       <c r="N10">
-        <v>1.004793509369039</v>
+        <v>1.00876001979081</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.031653244028222</v>
+        <v>1.031848343331352</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.023728462301992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.025102081588247</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017639668602346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9715930067505543</v>
+        <v>0.9742126674170414</v>
       </c>
       <c r="D11">
-        <v>1.001808103882551</v>
+        <v>1.004013876097593</v>
       </c>
       <c r="E11">
-        <v>0.9832936443337001</v>
+        <v>0.985591003058499</v>
       </c>
       <c r="F11">
-        <v>1.017293506428678</v>
+        <v>1.017568822784808</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.037858696040024</v>
+        <v>1.038786526664449</v>
       </c>
       <c r="J11">
-        <v>1.00219723409418</v>
+        <v>1.004699020597254</v>
       </c>
       <c r="K11">
-        <v>1.016696002377848</v>
+        <v>1.018860491509268</v>
       </c>
       <c r="L11">
-        <v>0.9985376482488796</v>
+        <v>1.000789865637618</v>
       </c>
       <c r="M11">
-        <v>1.031896498964044</v>
+        <v>1.032166851926237</v>
       </c>
       <c r="N11">
-        <v>1.004281847845029</v>
+        <v>1.008654225069961</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.034306344763526</v>
+        <v>1.03452019077888</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.022946061170531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.024492307909744</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017481955981498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9705391175968829</v>
+        <v>0.9732545675253595</v>
       </c>
       <c r="D12">
-        <v>1.001219593299886</v>
+        <v>1.003510115623164</v>
       </c>
       <c r="E12">
-        <v>0.9825035054707264</v>
+        <v>0.9848819104958155</v>
       </c>
       <c r="F12">
-        <v>1.019482417135833</v>
+        <v>1.019762741168015</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038025886311674</v>
+        <v>1.038983671513867</v>
       </c>
       <c r="J12">
-        <v>1.00164485267887</v>
+        <v>1.004235616144718</v>
       </c>
       <c r="K12">
-        <v>1.01632346506781</v>
+        <v>1.01857037492148</v>
       </c>
       <c r="L12">
-        <v>0.9979737668840122</v>
+        <v>1.000304596149206</v>
       </c>
       <c r="M12">
-        <v>1.034245646937625</v>
+        <v>1.034520866028192</v>
       </c>
       <c r="N12">
-        <v>1.004136717194454</v>
+        <v>1.008662490554561</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.036491658648815</v>
+        <v>1.036709279655056</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.022682657021279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.024287184959247</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.01744604987453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9709250663145811</v>
+        <v>0.9735819286963083</v>
       </c>
       <c r="D13">
-        <v>1.001500268346182</v>
+        <v>1.003740054490676</v>
       </c>
       <c r="E13">
-        <v>0.9828356144431615</v>
+        <v>0.9851586651206008</v>
       </c>
       <c r="F13">
-        <v>1.021772144416957</v>
+        <v>1.022041347191228</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038345305681003</v>
+        <v>1.039276238355819</v>
       </c>
       <c r="J13">
-        <v>1.001915683161055</v>
+        <v>1.004451126916271</v>
       </c>
       <c r="K13">
-        <v>1.016554844403955</v>
+        <v>1.018752155658474</v>
       </c>
       <c r="L13">
-        <v>0.9982540468399955</v>
+        <v>1.000530823656789</v>
       </c>
       <c r="M13">
-        <v>1.036451107884075</v>
+        <v>1.036715452980913</v>
       </c>
       <c r="N13">
-        <v>1.004274706467357</v>
+        <v>1.008726855085455</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038512422876086</v>
+        <v>1.038721393169267</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.022843720739766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.024412936557258</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017506118896159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9718445572662132</v>
+        <v>0.9743915759470316</v>
       </c>
       <c r="D14">
-        <v>1.002086358322999</v>
+        <v>1.004230331944596</v>
       </c>
       <c r="E14">
-        <v>0.9835740453040284</v>
+        <v>0.9857977377946142</v>
       </c>
       <c r="F14">
-        <v>1.02336289630151</v>
+        <v>1.023617542390118</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038624940424164</v>
+        <v>1.039512090173163</v>
       </c>
       <c r="J14">
-        <v>1.002474831013995</v>
+        <v>1.004907151873708</v>
       </c>
       <c r="K14">
-        <v>1.016985953311097</v>
+        <v>1.019089773703792</v>
       </c>
       <c r="L14">
-        <v>0.9988299102036114</v>
+        <v>1.001009879628516</v>
       </c>
       <c r="M14">
-        <v>1.037873683458317</v>
+        <v>1.038123803159084</v>
       </c>
       <c r="N14">
-        <v>1.004498788681083</v>
+        <v>1.008798231463395</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039810299585966</v>
+        <v>1.040007997850998</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.023149986707775</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.02465323038762</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017591021916336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9723923021427419</v>
+        <v>0.9748788127428937</v>
       </c>
       <c r="D15">
-        <v>1.002433225304985</v>
+        <v>1.00452384051414</v>
       </c>
       <c r="E15">
-        <v>0.9840080467708131</v>
+        <v>0.9861778686415689</v>
       </c>
       <c r="F15">
-        <v>1.023865008727252</v>
+        <v>1.024112546894565</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.03874678254432</v>
+        <v>1.039610781012084</v>
       </c>
       <c r="J15">
-        <v>1.002802115591737</v>
+        <v>1.005177665057317</v>
       </c>
       <c r="K15">
-        <v>1.017237726673713</v>
+        <v>1.019289488884701</v>
       </c>
       <c r="L15">
-        <v>0.9991643388034415</v>
+        <v>1.001291836999901</v>
       </c>
       <c r="M15">
-        <v>1.038280966856098</v>
+        <v>1.038524140495189</v>
       </c>
       <c r="N15">
-        <v>1.004619610159783</v>
+        <v>1.008834317227187</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040169749356705</v>
+        <v>1.040361952323482</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.023333971650336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024800969257661</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017637024022426</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,105 +1307,123 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9754954605767501</v>
+        <v>0.9776727268340095</v>
       </c>
       <c r="D16">
-        <v>1.004397715571857</v>
+        <v>1.006209538288918</v>
       </c>
       <c r="E16">
-        <v>0.9864438980535548</v>
+        <v>0.9883424655203974</v>
       </c>
       <c r="F16">
-        <v>1.025341995930997</v>
+        <v>1.025555935906143</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039326249589598</v>
+        <v>1.040074637130693</v>
       </c>
       <c r="J16">
-        <v>1.004636189301403</v>
+        <v>1.006721353722154</v>
       </c>
       <c r="K16">
-        <v>1.018651573552517</v>
+        <v>1.020431224434662</v>
       </c>
       <c r="L16">
-        <v>1.001024891203458</v>
+        <v>1.002888132095034</v>
       </c>
       <c r="M16">
-        <v>1.039232906871463</v>
+        <v>1.039443238110057</v>
       </c>
       <c r="N16">
-        <v>1.005248688833303</v>
+        <v>1.009040986612731</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.04088344812718</v>
+        <v>1.041049697377742</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.024336855603512</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.025611743156725</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.017881542193822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9774010932328662</v>
+        <v>0.9794131944053377</v>
       </c>
       <c r="D17">
-        <v>1.005606470144809</v>
+        <v>1.00726475094708</v>
       </c>
       <c r="E17">
-        <v>0.9879335986502719</v>
+        <v>0.9896890333027609</v>
       </c>
       <c r="F17">
-        <v>1.025668011798568</v>
+        <v>1.025864751895631</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.039632220882011</v>
+        <v>1.040319008543706</v>
       </c>
       <c r="J17">
-        <v>1.005756296721043</v>
+        <v>1.007686145687885</v>
       </c>
       <c r="K17">
-        <v>1.019516906577927</v>
+        <v>1.021146590581935</v>
       </c>
       <c r="L17">
-        <v>1.002156555900982</v>
+        <v>1.003880299164561</v>
       </c>
       <c r="M17">
-        <v>1.039240473557582</v>
+        <v>1.039433983366967</v>
       </c>
       <c r="N17">
-        <v>1.005615780731762</v>
+        <v>1.00919519021049</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040760375233784</v>
+        <v>1.04091334371597</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.024951319739245</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.026120411855268</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018028586554931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9784347080504789</v>
+        <v>0.9803746748854535</v>
       </c>
       <c r="D18">
-        <v>1.006239319966188</v>
+        <v>1.007827509987349</v>
       </c>
       <c r="E18">
-        <v>0.9887256069402544</v>
+        <v>0.9904206413959551</v>
       </c>
       <c r="F18">
-        <v>1.024720776084162</v>
+        <v>1.024911695223036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.039668060366492</v>
+        <v>1.040329626060649</v>
       </c>
       <c r="J18">
-        <v>1.006337932849403</v>
+        <v>1.008200170034618</v>
       </c>
       <c r="K18">
-        <v>1.019951216767225</v>
+        <v>1.021512484569171</v>
       </c>
       <c r="L18">
-        <v>1.00274183094981</v>
+        <v>1.004406801442568</v>
       </c>
       <c r="M18">
-        <v>1.03812601690783</v>
+        <v>1.038313842304136</v>
       </c>
       <c r="N18">
-        <v>1.005780143404278</v>
+        <v>1.009269399113671</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039641477490826</v>
+        <v>1.039789983334872</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.025246584765033</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.026366172684654</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018090938258819</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9786597339410535</v>
+        <v>0.9806037027128106</v>
       </c>
       <c r="D19">
-        <v>1.006324937542882</v>
+        <v>1.007914572594335</v>
       </c>
       <c r="E19">
-        <v>0.9888713840798136</v>
+        <v>0.9905731862230227</v>
       </c>
       <c r="F19">
-        <v>1.022361218724694</v>
+        <v>1.022556281324317</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039398490540858</v>
+        <v>1.040065546675897</v>
       </c>
       <c r="J19">
-        <v>1.006414417213854</v>
+        <v>1.008281004971168</v>
       </c>
       <c r="K19">
-        <v>1.019971417684526</v>
+        <v>1.021534256336363</v>
       </c>
       <c r="L19">
-        <v>1.00281942559125</v>
+        <v>1.004491218042175</v>
       </c>
       <c r="M19">
-        <v>1.035742281760964</v>
+        <v>1.035934181680201</v>
       </c>
       <c r="N19">
-        <v>1.005762385726551</v>
+        <v>1.009250241604109</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.037430332115299</v>
+        <v>1.037582109196768</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.025267358408094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.026388675045672</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018071970140757</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9765665986076341</v>
+        <v>0.9787271415319772</v>
       </c>
       <c r="D20">
-        <v>1.004827287798719</v>
+        <v>1.006618781416892</v>
       </c>
       <c r="E20">
-        <v>0.9871594797603064</v>
+        <v>0.9890559339974848</v>
       </c>
       <c r="F20">
-        <v>1.016186189632531</v>
+        <v>1.016414837973376</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038266223557853</v>
+        <v>1.039025664809022</v>
       </c>
       <c r="J20">
-        <v>1.005031712786494</v>
+        <v>1.007103462467473</v>
       </c>
       <c r="K20">
-        <v>1.018785782958018</v>
+        <v>1.020546237469291</v>
       </c>
       <c r="L20">
-        <v>1.001431935589261</v>
+        <v>1.003293990626364</v>
       </c>
       <c r="M20">
-        <v>1.02995027269771</v>
+        <v>1.030175065180474</v>
       </c>
       <c r="N20">
-        <v>1.005214864317316</v>
+        <v>1.008944413129624</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.032317170936012</v>
+        <v>1.03249507218577</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.024433027818727</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02569446213997</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017811990582463</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9708369981130551</v>
+        <v>0.9735999172990665</v>
       </c>
       <c r="D21">
-        <v>1.001159317707303</v>
+        <v>1.003490336510073</v>
       </c>
       <c r="E21">
-        <v>0.9826395334250759</v>
+        <v>0.9850695336898283</v>
       </c>
       <c r="F21">
-        <v>1.011960307085459</v>
+        <v>1.012262264942762</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.036980682489565</v>
+        <v>1.037970954965531</v>
       </c>
       <c r="J21">
-        <v>1.001606721177873</v>
+        <v>1.004244440231803</v>
       </c>
       <c r="K21">
-        <v>1.016118759696115</v>
+        <v>1.018405883745732</v>
       </c>
       <c r="L21">
-        <v>0.9979574423082229</v>
+        <v>1.000339398865091</v>
       </c>
       <c r="M21">
-        <v>1.026718576157537</v>
+        <v>1.027014990271287</v>
       </c>
       <c r="N21">
-        <v>1.004013631457613</v>
+        <v>1.008581585702213</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.029718269215783</v>
+        <v>1.029952864652349</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.022550576560973</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.02418473617891</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017342982954813</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9671547023034267</v>
+        <v>0.9703064725246366</v>
       </c>
       <c r="D22">
-        <v>0.9988115242504686</v>
+        <v>1.001490856767448</v>
       </c>
       <c r="E22">
-        <v>0.979744739514942</v>
+        <v>0.9825191128205072</v>
       </c>
       <c r="F22">
-        <v>1.009523251582392</v>
+        <v>1.009873118709559</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036179117023343</v>
+        <v>1.037318684913798</v>
       </c>
       <c r="J22">
-        <v>0.9994073999871798</v>
+        <v>1.002407622536352</v>
       </c>
       <c r="K22">
-        <v>1.014406561900671</v>
+        <v>1.017032837236128</v>
       </c>
       <c r="L22">
-        <v>0.9957284270751058</v>
+        <v>0.9984450098348766</v>
       </c>
       <c r="M22">
-        <v>1.024908382597055</v>
+        <v>1.025251492118652</v>
       </c>
       <c r="N22">
-        <v>1.003242887331208</v>
+        <v>1.008339768952878</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.028285599040496</v>
+        <v>1.028557151874623</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021326211139658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023198897614437</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017040634730907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9690996458068241</v>
+        <v>0.9720259864511867</v>
       </c>
       <c r="D23">
-        <v>1.000044119491572</v>
+        <v>1.002524684431974</v>
       </c>
       <c r="E23">
-        <v>0.9812706364876946</v>
+        <v>0.9838445937922893</v>
       </c>
       <c r="F23">
-        <v>1.010817709071154</v>
+        <v>1.011140123054073</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036598984055936</v>
+        <v>1.037652973413062</v>
       </c>
       <c r="J23">
-        <v>1.000563541628882</v>
+        <v>1.00335349360542</v>
       </c>
       <c r="K23">
-        <v>1.015301911185186</v>
+        <v>1.01773463608372</v>
       </c>
       <c r="L23">
-        <v>0.9969008297467278</v>
+        <v>0.999422621406498</v>
       </c>
       <c r="M23">
-        <v>1.02586994845362</v>
+        <v>1.026186299174649</v>
       </c>
       <c r="N23">
-        <v>1.00364599276344</v>
+        <v>1.008417615548555</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029046626713894</v>
+        <v>1.02929700111653</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.021949479789998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.023684376155854</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017192120794373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9766009398556627</v>
+        <v>0.9787622117318822</v>
       </c>
       <c r="D24">
-        <v>1.004822496552005</v>
+        <v>1.006614517316647</v>
       </c>
       <c r="E24">
-        <v>0.9871782616122874</v>
+        <v>0.9890758206333878</v>
       </c>
       <c r="F24">
-        <v>1.01581067725854</v>
+        <v>1.016040115669035</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038203225435419</v>
+        <v>1.038963710191653</v>
       </c>
       <c r="J24">
-        <v>1.005030452142442</v>
+        <v>1.007103035299601</v>
       </c>
       <c r="K24">
-        <v>1.018765449733593</v>
+        <v>1.020526461864795</v>
       </c>
       <c r="L24">
-        <v>1.001434345949855</v>
+        <v>1.003297532021908</v>
       </c>
       <c r="M24">
-        <v>1.029565714418228</v>
+        <v>1.029791284930754</v>
       </c>
       <c r="N24">
-        <v>1.005206358532438</v>
+        <v>1.008934609763871</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.031971618979321</v>
+        <v>1.032150145038682</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.024390818606233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.025649997629301</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017801358178652</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9849578504756221</v>
+        <v>0.9865414240809526</v>
       </c>
       <c r="D25">
-        <v>1.010169427185404</v>
+        <v>1.011390401219576</v>
       </c>
       <c r="E25">
-        <v>0.9937953378444601</v>
+        <v>0.9951899282545292</v>
       </c>
       <c r="F25">
-        <v>1.021396328591554</v>
+        <v>1.02155177938055</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.039942224818202</v>
+        <v>1.040465248957832</v>
       </c>
       <c r="J25">
-        <v>1.010002268130987</v>
+        <v>1.011530369934219</v>
       </c>
       <c r="K25">
-        <v>1.022611900731428</v>
+        <v>1.023814432198061</v>
       </c>
       <c r="L25">
-        <v>1.006490742924229</v>
+        <v>1.007863376154068</v>
       </c>
       <c r="M25">
-        <v>1.033671331851973</v>
+        <v>1.033824496610498</v>
       </c>
       <c r="N25">
-        <v>1.00694151943641</v>
+        <v>1.010109895544248</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03522097142954</v>
+        <v>1.035342191952535</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.027107626416071</v>
+        <v>1.027971593848418</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018526992481044</v>
       </c>
     </row>
   </sheetData>
